--- a/SMP_PE.xlsx
+++ b/SMP_PE.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="48">
   <si>
     <t>avgT</t>
   </si>
@@ -178,6 +178,10 @@
   </si>
   <si>
     <t>eq_pla</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>s_n_real_pred</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -576,10 +580,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AU22"/>
+  <dimension ref="A1:AV22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AC1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="AO3" sqref="AO3"/>
+    <sheetView tabSelected="1" topLeftCell="AK1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AV3" sqref="AV3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -606,10 +610,11 @@
     <col min="43" max="43" width="8.88671875" customWidth="1"/>
     <col min="44" max="44" width="12.44140625" customWidth="1"/>
     <col min="45" max="45" width="11.21875" customWidth="1"/>
-    <col min="48" max="1028" width="11.5546875"/>
+    <col min="48" max="48" width="13.33203125" customWidth="1"/>
+    <col min="49" max="1028" width="11.5546875"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -751,8 +756,11 @@
       <c r="AU1" t="s">
         <v>43</v>
       </c>
+      <c r="AV1" t="s">
+        <v>47</v>
+      </c>
     </row>
-    <row r="2" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>0.160598911058</v>
       </c>
@@ -878,14 +886,21 @@
         <f>3*(1-2*0.33)*(AK2-AK1)/(AC2-AC1)</f>
         <v>#VALUE!</v>
       </c>
+      <c r="AQ2">
+        <v>5.25</v>
+      </c>
       <c r="AS2">
         <v>0</v>
       </c>
       <c r="AU2">
         <v>0</v>
       </c>
+      <c r="AV2">
+        <f>(AQ2*X2-2*X2*(1-0.01*P2-2*0.01*AF2)/(-0.08/0.4*0.01*P2-(2*0.08/0.4+3)*0.01*AF2+1+0.08/0.4)+4*53000*(-0.4*0.01*AF2-0.08*0.01*P2)/((1-2*0.01*AF2)*0.4*0.08))/1000</f>
+        <v>4.9407376402441345</v>
+      </c>
     </row>
-    <row r="3" spans="1:47" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:48" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>0.508269369114</v>
       </c>
@@ -1020,7 +1035,7 @@
         <v>-0.15365881468008247</v>
       </c>
       <c r="AO3" s="1">
-        <v>28139.598604578088</v>
+        <v>28139.598604578099</v>
       </c>
       <c r="AP3" s="1">
         <f>(AK3*1.35*(AK3/3255000)^-0.0723-AK2*1.35*(AK2/3255000)^-0.0723)/(AK3-AK2)</f>
@@ -1032,22 +1047,26 @@
       </c>
       <c r="AR3" s="1">
         <f>(1+2*AM3)*(AK3-AK2)*(1-AP3/3)/(3*AN3*AO3*AM3)</f>
-        <v>2.9354347030212981E-3</v>
+        <v>2.9354347030212968E-3</v>
       </c>
       <c r="AS3" s="1">
         <f>(AS2+AR3)</f>
-        <v>2.9354347030212981E-3</v>
+        <v>2.9354347030212968E-3</v>
       </c>
       <c r="AT3" s="1">
         <f>2*(1-AM3)*(AK3-AK2)*(1-AP3/3)/(9*AN3*AO3*AM3)</f>
-        <v>0.24914790723220506</v>
+        <v>0.24914790723220495</v>
       </c>
       <c r="AU3" s="1">
         <f>AU2+AT3</f>
-        <v>0.24914790723220506</v>
+        <v>0.24914790723220495</v>
+      </c>
+      <c r="AV3">
+        <f t="shared" ref="AV3:AV18" si="11">(AQ3*X3-2*X3*(1-0.01*P3-2*0.01*AF3)/(-0.08/0.4*0.01*P3-(2*0.08/0.4+3)*0.01*AF3+1+0.08/0.4)+4*53000*(-0.4*0.01*AF3-0.08*0.01*P3)/((1-2*0.01*AF3)*0.4*0.08))/1000</f>
+        <v>23.461433992746706</v>
       </c>
     </row>
-    <row r="4" spans="1:47" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:48" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>1.6453933726400001</v>
       </c>
@@ -1158,7 +1177,7 @@
         <v>1.1007263251172492</v>
       </c>
       <c r="AI4" s="2">
-        <f t="shared" ref="AI4:AI18" si="11">-AG4/AH4</f>
+        <f t="shared" ref="AI4:AI18" si="12">-AG4/AH4</f>
         <v>0.11056994181734359</v>
       </c>
       <c r="AJ4">
@@ -1185,31 +1204,35 @@
         <v>28139.598604578088</v>
       </c>
       <c r="AP4" s="2">
-        <f t="shared" ref="AP4:AP18" si="12">(AK4*1.35*(AK4/3255000)^-0.0723-AK3*1.35*(AK3/3255000)^-0.0723)/(AK4-AK3)</f>
+        <f t="shared" ref="AP4:AP18" si="13">(AK4*1.35*(AK4/3255000)^-0.0723-AK3*1.35*(AK3/3255000)^-0.0723)/(AK4-AK3)</f>
         <v>1.8443558894483842</v>
       </c>
       <c r="AQ4" s="2">
-        <f t="shared" ref="AQ4:AQ18" si="13">(2*AP4+3)/(3-AP4)</f>
+        <f t="shared" ref="AQ4:AQ18" si="14">(2*AP4+3)/(3-AP4)</f>
         <v>5.7878647222146027</v>
       </c>
       <c r="AR4" s="1">
-        <f t="shared" ref="AR4:AR18" si="14">(1+2*AM4)*(AK4-AK3)*(1-AP4/3)/(3*AN4*AO4*AM4)</f>
+        <f t="shared" ref="AR4:AR18" si="15">(1+2*AM4)*(AK4-AK3)*(1-AP4/3)/(3*AN4*AO4*AM4)</f>
         <v>-0.10051972272310966</v>
       </c>
       <c r="AS4" s="2">
-        <f t="shared" ref="AS4:AS18" si="15">AS3+AR4</f>
+        <f t="shared" ref="AS4:AS18" si="16">AS3+AR4</f>
         <v>-9.7584288020088367E-2</v>
       </c>
       <c r="AT4" s="1">
-        <f t="shared" ref="AT4:AT18" si="16">2*(1-AM4)*(AK4-AK3)*(1-AP4/3)/(9*AN4*AO4*AM4)</f>
+        <f t="shared" ref="AT4:AT18" si="17">2*(1-AM4)*(AK4-AK3)*(1-AP4/3)/(9*AN4*AO4*AM4)</f>
         <v>0.81381562927102846</v>
       </c>
       <c r="AU4" s="2">
         <f>AU3+AT4</f>
         <v>1.0629635365032335</v>
       </c>
+      <c r="AV4">
+        <f t="shared" si="11"/>
+        <v>59.358778974531958</v>
+      </c>
     </row>
-    <row r="5" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>3.1487884125400001</v>
       </c>
@@ -1320,7 +1343,7 @@
         <v>1.1120010119646635</v>
       </c>
       <c r="AI5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0.26922077481297862</v>
       </c>
       <c r="AJ5">
@@ -1347,31 +1370,35 @@
         <v>28139.598604578088</v>
       </c>
       <c r="AP5">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>1.7322564764106896</v>
       </c>
       <c r="AQ5">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>5.0992277479901205</v>
       </c>
       <c r="AR5" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>-0.22199599919263338</v>
       </c>
       <c r="AS5">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>-0.31958028721272175</v>
       </c>
       <c r="AT5" s="1">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>1.002913566181221</v>
       </c>
       <c r="AU5">
         <f>AU4+AT5</f>
         <v>2.0658771026844542</v>
       </c>
+      <c r="AV5">
+        <f t="shared" si="11"/>
+        <v>102.05813699427313</v>
+      </c>
     </row>
-    <row r="6" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>4.8111521126300003</v>
       </c>
@@ -1482,7 +1509,7 @@
         <v>1.082956337777345</v>
       </c>
       <c r="AI6">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0.23761623301763646</v>
       </c>
       <c r="AJ6">
@@ -1509,31 +1536,35 @@
         <v>28139.598604578088</v>
       </c>
       <c r="AP6">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>1.6671504107658244</v>
       </c>
       <c r="AQ6">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>4.7524498433249249</v>
       </c>
       <c r="AR6" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>-0.29818489975141144</v>
       </c>
       <c r="AS6">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>-0.61776518696413318</v>
       </c>
       <c r="AT6" s="1">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>1.0620944884589241</v>
       </c>
       <c r="AU6">
-        <f t="shared" ref="AU6:AU18" si="17">AU5+AT6</f>
+        <f t="shared" ref="AU6:AU18" si="18">AU5+AT6</f>
         <v>3.1279715911433783</v>
       </c>
+      <c r="AV6">
+        <f t="shared" si="11"/>
+        <v>145.20779709901129</v>
+      </c>
     </row>
-    <row r="7" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6.5685508673699999</v>
       </c>
@@ -1644,7 +1675,7 @@
         <v>1.1264590065013014</v>
       </c>
       <c r="AI7">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0.3569969996478331</v>
       </c>
       <c r="AJ7">
@@ -1671,31 +1702,35 @@
         <v>28139.598604578088</v>
       </c>
       <c r="AP7">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>1.6235078267812537</v>
       </c>
       <c r="AQ7">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>4.5383590078501364</v>
       </c>
       <c r="AR7" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>-0.34870819487991678</v>
       </c>
       <c r="AS7">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>-0.96647338184404996</v>
       </c>
       <c r="AT7" s="1">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>1.0837007753150811</v>
       </c>
       <c r="AU7">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>4.2116723664584592</v>
       </c>
+      <c r="AV7">
+        <f t="shared" si="11"/>
+        <v>192.76110898938148</v>
+      </c>
     </row>
-    <row r="8" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>8.3302405671600006</v>
       </c>
@@ -1806,7 +1841,7 @@
         <v>1.1414077752963818</v>
       </c>
       <c r="AI8">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0.37861265048389631</v>
       </c>
       <c r="AJ8">
@@ -1833,31 +1868,35 @@
         <v>28139.598604578088</v>
       </c>
       <c r="AP8">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>1.5909360061713129</v>
       </c>
       <c r="AQ8">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>4.3872187774419942</v>
       </c>
       <c r="AR8" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>-0.39507370664727764</v>
       </c>
       <c r="AS8">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>-1.3615470884913277</v>
       </c>
       <c r="AT8" s="1">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>1.1189383202521008</v>
       </c>
       <c r="AU8">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>5.3306106867105605</v>
       </c>
+      <c r="AV8">
+        <f t="shared" si="11"/>
+        <v>240.78955238472437</v>
+      </c>
     </row>
-    <row r="9" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>10.1081107487</v>
       </c>
@@ -1968,7 +2007,7 @@
         <v>1.1519801592479384</v>
       </c>
       <c r="AI9">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0.41690135743887979</v>
       </c>
       <c r="AJ9">
@@ -1995,31 +2034,35 @@
         <v>28139.598604578088</v>
       </c>
       <c r="AP9">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>1.5660912330976451</v>
       </c>
       <c r="AQ9">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>4.2765499505540543</v>
       </c>
       <c r="AR9" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>-0.38684488008829637</v>
       </c>
       <c r="AS9">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>-1.7483919685796241</v>
       </c>
       <c r="AT9" s="1">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>1.0250898571420317</v>
       </c>
       <c r="AU9">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>6.355700543852592</v>
       </c>
+      <c r="AV9">
+        <f t="shared" si="11"/>
+        <v>287.26530790183193</v>
+      </c>
     </row>
-    <row r="10" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>11.863345736599999</v>
       </c>
@@ -2130,7 +2173,7 @@
         <v>1.1494139425057863</v>
       </c>
       <c r="AI10">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0.42337505205884429</v>
       </c>
       <c r="AJ10">
@@ -2157,31 +2200,35 @@
         <v>28139.598604578088</v>
       </c>
       <c r="AP10">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>1.5470482432552271</v>
       </c>
       <c r="AQ10">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>4.1942868771939201</v>
       </c>
       <c r="AR10" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>-0.38273635867892974</v>
       </c>
       <c r="AS10">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>-2.1311283272585539</v>
       </c>
       <c r="AT10" s="1">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>0.96587601241481769</v>
       </c>
       <c r="AU10">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>7.3215765562674093</v>
       </c>
+      <c r="AV10">
+        <f t="shared" si="11"/>
+        <v>332.65808639797717</v>
+      </c>
     </row>
-    <row r="11" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>13.559501474499999</v>
       </c>
@@ -2292,7 +2339,7 @@
         <v>1.1631897075219113</v>
       </c>
       <c r="AI11">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0.42690582723184634</v>
       </c>
       <c r="AJ11">
@@ -2319,31 +2366,35 @@
         <v>28139.598604578088</v>
       </c>
       <c r="AP11">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>1.5317723436675272</v>
       </c>
       <c r="AQ11">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>4.129839579838289</v>
       </c>
       <c r="AR11" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>-0.36744933601365415</v>
       </c>
       <c r="AS11">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>-2.4985776632722079</v>
       </c>
       <c r="AT11" s="1">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>0.89279256033259169</v>
       </c>
       <c r="AU11">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>8.2143691166000004</v>
       </c>
+      <c r="AV11">
+        <f t="shared" si="11"/>
+        <v>377.21791787820126</v>
+      </c>
     </row>
-    <row r="12" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>15.2057996294</v>
       </c>
@@ -2454,7 +2505,7 @@
         <v>1.1665994610987687</v>
       </c>
       <c r="AI12">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0.45764120663698477</v>
       </c>
       <c r="AJ12">
@@ -2481,31 +2532,35 @@
         <v>28139.598604578088</v>
       </c>
       <c r="AP12">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>1.518649905691144</v>
       </c>
       <c r="AQ12">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>4.0755388173104841</v>
       </c>
       <c r="AR12" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>-0.39167732526288207</v>
       </c>
       <c r="AS12">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>-2.8902549885350899</v>
       </c>
       <c r="AT12" s="1">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>0.92191440294078308</v>
       </c>
       <c r="AU12">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>9.1362835195407825</v>
       </c>
+      <c r="AV12">
+        <f t="shared" si="11"/>
+        <v>422.23424148498833</v>
+      </c>
     </row>
-    <row r="13" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>16.7294617465</v>
       </c>
@@ -2616,7 +2671,7 @@
         <v>1.2111902496092934</v>
       </c>
       <c r="AI13">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0.54060842315738877</v>
       </c>
       <c r="AJ13">
@@ -2643,31 +2698,35 @@
         <v>28139.598604578088</v>
       </c>
       <c r="AP13">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>1.5077885627325758</v>
       </c>
       <c r="AQ13">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>4.0313168598151412</v>
       </c>
       <c r="AR13" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>-0.32653093440050962</v>
       </c>
       <c r="AS13">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>-3.2167859229355997</v>
       </c>
       <c r="AT13" s="1">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>0.74904159449485508</v>
       </c>
       <c r="AU13">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>9.8853251140356377</v>
       </c>
+      <c r="AV13">
+        <f t="shared" si="11"/>
+        <v>465.76754272601011</v>
+      </c>
     </row>
-    <row r="14" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>18.081688816100002</v>
       </c>
@@ -2778,7 +2837,7 @@
         <v>1.1722066933151076</v>
       </c>
       <c r="AI14">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0.45310707379441123</v>
       </c>
       <c r="AJ14">
@@ -2805,31 +2864,35 @@
         <v>28139.598604578088</v>
       </c>
       <c r="AP14">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>1.4995276395959829</v>
       </c>
       <c r="AQ14">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>3.9981111531948916</v>
       </c>
       <c r="AR14" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>-0.28361820612571581</v>
       </c>
       <c r="AS14">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>-3.5004041290613155</v>
       </c>
       <c r="AT14" s="1">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>0.63818572646513827</v>
       </c>
       <c r="AU14">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>10.523510840500776</v>
       </c>
+      <c r="AV14">
+        <f t="shared" si="11"/>
+        <v>504.12219932693569</v>
+      </c>
     </row>
-    <row r="15" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>18.802809787099999</v>
       </c>
@@ -2940,7 +3003,7 @@
         <v>1.2747337515135495</v>
       </c>
       <c r="AI15">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0.63340270627220008</v>
       </c>
       <c r="AJ15">
@@ -2967,31 +3030,35 @@
         <v>28139.598604578088</v>
       </c>
       <c r="AP15">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>1.4961981301422862</v>
       </c>
       <c r="AQ15">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>3.9848309676936089</v>
       </c>
       <c r="AR15" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>2.2887437504523867E-2</v>
       </c>
       <c r="AS15">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>-3.4775166915567914</v>
       </c>
       <c r="AT15" s="1">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>-5.1105675477032216E-2</v>
       </c>
       <c r="AU15">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>10.472405165023744</v>
       </c>
+      <c r="AV15">
+        <f t="shared" si="11"/>
+        <v>532.77736986854461</v>
+      </c>
     </row>
-    <row r="16" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>18.943144225699999</v>
       </c>
@@ -3102,7 +3169,7 @@
         <v>1.4861610710886382</v>
       </c>
       <c r="AI16">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0.97771572090801329</v>
       </c>
       <c r="AJ16">
@@ -3129,31 +3196,35 @@
         <v>28139.598604578088</v>
       </c>
       <c r="AP16">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>1.4993617521296954</v>
       </c>
       <c r="AQ16">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>3.9974480943510118</v>
       </c>
       <c r="AR16" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>0.22589386887338517</v>
       </c>
       <c r="AS16">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>-3.2516228226834061</v>
       </c>
       <c r="AT16" s="1">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>-0.50810156807330853</v>
       </c>
       <c r="AU16">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>9.964303596950435</v>
       </c>
+      <c r="AV16">
+        <f t="shared" si="11"/>
+        <v>563.08942395418944</v>
+      </c>
     </row>
-    <row r="17" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>19.166691396400001</v>
       </c>
@@ -3264,7 +3335,7 @@
         <v>1.1898322003086168</v>
       </c>
       <c r="AI17">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0.48260182800215368</v>
       </c>
       <c r="AJ17">
@@ -3291,31 +3362,35 @@
         <v>28139.598604578088</v>
       </c>
       <c r="AP17">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>1.5029102215241579</v>
       </c>
       <c r="AQ17">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>4.0116635150383066</v>
       </c>
       <c r="AR17" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>4.5857493560592363E-2</v>
       </c>
       <c r="AS17">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>-3.2057653291228139</v>
       </c>
       <c r="AT17" s="1">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>-0.10400068470433915</v>
       </c>
       <c r="AU17">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>9.8603029122460963</v>
       </c>
+      <c r="AV17">
+        <f t="shared" si="11"/>
+        <v>583.01347807029947</v>
+      </c>
     </row>
-    <row r="18" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>18.9103806629</v>
       </c>
@@ -3426,7 +3501,7 @@
         <v>1.4295014867303006</v>
       </c>
       <c r="AI18">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0.88109870623670306</v>
       </c>
       <c r="AJ18">
@@ -3453,31 +3528,35 @@
         <v>28139.598604578088</v>
       </c>
       <c r="AP18">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>1.5078052642379274</v>
       </c>
       <c r="AQ18">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>4.0313843657970336</v>
       </c>
       <c r="AR18" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>0.30611501796858726</v>
       </c>
       <c r="AS18">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>-2.8996503111542267</v>
       </c>
       <c r="AT18" s="1">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>-0.70223630096200618</v>
       </c>
       <c r="AU18">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>9.1580666112840898</v>
       </c>
+      <c r="AV18">
+        <f t="shared" si="11"/>
+        <v>599.76628177392058</v>
+      </c>
     </row>
-    <row r="19" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>18.596284598899999</v>
       </c>
@@ -3564,7 +3643,7 @@
         <v>-8.3865018885030942</v>
       </c>
     </row>
-    <row r="20" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>18.671151548299999</v>
       </c>
@@ -3651,7 +3730,7 @@
         <v>-9.2577310762631306</v>
       </c>
     </row>
-    <row r="21" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>18.5911722737</v>
       </c>
@@ -3738,7 +3817,7 @@
         <v>-9.9604393099804724</v>
       </c>
     </row>
-    <row r="22" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>17.981935276200002</v>
       </c>

--- a/SMP_PE.xlsx
+++ b/SMP_PE.xlsx
@@ -580,10 +580,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AV22"/>
+  <dimension ref="A1:AZ22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AK1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AV3" sqref="AV3"/>
+    <sheetView tabSelected="1" topLeftCell="AR1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AV2" sqref="AV2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -610,11 +610,13 @@
     <col min="43" max="43" width="8.88671875" customWidth="1"/>
     <col min="44" max="44" width="12.44140625" customWidth="1"/>
     <col min="45" max="45" width="11.21875" customWidth="1"/>
-    <col min="48" max="48" width="13.33203125" customWidth="1"/>
-    <col min="49" max="1028" width="11.5546875"/>
+    <col min="48" max="49" width="13.33203125" customWidth="1"/>
+    <col min="50" max="51" width="13.109375" bestFit="1" customWidth="1"/>
+    <col min="52" max="52" width="13.109375" customWidth="1"/>
+    <col min="53" max="1030" width="11.5546875"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -760,7 +762,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="2" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>0.160598911058</v>
       </c>
@@ -896,11 +898,11 @@
         <v>0</v>
       </c>
       <c r="AV2">
-        <f>(AQ2*X2-2*X2*(1-0.01*P2-2*0.01*AF2)/(-0.08/0.4*0.01*P2-(2*0.08/0.4+3)*0.01*AF2+1+0.08/0.4)+4*53000*(-0.4*0.01*AF2-0.08*0.01*P2)/((1-2*0.01*AF2)*0.4*0.08))/1000</f>
-        <v>4.9407376402441345</v>
+        <f>(AQ2*X2-4*X2*(1-2*0.01*P2-0.01*AF2)*(0.08/0.4)^2/(-0.08/0.4*0.01*P2-(2*0.08/0.4+3)*0.01*AF2+0.08/0.4+1))/1000</f>
+        <v>7.0549048057573849</v>
       </c>
     </row>
-    <row r="3" spans="1:48" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:52" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>0.508269369114</v>
       </c>
@@ -1062,11 +1064,15 @@
         <v>0.24914790723220495</v>
       </c>
       <c r="AV3">
-        <f t="shared" ref="AV3:AV18" si="11">(AQ3*X3-2*X3*(1-0.01*P3-2*0.01*AF3)/(-0.08/0.4*0.01*P3-(2*0.08/0.4+3)*0.01*AF3+1+0.08/0.4)+4*53000*(-0.4*0.01*AF3-0.08*0.01*P3)/((1-2*0.01*AF3)*0.4*0.08))/1000</f>
-        <v>23.461433992746706</v>
-      </c>
+        <f t="shared" ref="AV3:AV18" si="11">(AQ3*X3-4*X3*(1-0.01*P3-2*0.01*AF3)*(0.08/0.4)/(-0.08/0.4*0.01*P3-(2*0.08/0.4+3)*0.01*AF3+0.08/0.4+1))/1000</f>
+        <v>26.151007484355013</v>
+      </c>
+      <c r="AW3"/>
+      <c r="AX3"/>
+      <c r="AY3"/>
+      <c r="AZ3"/>
     </row>
-    <row r="4" spans="1:48" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:52" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>1.6453933726400001</v>
       </c>
@@ -1229,10 +1235,14 @@
       </c>
       <c r="AV4">
         <f t="shared" si="11"/>
-        <v>59.358778974531958</v>
-      </c>
+        <v>67.585479345828716</v>
+      </c>
+      <c r="AW4"/>
+      <c r="AX4"/>
+      <c r="AY4"/>
+      <c r="AZ4"/>
     </row>
-    <row r="5" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>3.1487884125400001</v>
       </c>
@@ -1395,10 +1405,10 @@
       </c>
       <c r="AV5">
         <f t="shared" si="11"/>
-        <v>102.05813699427313</v>
+        <v>111.38436549242944</v>
       </c>
     </row>
-    <row r="6" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>4.8111521126300003</v>
       </c>
@@ -1561,10 +1571,10 @@
       </c>
       <c r="AV6">
         <f t="shared" si="11"/>
-        <v>145.20779709901129</v>
+        <v>156.48643236410419</v>
       </c>
     </row>
-    <row r="7" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6.5685508673699999</v>
       </c>
@@ -1727,10 +1737,10 @@
       </c>
       <c r="AV7">
         <f t="shared" si="11"/>
-        <v>192.76110898938148</v>
+        <v>202.20960898582848</v>
       </c>
     </row>
-    <row r="8" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>8.3302405671600006</v>
       </c>
@@ -1893,10 +1903,10 @@
       </c>
       <c r="AV8">
         <f t="shared" si="11"/>
-        <v>240.78955238472437</v>
+        <v>247.59159802958223</v>
       </c>
     </row>
-    <row r="9" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>10.1081107487</v>
       </c>
@@ -2059,10 +2069,10 @@
       </c>
       <c r="AV9">
         <f t="shared" si="11"/>
-        <v>287.26530790183193</v>
+        <v>289.20475981938586</v>
       </c>
     </row>
-    <row r="10" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>11.863345736599999</v>
       </c>
@@ -2225,10 +2235,10 @@
       </c>
       <c r="AV10">
         <f t="shared" si="11"/>
-        <v>332.65808639797717</v>
+        <v>329.17586663205594</v>
       </c>
     </row>
-    <row r="11" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>13.559501474499999</v>
       </c>
@@ -2391,10 +2401,10 @@
       </c>
       <c r="AV11">
         <f t="shared" si="11"/>
-        <v>377.21791787820126</v>
+        <v>367.68304006185787</v>
       </c>
     </row>
-    <row r="12" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>15.2057996294</v>
       </c>
@@ -2557,10 +2567,10 @@
       </c>
       <c r="AV12">
         <f t="shared" si="11"/>
-        <v>422.23424148498833</v>
+        <v>406.19814920134121</v>
       </c>
     </row>
-    <row r="13" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>16.7294617465</v>
       </c>
@@ -2723,10 +2733,10 @@
       </c>
       <c r="AV13">
         <f t="shared" si="11"/>
-        <v>465.76754272601011</v>
+        <v>439.31766403274253</v>
       </c>
     </row>
-    <row r="14" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>18.081688816100002</v>
       </c>
@@ -2889,10 +2899,10 @@
       </c>
       <c r="AV14">
         <f t="shared" si="11"/>
-        <v>504.12219932693569</v>
+        <v>469.11173846494273</v>
       </c>
     </row>
-    <row r="15" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>18.802809787099999</v>
       </c>
@@ -3055,10 +3065,10 @@
       </c>
       <c r="AV15">
         <f t="shared" si="11"/>
-        <v>532.77736986854461</v>
+        <v>477.4498258522658</v>
       </c>
     </row>
-    <row r="16" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>18.943144225699999</v>
       </c>
@@ -3221,7 +3231,7 @@
       </c>
       <c r="AV16">
         <f t="shared" si="11"/>
-        <v>563.08942395418944</v>
+        <v>471.63530899359938</v>
       </c>
     </row>
     <row r="17" spans="1:48" x14ac:dyDescent="0.25">
@@ -3387,7 +3397,7 @@
       </c>
       <c r="AV17">
         <f t="shared" si="11"/>
-        <v>583.01347807029947</v>
+        <v>475.77113218707916</v>
       </c>
     </row>
     <row r="18" spans="1:48" x14ac:dyDescent="0.25">
@@ -3553,7 +3563,7 @@
       </c>
       <c r="AV18">
         <f t="shared" si="11"/>
-        <v>599.76628177392058</v>
+        <v>460.18089440805079</v>
       </c>
     </row>
     <row r="19" spans="1:48" x14ac:dyDescent="0.25">

--- a/SMP_PE.xlsx
+++ b/SMP_PE.xlsx
@@ -105,6 +105,58 @@
     <t>ev</t>
   </si>
   <si>
+    <t>p</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>q</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>D/E</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>E</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>dratio</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>K_p</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>dev_pla_pred</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ev_pla_pred</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>deq_pred</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>eq_pred</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>dev/deq_pred</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>K_phi</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>s_n_real_pred</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
     <t>ev_ela</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -113,6 +165,10 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
+    <t>eq</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
     <t>er_from_ev</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -126,62 +182,6 @@
   </si>
   <si>
     <t>dev/deq</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>p</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>q</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>D/E</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>E</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>dratio</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>K_p</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>dev_pla_pred</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ev_pla_pred</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>deq_pred</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>eq_pred</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>dev/deq_pred</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>K_phi</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>eq_pla</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>s_n_real_pred</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -582,8 +582,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AZ22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AR1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AV2" sqref="AV2"/>
+    <sheetView tabSelected="1" topLeftCell="AA1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="AP3" sqref="AP3:AP12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -702,64 +702,64 @@
         <v>27</v>
       </c>
       <c r="AC1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AE1" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>44</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AI1" t="s">
+        <v>47</v>
+      </c>
+      <c r="AJ1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AK1" t="s">
         <v>28</v>
       </c>
-      <c r="AD1" t="s">
+      <c r="AL1" t="s">
         <v>29</v>
       </c>
-      <c r="AE1" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="AF1" t="s">
+      <c r="AM1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AN1" t="s">
         <v>30</v>
       </c>
-      <c r="AG1" t="s">
+      <c r="AO1" t="s">
         <v>31</v>
       </c>
-      <c r="AH1" t="s">
+      <c r="AP1" t="s">
         <v>32</v>
       </c>
-      <c r="AI1" t="s">
+      <c r="AQ1" t="s">
         <v>33</v>
       </c>
-      <c r="AJ1" t="s">
-        <v>44</v>
-      </c>
-      <c r="AK1" t="s">
+      <c r="AR1" t="s">
         <v>34</v>
       </c>
-      <c r="AL1" t="s">
+      <c r="AS1" t="s">
         <v>35</v>
       </c>
-      <c r="AM1" t="s">
-        <v>45</v>
-      </c>
-      <c r="AN1" t="s">
+      <c r="AT1" t="s">
         <v>36</v>
       </c>
-      <c r="AO1" t="s">
+      <c r="AU1" t="s">
         <v>37</v>
       </c>
-      <c r="AP1" t="s">
-        <v>38</v>
-      </c>
-      <c r="AQ1" t="s">
-        <v>39</v>
-      </c>
-      <c r="AR1" t="s">
+      <c r="AV1" t="s">
         <v>40</v>
-      </c>
-      <c r="AS1" t="s">
-        <v>41</v>
-      </c>
-      <c r="AT1" t="s">
-        <v>42</v>
-      </c>
-      <c r="AU1" t="s">
-        <v>43</v>
-      </c>
-      <c r="AV1" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="2" spans="1:52" x14ac:dyDescent="0.25">
@@ -849,16 +849,16 @@
         <v>-2.36137909226386E-7</v>
       </c>
       <c r="AC2">
-        <f>0.0762*AK2^0.2606-0.5912</f>
-        <v>-4.8505320644575134E-3</v>
+        <f>1.34 *((AK2/100000)^0.3-(2594/100000)^0.3)</f>
+        <v>-4.1125681660424598E-3</v>
       </c>
       <c r="AD2">
         <f>AB2-AC2</f>
-        <v>4.850295926548287E-3</v>
-      </c>
-      <c r="AE2" s="1">
-        <f>P2-AB2/3-2*(1.35*(AK2/3255000)^-0.0723)*(1+0.33)/(9*(1-2*0.33))</f>
-        <v>-1.9700923031221818</v>
+        <v>4.1123320281332334E-3</v>
+      </c>
+      <c r="AE2" s="2">
+        <f>P2-AB2/3</f>
+        <v>7.8712636408795333E-8</v>
       </c>
       <c r="AF2">
         <f t="shared" ref="AF2:AF18" si="1">AB2-P2/2</f>
@@ -988,36 +988,36 @@
         <f t="shared" si="0"/>
         <v>0.14424923787768051</v>
       </c>
-      <c r="AC3" s="1">
-        <f t="shared" ref="AC3:AC18" si="6">0.0762*AK3^0.2606-0.5912</f>
-        <v>0.18469952273342194</v>
-      </c>
-      <c r="AD3" s="1">
+      <c r="AC3">
+        <f t="shared" ref="AC3:AC18" si="6">1.34 *((AK3/100000)^0.3-(2594/100000)^0.3)</f>
+        <v>0.16480005342311152</v>
+      </c>
+      <c r="AD3">
         <f t="shared" ref="AD3:AD18" si="7">AB3-AC3</f>
-        <v>-4.0450284855741425E-2</v>
-      </c>
-      <c r="AE3" s="1">
-        <f t="shared" ref="AE3:AE18" si="8">P3-AB3/3-2*(1.35*(AK3/3255000)^-0.0723)*(1+0.33)/(9*(1-2*0.33))</f>
-        <v>-1.2189354576242168</v>
-      </c>
-      <c r="AF3" s="1">
+        <v>-2.0550815545431006E-2</v>
+      </c>
+      <c r="AE3" s="2">
+        <f t="shared" ref="AE3:AE18" si="8">P3-AB3/3</f>
+        <v>0.60385484924843991</v>
+      </c>
+      <c r="AF3">
         <f t="shared" si="1"/>
         <v>-0.18171972639281952</v>
       </c>
       <c r="AG3" s="1">
         <f t="shared" ref="AG3:AH18" si="9">AD3-AD2</f>
-        <v>-4.5300580782289712E-2</v>
+        <v>-2.4663147573564241E-2</v>
       </c>
       <c r="AH3" s="1">
         <f t="shared" si="9"/>
-        <v>0.75115684549796491</v>
-      </c>
-      <c r="AI3" s="1">
-        <f>-AG3/AH3</f>
-        <v>6.0307752041131396E-2</v>
+        <v>0.6038547705358035</v>
+      </c>
+      <c r="AI3">
+        <f t="shared" ref="AI3:AI18" si="10">-AG3/AH3</f>
+        <v>4.0842846288488374E-2</v>
       </c>
       <c r="AJ3">
-        <f t="shared" ref="AJ3:AJ18" si="10">(( 1.588*EXP(-0.0005387*53))^2-AP3^2)/(2*AP3)+0.4</f>
+        <f t="shared" ref="AJ3:AJ18" si="11">(( 1.588*EXP(-0.0005387*53))^2-AP3^2)/(2*AP3)+0.4</f>
         <v>-1.1781895885183802E-2</v>
       </c>
       <c r="AK3" s="1">
@@ -1064,7 +1064,7 @@
         <v>0.24914790723220495</v>
       </c>
       <c r="AV3">
-        <f t="shared" ref="AV3:AV18" si="11">(AQ3*X3-4*X3*(1-0.01*P3-2*0.01*AF3)*(0.08/0.4)/(-0.08/0.4*0.01*P3-(2*0.08/0.4+3)*0.01*AF3+0.08/0.4+1))/1000</f>
+        <f t="shared" ref="AV3:AV18" si="12">(AQ3*X3-4*X3*(1-0.01*P3-2*0.01*AF3)*(0.08/0.4)/(-0.08/0.4*0.01*P3-(2*0.08/0.4+3)*0.01*AF3+0.08/0.4+1))/1000</f>
         <v>26.151007484355013</v>
       </c>
       <c r="AW3"/>
@@ -1158,36 +1158,36 @@
         <f t="shared" si="0"/>
         <v>0.31701430431554378</v>
       </c>
-      <c r="AC4" s="2">
+      <c r="AC4">
         <f t="shared" si="6"/>
-        <v>0.47917183489631787</v>
-      </c>
-      <c r="AD4" s="2">
+        <v>0.43951887887353658</v>
+      </c>
+      <c r="AD4">
         <f t="shared" si="7"/>
-        <v>-0.16215753058077409</v>
-      </c>
-      <c r="AE4" s="1">
+        <v>-0.1225045745579928</v>
+      </c>
+      <c r="AE4" s="2">
         <f t="shared" si="8"/>
-        <v>-0.11820913250696763</v>
-      </c>
-      <c r="AF4" s="2">
+        <v>1.5489256315891522</v>
+      </c>
+      <c r="AF4">
         <f t="shared" si="1"/>
         <v>-0.51028422886495628</v>
       </c>
-      <c r="AG4" s="2">
+      <c r="AG4" s="1">
         <f t="shared" si="9"/>
-        <v>-0.12170724572503266</v>
-      </c>
-      <c r="AH4" s="2">
+        <v>-0.10195375901256179</v>
+      </c>
+      <c r="AH4" s="1">
         <f t="shared" si="9"/>
-        <v>1.1007263251172492</v>
-      </c>
-      <c r="AI4" s="2">
-        <f t="shared" ref="AI4:AI18" si="12">-AG4/AH4</f>
-        <v>0.11056994181734359</v>
+        <v>0.94507078234071229</v>
+      </c>
+      <c r="AI4">
+        <f t="shared" si="10"/>
+        <v>0.10787949529033893</v>
       </c>
       <c r="AJ4">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0.12351657931803256</v>
       </c>
       <c r="AK4" s="2">
@@ -1234,7 +1234,7 @@
         <v>1.0629635365032335</v>
       </c>
       <c r="AV4">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>67.585479345828716</v>
       </c>
       <c r="AW4"/>
@@ -1330,34 +1330,34 @@
       </c>
       <c r="AC5">
         <f t="shared" si="6"/>
-        <v>0.68271795400820712</v>
+        <v>0.63646857517935185</v>
       </c>
       <c r="AD5">
         <f t="shared" si="7"/>
-        <v>-0.46153130461471714</v>
-      </c>
-      <c r="AE5" s="1">
+        <v>-0.41528192578586187</v>
+      </c>
+      <c r="AE5" s="2">
         <f t="shared" si="8"/>
-        <v>0.99379187945769587</v>
+        <v>2.5823189195798366</v>
       </c>
       <c r="AF5">
         <f t="shared" si="1"/>
         <v>-1.10683725196201</v>
       </c>
-      <c r="AG5">
+      <c r="AG5" s="1">
         <f t="shared" si="9"/>
-        <v>-0.29937377403394305</v>
-      </c>
-      <c r="AH5">
+        <v>-0.29277735122786908</v>
+      </c>
+      <c r="AH5" s="1">
         <f t="shared" si="9"/>
-        <v>1.1120010119646635</v>
+        <v>1.0333932879906844</v>
       </c>
       <c r="AI5">
-        <f t="shared" si="12"/>
-        <v>0.26922077481297862</v>
+        <f t="shared" si="10"/>
+        <v>0.283316482340563</v>
       </c>
       <c r="AJ5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0.22135107817707983</v>
       </c>
       <c r="AK5">
@@ -1404,7 +1404,7 @@
         <v>2.0658771026844542</v>
       </c>
       <c r="AV5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>111.38436549242944</v>
       </c>
     </row>
@@ -1496,34 +1496,34 @@
       </c>
       <c r="AC6">
         <f t="shared" si="6"/>
-        <v>0.83484291662911847</v>
+        <v>0.78685496487971285</v>
       </c>
       <c r="AD6">
         <f t="shared" si="7"/>
-        <v>-0.71885931011994497</v>
-      </c>
-      <c r="AE6" s="1">
+        <v>-0.67087135837053935</v>
+      </c>
+      <c r="AE6" s="2">
         <f t="shared" si="8"/>
-        <v>2.0767482172350409</v>
+        <v>3.616329679161276</v>
       </c>
       <c r="AF6">
         <f t="shared" si="1"/>
         <v>-1.7115118341563267</v>
       </c>
-      <c r="AG6">
+      <c r="AG6" s="1">
         <f t="shared" si="9"/>
-        <v>-0.25732800550522783</v>
-      </c>
-      <c r="AH6">
+        <v>-0.25558943258467748</v>
+      </c>
+      <c r="AH6" s="1">
         <f t="shared" si="9"/>
-        <v>1.082956337777345</v>
+        <v>1.0340107595814394</v>
       </c>
       <c r="AI6">
-        <f t="shared" si="12"/>
-        <v>0.23761623301763646</v>
+        <f t="shared" si="10"/>
+        <v>0.24718256576763123</v>
       </c>
       <c r="AJ6">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0.28075176266479951</v>
       </c>
       <c r="AK6">
@@ -1570,7 +1570,7 @@
         <v>3.1279715911433783</v>
       </c>
       <c r="AV6">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>156.48643236410419</v>
       </c>
     </row>
@@ -1662,34 +1662,34 @@
       </c>
       <c r="AC7">
         <f t="shared" si="6"/>
-        <v>0.95685247262380524</v>
+        <v>0.90925043408470774</v>
       </c>
       <c r="AD7">
         <f t="shared" si="7"/>
-        <v>-1.1210017956671885</v>
-      </c>
-      <c r="AE7" s="1">
+        <v>-1.0733997571280911</v>
+      </c>
+      <c r="AE7" s="2">
         <f t="shared" si="8"/>
-        <v>3.2032072237363423</v>
+        <v>4.708119553395461</v>
       </c>
       <c r="AF7">
         <f t="shared" si="1"/>
         <v>-2.490850879233883</v>
       </c>
-      <c r="AG7">
+      <c r="AG7" s="1">
         <f t="shared" si="9"/>
-        <v>-0.40214248554724352</v>
-      </c>
-      <c r="AH7">
+        <v>-0.40252839875755175</v>
+      </c>
+      <c r="AH7" s="1">
         <f t="shared" si="9"/>
-        <v>1.1264590065013014</v>
+        <v>1.0917898742341849</v>
       </c>
       <c r="AI7">
-        <f t="shared" si="12"/>
-        <v>0.3569969996478331</v>
+        <f t="shared" si="10"/>
+        <v>0.36868669352690009</v>
       </c>
       <c r="AJ7">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0.32177534871517594</v>
       </c>
       <c r="AK7">
@@ -1736,7 +1736,7 @@
         <v>4.2116723664584592</v>
       </c>
       <c r="AV7">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>202.20960898582848</v>
       </c>
     </row>
@@ -1828,34 +1828,34 @@
       </c>
       <c r="AC8">
         <f t="shared" si="6"/>
-        <v>1.0616607449228568</v>
+        <v>1.0155664163094771</v>
       </c>
       <c r="AD8">
         <f t="shared" si="7"/>
-        <v>-1.5531532187550792</v>
-      </c>
-      <c r="AE8" s="1">
+        <v>-1.5070588901416995</v>
+      </c>
+      <c r="AE8" s="2">
         <f t="shared" si="8"/>
-        <v>4.3446149990327241</v>
+        <v>5.8224228299217398</v>
       </c>
       <c r="AF8">
         <f t="shared" si="1"/>
         <v>-3.320788476487722</v>
       </c>
-      <c r="AG8">
+      <c r="AG8" s="1">
         <f t="shared" si="9"/>
-        <v>-0.43215142308789067</v>
-      </c>
-      <c r="AH8">
+        <v>-0.43365913301360837</v>
+      </c>
+      <c r="AH8" s="1">
         <f t="shared" si="9"/>
-        <v>1.1414077752963818</v>
+        <v>1.1143032765262788</v>
       </c>
       <c r="AI8">
-        <f t="shared" si="12"/>
-        <v>0.37861265048389631</v>
+        <f t="shared" si="10"/>
+        <v>0.38917513943375837</v>
       </c>
       <c r="AJ8">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0.35307907459838006</v>
       </c>
       <c r="AK8">
@@ -1902,7 +1902,7 @@
         <v>5.3306106867105605</v>
       </c>
       <c r="AV8">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>247.59159802958223</v>
       </c>
     </row>
@@ -1994,34 +1994,34 @@
       </c>
       <c r="AC9">
         <f t="shared" si="6"/>
-        <v>1.1448622709563296</v>
+        <v>1.1006971360059508</v>
       </c>
       <c r="AD9">
         <f t="shared" si="7"/>
-        <v>-2.0334153108882016</v>
-      </c>
-      <c r="AE9" s="1">
+        <v>-1.9892501759378227</v>
+      </c>
+      <c r="AE9" s="2">
         <f t="shared" si="8"/>
-        <v>5.4965951582806625</v>
+        <v>6.9544037559349565</v>
       </c>
       <c r="AF9">
         <f t="shared" si="1"/>
         <v>-4.2176627445773711</v>
       </c>
-      <c r="AG9">
+      <c r="AG9" s="1">
         <f t="shared" si="9"/>
-        <v>-0.48026209213312243</v>
-      </c>
-      <c r="AH9">
+        <v>-0.48219128579612325</v>
+      </c>
+      <c r="AH9" s="1">
         <f t="shared" si="9"/>
-        <v>1.1519801592479384</v>
+        <v>1.1319809260132168</v>
       </c>
       <c r="AI9">
-        <f t="shared" si="12"/>
-        <v>0.41690135743887979</v>
+        <f t="shared" si="10"/>
+        <v>0.42597121092347212</v>
       </c>
       <c r="AJ9">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0.37737655620437677</v>
       </c>
       <c r="AK9">
@@ -2068,7 +2068,7 @@
         <v>6.355700543852592</v>
       </c>
       <c r="AV9">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>289.20475981938586</v>
       </c>
     </row>
@@ -2160,34 +2160,34 @@
       </c>
       <c r="AC10">
         <f t="shared" si="6"/>
-        <v>1.2149924069721456</v>
+        <v>1.1729353875385273</v>
       </c>
       <c r="AD10">
         <f t="shared" si="7"/>
-        <v>-2.5200484986337504</v>
-      </c>
-      <c r="AE10" s="1">
+        <v>-2.4779914792001323</v>
+      </c>
+      <c r="AE10" s="2">
         <f t="shared" si="8"/>
-        <v>6.6460091007864488</v>
+        <v>8.087888554101534</v>
       </c>
       <c r="AF10">
         <f t="shared" si="1"/>
         <v>-5.1314910201021045</v>
       </c>
-      <c r="AG10">
+      <c r="AG10" s="1">
         <f t="shared" si="9"/>
-        <v>-0.48663318774554876</v>
-      </c>
-      <c r="AH10">
+        <v>-0.48874130326230958</v>
+      </c>
+      <c r="AH10" s="1">
         <f t="shared" si="9"/>
-        <v>1.1494139425057863</v>
+        <v>1.1334847981665774</v>
       </c>
       <c r="AI10">
-        <f t="shared" si="12"/>
-        <v>0.42337505205884429</v>
+        <f t="shared" si="10"/>
+        <v>0.43118470053842217</v>
       </c>
       <c r="AJ10">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0.39625827099902622</v>
       </c>
       <c r="AK10">
@@ -2234,7 +2234,7 @@
         <v>7.3215765562674093</v>
       </c>
       <c r="AV10">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>329.17586663205594</v>
       </c>
     </row>
@@ -2326,34 +2326,34 @@
       </c>
       <c r="AC11">
         <f t="shared" si="6"/>
-        <v>1.2742085942340333</v>
+        <v>1.2342634287037701</v>
       </c>
       <c r="AD11">
         <f t="shared" si="7"/>
-        <v>-3.0166209629509613</v>
-      </c>
-      <c r="AE11" s="1">
+        <v>-2.9766757974206981</v>
+      </c>
+      <c r="AE11" s="2">
         <f t="shared" si="8"/>
-        <v>7.8091988083083601</v>
+        <v>9.2382312100566431</v>
       </c>
       <c r="AF11">
         <f t="shared" si="1"/>
         <v>-6.0711259122924277</v>
       </c>
-      <c r="AG11">
+      <c r="AG11" s="1">
         <f t="shared" si="9"/>
-        <v>-0.49657246431721092</v>
-      </c>
-      <c r="AH11">
+        <v>-0.4986843182205658</v>
+      </c>
+      <c r="AH11" s="1">
         <f t="shared" si="9"/>
-        <v>1.1631897075219113</v>
+        <v>1.1503426559551091</v>
       </c>
       <c r="AI11">
-        <f t="shared" si="12"/>
-        <v>0.42690582723184634</v>
+        <f t="shared" si="10"/>
+        <v>0.43350936839468679</v>
       </c>
       <c r="AJ11">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0.41157302641138527</v>
       </c>
       <c r="AK11">
@@ -2400,7 +2400,7 @@
         <v>8.2143691166000004</v>
       </c>
       <c r="AV11">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>367.68304006185787</v>
       </c>
     </row>
@@ -2492,34 +2492,34 @@
       </c>
       <c r="AC12">
         <f t="shared" si="6"/>
-        <v>1.3307418346858286</v>
+        <v>1.2930882904983581</v>
       </c>
       <c r="AD12">
         <f t="shared" si="7"/>
-        <v>-3.550504947990258</v>
-      </c>
-      <c r="AE12" s="1">
+        <v>-3.5128514038027872</v>
+      </c>
+      <c r="AE12" s="2">
         <f t="shared" si="8"/>
-        <v>8.9757982694071288</v>
+        <v>10.393042696659142</v>
       </c>
       <c r="AF12">
         <f t="shared" si="1"/>
         <v>-7.0463239427499289</v>
       </c>
-      <c r="AG12">
+      <c r="AG12" s="1">
         <f t="shared" si="9"/>
-        <v>-0.53388398503929668</v>
-      </c>
-      <c r="AH12">
+        <v>-0.53617560638208905</v>
+      </c>
+      <c r="AH12" s="1">
         <f t="shared" si="9"/>
-        <v>1.1665994610987687</v>
+        <v>1.1548114866024992</v>
       </c>
       <c r="AI12">
-        <f t="shared" si="12"/>
-        <v>0.45764120663698477</v>
+        <f t="shared" si="10"/>
+        <v>0.46429708450470886</v>
       </c>
       <c r="AJ12">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0.42485215982469099</v>
       </c>
       <c r="AK12">
@@ -2566,7 +2566,7 @@
         <v>9.1362835195407825</v>
       </c>
       <c r="AV12">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>406.19814920134121</v>
       </c>
     </row>
@@ -2658,34 +2658,34 @@
       </c>
       <c r="AC13">
         <f t="shared" si="6"/>
-        <v>1.3737568208773112</v>
+        <v>1.3380229358605791</v>
       </c>
       <c r="AD13">
         <f t="shared" si="7"/>
-        <v>-4.2052845989751422</v>
-      </c>
-      <c r="AE13" s="1">
+        <v>-4.1695507139584098</v>
+      </c>
+      <c r="AE13" s="2">
         <f t="shared" si="8"/>
-        <v>10.186988519016422</v>
+        <v>11.595556534490276</v>
       </c>
       <c r="AF13">
         <f t="shared" si="1"/>
         <v>-8.15738474899333</v>
       </c>
-      <c r="AG13">
+      <c r="AG13" s="1">
         <f t="shared" si="9"/>
-        <v>-0.65477965098488422</v>
-      </c>
-      <c r="AH13">
+        <v>-0.65669931015562266</v>
+      </c>
+      <c r="AH13" s="1">
         <f t="shared" si="9"/>
-        <v>1.2111902496092934</v>
+        <v>1.202513837831134</v>
       </c>
       <c r="AI13">
-        <f t="shared" si="12"/>
-        <v>0.54060842315738877</v>
+        <f t="shared" si="10"/>
+        <v>0.54610540810079333</v>
       </c>
       <c r="AJ13">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0.43593164491848863</v>
       </c>
       <c r="AK13">
@@ -2732,7 +2732,7 @@
         <v>9.8853251140356377</v>
       </c>
       <c r="AV13">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>439.31766403274253</v>
       </c>
     </row>
@@ -2824,34 +2824,34 @@
       </c>
       <c r="AC14">
         <f t="shared" si="6"/>
-        <v>1.4086099955569944</v>
+        <v>1.3745409124337273</v>
       </c>
       <c r="AD14">
         <f t="shared" si="7"/>
-        <v>-4.7364197436653734</v>
-      </c>
-      <c r="AE14" s="1">
+        <v>-4.7023506605421064</v>
+      </c>
+      <c r="AE14" s="2">
         <f t="shared" si="8"/>
-        <v>11.35919521233153</v>
+        <v>12.760909153627127</v>
       </c>
       <c r="AF14">
         <f t="shared" si="1"/>
         <v>-9.1536293669038784</v>
       </c>
-      <c r="AG14">
+      <c r="AG14" s="1">
         <f t="shared" si="9"/>
-        <v>-0.53113514469023126</v>
-      </c>
-      <c r="AH14">
+        <v>-0.53279994658369656</v>
+      </c>
+      <c r="AH14" s="1">
         <f t="shared" si="9"/>
-        <v>1.1722066933151076</v>
+        <v>1.1653526191368506</v>
       </c>
       <c r="AI14">
-        <f t="shared" si="12"/>
-        <v>0.45310707379441123</v>
+        <f t="shared" si="10"/>
+        <v>0.45720062565983588</v>
       </c>
       <c r="AJ14">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0.44441327087751592</v>
       </c>
       <c r="AK14">
@@ -2898,7 +2898,7 @@
         <v>10.523510840500776</v>
       </c>
       <c r="AV14">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>469.11173846494273</v>
       </c>
     </row>
@@ -2990,34 +2990,34 @@
       </c>
       <c r="AC15">
         <f t="shared" si="6"/>
-        <v>1.4058753532760144</v>
+        <v>1.3716721447836224</v>
       </c>
       <c r="AD15">
         <f t="shared" si="7"/>
-        <v>-5.5438395516505699</v>
-      </c>
-      <c r="AE15" s="1">
+        <v>-5.5096363431581779</v>
+      </c>
+      <c r="AE15" s="2">
         <f t="shared" si="8"/>
-        <v>12.633928963845079</v>
+        <v>14.036175153849184</v>
       </c>
       <c r="AF15">
         <f t="shared" si="1"/>
         <v>-10.466391075570055</v>
       </c>
-      <c r="AG15">
+      <c r="AG15" s="1">
         <f t="shared" si="9"/>
-        <v>-0.80741980798519641</v>
-      </c>
-      <c r="AH15">
+        <v>-0.80728568261607148</v>
+      </c>
+      <c r="AH15" s="1">
         <f t="shared" si="9"/>
-        <v>1.2747337515135495</v>
+        <v>1.2752660002220573</v>
       </c>
       <c r="AI15">
-        <f t="shared" si="12"/>
-        <v>0.63340270627220008</v>
+        <f t="shared" si="10"/>
+        <v>0.63303317305997486</v>
       </c>
       <c r="AJ15">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0.44784531836997016</v>
       </c>
       <c r="AK15">
@@ -3064,7 +3064,7 @@
         <v>10.472405165023744</v>
       </c>
       <c r="AV15">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>477.4498258522658</v>
       </c>
     </row>
@@ -3156,34 +3156,34 @@
       </c>
       <c r="AC16">
         <f t="shared" si="6"/>
-        <v>1.3781554466226915</v>
+        <v>1.3426263047016374</v>
       </c>
       <c r="AD16">
         <f t="shared" si="7"/>
-        <v>-6.9968825946554229</v>
-      </c>
-      <c r="AE16" s="1">
+        <v>-6.961353452734369</v>
+      </c>
+      <c r="AE16" s="2">
         <f t="shared" si="8"/>
-        <v>14.120090034933718</v>
+        <v>15.527784505235244</v>
       </c>
       <c r="AF16">
         <f t="shared" si="1"/>
         <v>-12.446164875978232</v>
       </c>
-      <c r="AG16">
+      <c r="AG16" s="1">
         <f t="shared" si="9"/>
-        <v>-1.4530430430048531</v>
-      </c>
-      <c r="AH16">
+        <v>-1.4517171095761912</v>
+      </c>
+      <c r="AH16" s="1">
         <f t="shared" si="9"/>
-        <v>1.4861610710886382</v>
+        <v>1.4916093513860602</v>
       </c>
       <c r="AI16">
-        <f t="shared" si="12"/>
-        <v>0.97771572090801329</v>
+        <f t="shared" si="10"/>
+        <v>0.97325557005069752</v>
       </c>
       <c r="AJ16">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0.44458408134806887</v>
       </c>
       <c r="AK16">
@@ -3230,7 +3230,7 @@
         <v>9.964303596950435</v>
       </c>
       <c r="AV16">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>471.63530899359938</v>
       </c>
     </row>
@@ -3322,34 +3322,34 @@
       </c>
       <c r="AC17">
         <f t="shared" si="6"/>
-        <v>1.3723580504668411</v>
+        <v>1.3365593830994347</v>
       </c>
       <c r="AD17">
         <f t="shared" si="7"/>
-        <v>-7.5710977895401861</v>
-      </c>
-      <c r="AE17" s="1">
+        <v>-7.5352991221727788</v>
+      </c>
+      <c r="AE17" s="2">
         <f t="shared" si="8"/>
-        <v>15.309922235242334</v>
+        <v>16.718768563182113</v>
       </c>
       <c r="AF17">
         <f t="shared" si="1"/>
         <v>-13.525000730818844</v>
       </c>
-      <c r="AG17">
+      <c r="AG17" s="1">
         <f t="shared" si="9"/>
-        <v>-0.57421519488476314</v>
-      </c>
-      <c r="AH17">
+        <v>-0.57394566943840974</v>
+      </c>
+      <c r="AH17" s="1">
         <f t="shared" si="9"/>
-        <v>1.1898322003086168</v>
+        <v>1.1909840579468689</v>
       </c>
       <c r="AI17">
-        <f t="shared" si="12"/>
-        <v>0.48260182800215368</v>
+        <f t="shared" si="10"/>
+        <v>0.48190877586374381</v>
       </c>
       <c r="AJ17">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0.44093453510387404</v>
       </c>
       <c r="AK17">
@@ -3396,7 +3396,7 @@
         <v>9.8603029122460963</v>
       </c>
       <c r="AV17">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>475.77113218707916</v>
       </c>
     </row>
@@ -3488,34 +3488,34 @@
       </c>
       <c r="AC18">
         <f t="shared" si="6"/>
-        <v>1.3320275814936875</v>
+        <v>1.2944292306190333</v>
       </c>
       <c r="AD18">
         <f t="shared" si="7"/>
-        <v>-8.8306297000616976</v>
-      </c>
-      <c r="AE18" s="1">
+        <v>-8.7930313491870429</v>
+      </c>
+      <c r="AE18" s="2">
         <f t="shared" si="8"/>
-        <v>16.739423721972635</v>
+        <v>18.156405220313669</v>
       </c>
       <c r="AF18">
         <f t="shared" si="1"/>
         <v>-15.327037708963509</v>
       </c>
-      <c r="AG18">
+      <c r="AG18" s="1">
         <f t="shared" si="9"/>
-        <v>-1.2595319105215115</v>
-      </c>
-      <c r="AH18">
+        <v>-1.2577322270142641</v>
+      </c>
+      <c r="AH18" s="1">
         <f t="shared" si="9"/>
-        <v>1.4295014867303006</v>
+        <v>1.4376366571315558</v>
       </c>
       <c r="AI18">
-        <f t="shared" si="12"/>
-        <v>0.88109870623670306</v>
+        <f t="shared" si="10"/>
+        <v>0.87486098853639005</v>
       </c>
       <c r="AJ18">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0.43591454550161352</v>
       </c>
       <c r="AK18">
@@ -3562,7 +3562,7 @@
         <v>9.1580666112840898</v>
       </c>
       <c r="AV18">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>460.18089440805079</v>
       </c>
     </row>

--- a/SMP_PE.xlsx
+++ b/SMP_PE.xlsx
@@ -121,10 +121,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>dratio</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>K_p</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -182,6 +178,10 @@
   </si>
   <si>
     <t>dev/deq</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>dratio</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -582,8 +582,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AZ22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AA1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="AP3" sqref="AP3:AP12"/>
+    <sheetView tabSelected="1" topLeftCell="AD1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="AO3" sqref="AO3:AO18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -702,28 +702,28 @@
         <v>27</v>
       </c>
       <c r="AC1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AD1" t="s">
         <v>41</v>
       </c>
-      <c r="AD1" t="s">
+      <c r="AE1" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="AE1" s="2" t="s">
+      <c r="AF1" t="s">
         <v>43</v>
       </c>
-      <c r="AF1" t="s">
+      <c r="AG1" t="s">
         <v>44</v>
       </c>
-      <c r="AG1" t="s">
+      <c r="AH1" t="s">
         <v>45</v>
       </c>
-      <c r="AH1" t="s">
+      <c r="AI1" t="s">
         <v>46</v>
       </c>
-      <c r="AI1" t="s">
-        <v>47</v>
-      </c>
       <c r="AJ1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="AK1" t="s">
         <v>28</v>
@@ -732,7 +732,7 @@
         <v>29</v>
       </c>
       <c r="AM1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="AN1" t="s">
         <v>30</v>
@@ -741,25 +741,25 @@
         <v>31</v>
       </c>
       <c r="AP1" t="s">
+        <v>47</v>
+      </c>
+      <c r="AQ1" t="s">
         <v>32</v>
       </c>
-      <c r="AQ1" t="s">
+      <c r="AR1" t="s">
         <v>33</v>
       </c>
-      <c r="AR1" t="s">
+      <c r="AS1" t="s">
         <v>34</v>
       </c>
-      <c r="AS1" t="s">
+      <c r="AT1" t="s">
         <v>35</v>
       </c>
-      <c r="AT1" t="s">
+      <c r="AU1" t="s">
         <v>36</v>
       </c>
-      <c r="AU1" t="s">
-        <v>37</v>
-      </c>
       <c r="AV1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="2" spans="1:52" x14ac:dyDescent="0.25">
@@ -864,9 +864,9 @@
         <f t="shared" ref="AF2:AF18" si="1">AB2-P2/2</f>
         <v>-2.36137909226386E-7</v>
       </c>
-      <c r="AJ2" t="e">
+      <c r="AJ2">
         <f>(( 1.588*EXP(-0.0005387*53))^2-AP2^2)/(2*AP2)+0.4</f>
-        <v>#DIV/0!</v>
+        <v>0.57095823460902184</v>
       </c>
       <c r="AK2">
         <f t="shared" ref="AK2:AK18" si="2">(X2+Y2+Z2)/3</f>
@@ -876,17 +876,21 @@
         <f t="shared" ref="AL2:AL18" si="3">Z2-(Y2+X2)/2</f>
         <v>3475.8422263949997</v>
       </c>
-      <c r="AM2" s="1" t="e">
-        <f t="shared" ref="AM2:AM18" si="4">(-2*AJ2-3)/(-2*AJ2+6)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AN2" t="e">
-        <f t="shared" ref="AN2:AN18" si="5">1/(2+AM2*AQ2-2*0.33*(1+AM2+AQ2))</f>
-        <v>#DIV/0!</v>
+      <c r="AM2" s="1">
+        <f>(-2*AI2-3)/(-2*AI2+6)</f>
+        <v>-0.5</v>
+      </c>
+      <c r="AN2">
+        <f t="shared" ref="AN2:AN18" si="4">1/(2+AM2*AQ2-2*0.33*(1+AM2+AQ2))</f>
+        <v>-0.22624434389140272</v>
       </c>
       <c r="AO2" s="1" t="e">
         <f>3*(1-2*0.33)*(AK2-AK1)/(AC2-AC1)</f>
         <v>#VALUE!</v>
+      </c>
+      <c r="AP2">
+        <f>AL2/AK2</f>
+        <v>1.3817837640450785</v>
       </c>
       <c r="AQ2">
         <v>5.25</v>
@@ -989,15 +993,15 @@
         <v>0.14424923787768051</v>
       </c>
       <c r="AC3">
-        <f t="shared" ref="AC3:AC18" si="6">1.34 *((AK3/100000)^0.3-(2594/100000)^0.3)</f>
+        <f t="shared" ref="AC3:AC18" si="5">1.34 *((AK3/100000)^0.3-(2594/100000)^0.3)</f>
         <v>0.16480005342311152</v>
       </c>
       <c r="AD3">
-        <f t="shared" ref="AD3:AD18" si="7">AB3-AC3</f>
+        <f t="shared" ref="AD3:AD18" si="6">AB3-AC3</f>
         <v>-2.0550815545431006E-2</v>
       </c>
       <c r="AE3" s="2">
-        <f t="shared" ref="AE3:AE18" si="8">P3-AB3/3</f>
+        <f t="shared" ref="AE3:AE18" si="7">P3-AB3/3</f>
         <v>0.60385484924843991</v>
       </c>
       <c r="AF3">
@@ -1005,67 +1009,67 @@
         <v>-0.18171972639281952</v>
       </c>
       <c r="AG3" s="1">
-        <f t="shared" ref="AG3:AH18" si="9">AD3-AD2</f>
+        <f t="shared" ref="AG3:AH18" si="8">AD3-AD2</f>
         <v>-2.4663147573564241E-2</v>
       </c>
       <c r="AH3" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>0.6038547705358035</v>
       </c>
       <c r="AI3">
-        <f t="shared" ref="AI3:AI18" si="10">-AG3/AH3</f>
+        <f t="shared" ref="AI3:AI18" si="9">-AG3/AH3</f>
         <v>4.0842846288488374E-2</v>
       </c>
       <c r="AJ3">
-        <f t="shared" ref="AJ3:AJ18" si="11">(( 1.588*EXP(-0.0005387*53))^2-AP3^2)/(2*AP3)+0.4</f>
-        <v>-1.1781895885183802E-2</v>
-      </c>
-      <c r="AK3" s="1">
+        <f t="shared" ref="AJ3:AJ18" si="10">(( 1.588*EXP(-0.0005387*53))^2-AP3^2)/(2*AP3)+0.4</f>
+        <v>0.59270249000329356</v>
+      </c>
+      <c r="AK3">
         <f t="shared" si="2"/>
         <v>7369.2502595533333</v>
       </c>
-      <c r="AL3" s="1">
+      <c r="AL3">
         <f t="shared" si="3"/>
         <v>10041.22055317</v>
       </c>
       <c r="AM3" s="1">
+        <f>(-2*AI3-3)/(-2*AI3+6)</f>
+        <v>-0.52070328348593853</v>
+      </c>
+      <c r="AN3" s="1">
         <f t="shared" si="4"/>
-        <v>-0.49413209706455796</v>
-      </c>
-      <c r="AN3" s="1">
-        <f t="shared" si="5"/>
-        <v>-0.15365881468008247</v>
+        <v>-0.40906108162439841</v>
       </c>
       <c r="AO3" s="1">
         <v>28139.598604578099</v>
       </c>
-      <c r="AP3" s="1">
-        <f>(AK3*1.35*(AK3/3255000)^-0.0723-AK2*1.35*(AK2/3255000)^-0.0723)/(AK3-AK2)</f>
-        <v>2.0090750205753558</v>
+      <c r="AP3">
+        <f>AL3/AK3</f>
+        <v>1.3625837364055839</v>
       </c>
       <c r="AQ3" s="1">
         <f>(2*AP3+3)/(3-AP3)</f>
-        <v>7.0824231772072439</v>
+        <v>3.4964642773508432</v>
       </c>
       <c r="AR3" s="1">
         <f>(1+2*AM3)*(AK3-AK2)*(1-AP3/3)/(3*AN3*AO3*AM3)</f>
-        <v>2.9354347030212968E-3</v>
+        <v>-6.1005518163690367E-3</v>
       </c>
       <c r="AS3" s="1">
         <f>(AS2+AR3)</f>
-        <v>2.9354347030212968E-3</v>
+        <v>-6.1005518163690367E-3</v>
       </c>
       <c r="AT3" s="1">
         <f>2*(1-AM3)*(AK3-AK2)*(1-AP3/3)/(9*AN3*AO3*AM3)</f>
-        <v>0.24914790723220495</v>
+        <v>0.14936647101621081</v>
       </c>
       <c r="AU3" s="1">
         <f>AU2+AT3</f>
-        <v>0.24914790723220495</v>
+        <v>0.14936647101621081</v>
       </c>
       <c r="AV3">
-        <f t="shared" ref="AV3:AV18" si="12">(AQ3*X3-4*X3*(1-0.01*P3-2*0.01*AF3)*(0.08/0.4)/(-0.08/0.4*0.01*P3-(2*0.08/0.4+3)*0.01*AF3+0.08/0.4+1))/1000</f>
-        <v>26.151007484355013</v>
+        <f t="shared" ref="AV3:AV18" si="11">(AQ3*X3-4*X3*(1-0.01*P3-2*0.01*AF3)*(0.08/0.4)/(-0.08/0.4*0.01*P3-(2*0.08/0.4+3)*0.01*AF3+0.08/0.4+1))/1000</f>
+        <v>11.544925646599328</v>
       </c>
       <c r="AW3"/>
       <c r="AX3"/>
@@ -1159,15 +1163,15 @@
         <v>0.31701430431554378</v>
       </c>
       <c r="AC4">
+        <f t="shared" si="5"/>
+        <v>0.43951887887353658</v>
+      </c>
+      <c r="AD4">
         <f t="shared" si="6"/>
-        <v>0.43951887887353658</v>
-      </c>
-      <c r="AD4">
+        <v>-0.1225045745579928</v>
+      </c>
+      <c r="AE4" s="2">
         <f t="shared" si="7"/>
-        <v>-0.1225045745579928</v>
-      </c>
-      <c r="AE4" s="2">
-        <f t="shared" si="8"/>
         <v>1.5489256315891522</v>
       </c>
       <c r="AF4">
@@ -1175,67 +1179,67 @@
         <v>-0.51028422886495628</v>
       </c>
       <c r="AG4" s="1">
+        <f t="shared" si="8"/>
+        <v>-0.10195375901256179</v>
+      </c>
+      <c r="AH4" s="1">
+        <f t="shared" si="8"/>
+        <v>0.94507078234071229</v>
+      </c>
+      <c r="AI4">
         <f t="shared" si="9"/>
-        <v>-0.10195375901256179</v>
-      </c>
-      <c r="AH4" s="1">
-        <f t="shared" si="9"/>
-        <v>0.94507078234071229</v>
-      </c>
-      <c r="AI4">
+        <v>0.10787949529033893</v>
+      </c>
+      <c r="AJ4">
         <f t="shared" si="10"/>
-        <v>0.10787949529033893</v>
-      </c>
-      <c r="AJ4">
-        <f t="shared" si="11"/>
-        <v>0.12351657931803256</v>
-      </c>
-      <c r="AK4" s="2">
+        <v>0.48355465849054891</v>
+      </c>
+      <c r="AK4">
         <f t="shared" si="2"/>
         <v>25328.292626999999</v>
       </c>
-      <c r="AL4" s="2">
+      <c r="AL4">
         <f t="shared" si="3"/>
         <v>37030.15371405</v>
       </c>
       <c r="AM4" s="1">
+        <f t="shared" ref="AM4:AM18" si="12">(-2*AI4-3)/(-2*AI4+6)</f>
+        <v>-0.55595176365299948</v>
+      </c>
+      <c r="AN4" s="2">
         <f t="shared" si="4"/>
-        <v>-0.56441019880209264</v>
-      </c>
-      <c r="AN4" s="2">
-        <f t="shared" si="5"/>
-        <v>-0.18607386486833286</v>
+        <v>-0.33594751478438328</v>
       </c>
       <c r="AO4" s="1">
         <v>28139.598604578088</v>
       </c>
-      <c r="AP4" s="2">
-        <f t="shared" ref="AP4:AP18" si="13">(AK4*1.35*(AK4/3255000)^-0.0723-AK3*1.35*(AK3/3255000)^-0.0723)/(AK4-AK3)</f>
-        <v>1.8443558894483842</v>
+      <c r="AP4">
+        <f>AL4/AK4</f>
+        <v>1.4620074972829318</v>
       </c>
       <c r="AQ4" s="2">
-        <f t="shared" ref="AQ4:AQ18" si="14">(2*AP4+3)/(3-AP4)</f>
-        <v>5.7878647222146027</v>
+        <f t="shared" ref="AQ4:AQ18" si="13">(2*AP4+3)/(3-AP4)</f>
+        <v>3.851784052328151</v>
       </c>
       <c r="AR4" s="1">
-        <f t="shared" ref="AR4:AR18" si="15">(1+2*AM4)*(AK4-AK3)*(1-AP4/3)/(3*AN4*AO4*AM4)</f>
-        <v>-0.10051972272310966</v>
+        <f t="shared" ref="AR4:AR18" si="14">(1+2*AM4)*(AK4-AK3)*(1-AP4/3)/(3*AN4*AO4*AM4)</f>
+        <v>-6.5344978128567086E-2</v>
       </c>
       <c r="AS4" s="2">
-        <f t="shared" ref="AS4:AS18" si="16">AS3+AR4</f>
-        <v>-9.7584288020088367E-2</v>
+        <f t="shared" ref="AS4:AS18" si="15">AS3+AR4</f>
+        <v>-7.1445529944936123E-2</v>
       </c>
       <c r="AT4" s="1">
-        <f t="shared" ref="AT4:AT18" si="17">2*(1-AM4)*(AK4-AK3)*(1-AP4/3)/(9*AN4*AO4*AM4)</f>
-        <v>0.81381562927102846</v>
+        <f t="shared" ref="AT4:AT18" si="16">2*(1-AM4)*(AK4-AK3)*(1-AP4/3)/(9*AN4*AO4*AM4)</f>
+        <v>0.60572194885323094</v>
       </c>
       <c r="AU4" s="2">
         <f>AU3+AT4</f>
-        <v>1.0629635365032335</v>
+        <v>0.75508841986944175</v>
       </c>
       <c r="AV4">
-        <f t="shared" si="12"/>
-        <v>67.585479345828716</v>
+        <f t="shared" si="11"/>
+        <v>42.093808622920491</v>
       </c>
       <c r="AW4"/>
       <c r="AX4"/>
@@ -1329,15 +1333,15 @@
         <v>0.22118664939348998</v>
       </c>
       <c r="AC5">
+        <f t="shared" si="5"/>
+        <v>0.63646857517935185</v>
+      </c>
+      <c r="AD5">
         <f t="shared" si="6"/>
-        <v>0.63646857517935185</v>
-      </c>
-      <c r="AD5">
+        <v>-0.41528192578586187</v>
+      </c>
+      <c r="AE5" s="2">
         <f t="shared" si="7"/>
-        <v>-0.41528192578586187</v>
-      </c>
-      <c r="AE5" s="2">
-        <f t="shared" si="8"/>
         <v>2.5823189195798366</v>
       </c>
       <c r="AF5">
@@ -1345,20 +1349,20 @@
         <v>-1.10683725196201</v>
       </c>
       <c r="AG5" s="1">
+        <f t="shared" si="8"/>
+        <v>-0.29277735122786908</v>
+      </c>
+      <c r="AH5" s="1">
+        <f t="shared" si="8"/>
+        <v>1.0333932879906844</v>
+      </c>
+      <c r="AI5">
         <f t="shared" si="9"/>
-        <v>-0.29277735122786908</v>
-      </c>
-      <c r="AH5" s="1">
-        <f t="shared" si="9"/>
-        <v>1.0333932879906844</v>
-      </c>
-      <c r="AI5">
+        <v>0.283316482340563</v>
+      </c>
+      <c r="AJ5">
         <f t="shared" si="10"/>
-        <v>0.283316482340563</v>
-      </c>
-      <c r="AJ5">
-        <f t="shared" si="11"/>
-        <v>0.22135107817707983</v>
+        <v>0.43181855674291775</v>
       </c>
       <c r="AK5">
         <f t="shared" si="2"/>
@@ -1369,43 +1373,43 @@
         <v>74684.303747600003</v>
       </c>
       <c r="AM5" s="1">
+        <f t="shared" si="12"/>
+        <v>-0.65643144324627922</v>
+      </c>
+      <c r="AN5">
         <f t="shared" si="4"/>
-        <v>-0.61949210807380273</v>
-      </c>
-      <c r="AN5">
-        <f t="shared" si="5"/>
-        <v>-0.20939966318642572</v>
+        <v>-0.28128048554870394</v>
       </c>
       <c r="AO5" s="1">
         <v>28139.598604578088</v>
       </c>
       <c r="AP5">
+        <f t="shared" ref="AP4:AP18" si="17">AL5/AK5</f>
+        <v>1.5118113914496207</v>
+      </c>
+      <c r="AQ5">
         <f t="shared" si="13"/>
-        <v>1.7322564764106896</v>
-      </c>
-      <c r="AQ5">
+        <v>4.0476205423765181</v>
+      </c>
+      <c r="AR5" s="1">
         <f t="shared" si="14"/>
-        <v>5.0992277479901205</v>
-      </c>
-      <c r="AR5" s="1">
+        <v>-0.2396841580534215</v>
+      </c>
+      <c r="AS5">
         <f t="shared" si="15"/>
-        <v>-0.22199599919263338</v>
-      </c>
-      <c r="AS5">
+        <v>-0.31112968799835761</v>
+      </c>
+      <c r="AT5" s="1">
         <f t="shared" si="16"/>
-        <v>-0.31958028721272175</v>
-      </c>
-      <c r="AT5" s="1">
-        <f t="shared" si="17"/>
-        <v>1.002913566181221</v>
+        <v>0.84599440199637632</v>
       </c>
       <c r="AU5">
         <f>AU4+AT5</f>
-        <v>2.0658771026844542</v>
+        <v>1.601082821865818</v>
       </c>
       <c r="AV5">
-        <f t="shared" si="12"/>
-        <v>111.38436549242944</v>
+        <f t="shared" si="11"/>
+        <v>85.079679730579613</v>
       </c>
     </row>
     <row r="6" spans="1:52" x14ac:dyDescent="0.25">
@@ -1495,15 +1499,15 @@
         <v>0.1159836065091735</v>
       </c>
       <c r="AC6">
+        <f t="shared" si="5"/>
+        <v>0.78685496487971285</v>
+      </c>
+      <c r="AD6">
         <f t="shared" si="6"/>
-        <v>0.78685496487971285</v>
-      </c>
-      <c r="AD6">
+        <v>-0.67087135837053935</v>
+      </c>
+      <c r="AE6" s="2">
         <f t="shared" si="7"/>
-        <v>-0.67087135837053935</v>
-      </c>
-      <c r="AE6" s="2">
-        <f t="shared" si="8"/>
         <v>3.616329679161276</v>
       </c>
       <c r="AF6">
@@ -1511,20 +1515,20 @@
         <v>-1.7115118341563267</v>
       </c>
       <c r="AG6" s="1">
+        <f t="shared" si="8"/>
+        <v>-0.25558943258467748</v>
+      </c>
+      <c r="AH6" s="1">
+        <f t="shared" si="8"/>
+        <v>1.0340107595814394</v>
+      </c>
+      <c r="AI6">
         <f t="shared" si="9"/>
-        <v>-0.25558943258467748</v>
-      </c>
-      <c r="AH6" s="1">
-        <f t="shared" si="9"/>
-        <v>1.0340107595814394</v>
-      </c>
-      <c r="AI6">
+        <v>0.24718256576763123</v>
+      </c>
+      <c r="AJ6">
         <f t="shared" si="10"/>
-        <v>0.24718256576763123</v>
-      </c>
-      <c r="AJ6">
-        <f t="shared" si="11"/>
-        <v>0.28075176266479951</v>
+        <v>0.40861511158993008</v>
       </c>
       <c r="AK6">
         <f t="shared" si="2"/>
@@ -1535,43 +1539,43 @@
         <v>116883.154572</v>
       </c>
       <c r="AM6" s="1">
+        <f t="shared" si="12"/>
+        <v>-0.63468886241445877</v>
+      </c>
+      <c r="AN6">
         <f t="shared" si="4"/>
-        <v>-0.65486914295470655</v>
-      </c>
-      <c r="AN6">
-        <f t="shared" si="5"/>
-        <v>-0.22338202077670638</v>
+        <v>-0.27747884003811829</v>
       </c>
       <c r="AO6" s="1">
         <v>28139.598604578088</v>
       </c>
       <c r="AP6">
+        <f t="shared" si="17"/>
+        <v>1.5347109124734899</v>
+      </c>
+      <c r="AQ6">
         <f t="shared" si="13"/>
-        <v>1.6671504107658244</v>
-      </c>
-      <c r="AQ6">
+        <v>4.142132686726347</v>
+      </c>
+      <c r="AR6" s="1">
         <f t="shared" si="14"/>
-        <v>4.7524498433249249</v>
-      </c>
-      <c r="AR6" s="1">
+        <v>-0.236813580628704</v>
+      </c>
+      <c r="AS6">
         <f t="shared" si="15"/>
-        <v>-0.29818489975141144</v>
-      </c>
-      <c r="AS6">
+        <v>-0.54794326862706155</v>
+      </c>
+      <c r="AT6" s="1">
         <f t="shared" si="16"/>
-        <v>-0.61776518696413318</v>
-      </c>
-      <c r="AT6" s="1">
-        <f t="shared" si="17"/>
-        <v>1.0620944884589241</v>
+        <v>0.95805130872913236</v>
       </c>
       <c r="AU6">
         <f t="shared" ref="AU6:AU18" si="18">AU5+AT6</f>
-        <v>3.1279715911433783</v>
+        <v>2.5591341305949502</v>
       </c>
       <c r="AV6">
-        <f t="shared" si="12"/>
-        <v>156.48643236410419</v>
+        <f t="shared" si="11"/>
+        <v>133.27363886553618</v>
       </c>
     </row>
     <row r="7" spans="1:52" x14ac:dyDescent="0.25">
@@ -1661,15 +1665,15 @@
         <v>-0.16414932304338326</v>
       </c>
       <c r="AC7">
+        <f t="shared" si="5"/>
+        <v>0.90925043408470774</v>
+      </c>
+      <c r="AD7">
         <f t="shared" si="6"/>
-        <v>0.90925043408470774</v>
-      </c>
-      <c r="AD7">
+        <v>-1.0733997571280911</v>
+      </c>
+      <c r="AE7" s="2">
         <f t="shared" si="7"/>
-        <v>-1.0733997571280911</v>
-      </c>
-      <c r="AE7" s="2">
-        <f t="shared" si="8"/>
         <v>4.708119553395461</v>
       </c>
       <c r="AF7">
@@ -1677,20 +1681,20 @@
         <v>-2.490850879233883</v>
       </c>
       <c r="AG7" s="1">
+        <f t="shared" si="8"/>
+        <v>-0.40252839875755175</v>
+      </c>
+      <c r="AH7" s="1">
+        <f t="shared" si="8"/>
+        <v>1.0917898742341849</v>
+      </c>
+      <c r="AI7">
         <f t="shared" si="9"/>
-        <v>-0.40252839875755175</v>
-      </c>
-      <c r="AH7" s="1">
-        <f t="shared" si="9"/>
-        <v>1.0917898742341849</v>
-      </c>
-      <c r="AI7">
+        <v>0.36868669352690009</v>
+      </c>
+      <c r="AJ7">
         <f t="shared" si="10"/>
-        <v>0.36868669352690009</v>
-      </c>
-      <c r="AJ7">
-        <f t="shared" si="11"/>
-        <v>0.32177534871517594</v>
+        <v>0.39495977308769531</v>
       </c>
       <c r="AK7">
         <f t="shared" si="2"/>
@@ -1701,43 +1705,43 @@
         <v>161586.88985345</v>
       </c>
       <c r="AM7" s="1">
+        <f t="shared" si="12"/>
+        <v>-0.71017263087975191</v>
+      </c>
+      <c r="AN7">
         <f t="shared" si="4"/>
-        <v>-0.68021752687595349</v>
-      </c>
-      <c r="AN7">
-        <f t="shared" si="5"/>
-        <v>-0.23291321205215409</v>
+        <v>-0.25343425131176711</v>
       </c>
       <c r="AO7" s="1">
         <v>28139.598604578088</v>
       </c>
       <c r="AP7">
+        <f t="shared" si="17"/>
+        <v>1.5483504356166418</v>
+      </c>
+      <c r="AQ7">
         <f t="shared" si="13"/>
-        <v>1.6235078267812537</v>
-      </c>
-      <c r="AQ7">
+        <v>4.1998434200771326</v>
+      </c>
+      <c r="AR7" s="1">
         <f t="shared" si="14"/>
-        <v>4.5383590078501364</v>
-      </c>
-      <c r="AR7" s="1">
+        <v>-0.37752179846717959</v>
+      </c>
+      <c r="AS7">
         <f t="shared" si="15"/>
-        <v>-0.34870819487991678</v>
-      </c>
-      <c r="AS7">
+        <v>-0.92546506709424115</v>
+      </c>
+      <c r="AT7" s="1">
         <f t="shared" si="16"/>
-        <v>-0.96647338184404996</v>
-      </c>
-      <c r="AT7" s="1">
-        <f t="shared" si="17"/>
-        <v>1.0837007753150811</v>
+        <v>1.0239637206750309</v>
       </c>
       <c r="AU7">
         <f t="shared" si="18"/>
-        <v>4.2116723664584592</v>
+        <v>3.5830978512699811</v>
       </c>
       <c r="AV7">
-        <f t="shared" si="12"/>
-        <v>202.20960898582848</v>
+        <f t="shared" si="11"/>
+        <v>184.69861856820185</v>
       </c>
     </row>
     <row r="8" spans="1:52" x14ac:dyDescent="0.25">
@@ -1827,15 +1831,15 @@
         <v>-0.49149247383222239</v>
       </c>
       <c r="AC8">
+        <f t="shared" si="5"/>
+        <v>1.0155664163094771</v>
+      </c>
+      <c r="AD8">
         <f t="shared" si="6"/>
-        <v>1.0155664163094771</v>
-      </c>
-      <c r="AD8">
+        <v>-1.5070588901416995</v>
+      </c>
+      <c r="AE8" s="2">
         <f t="shared" si="7"/>
-        <v>-1.5070588901416995</v>
-      </c>
-      <c r="AE8" s="2">
-        <f t="shared" si="8"/>
         <v>5.8224228299217398</v>
       </c>
       <c r="AF8">
@@ -1843,20 +1847,20 @@
         <v>-3.320788476487722</v>
       </c>
       <c r="AG8" s="1">
+        <f t="shared" si="8"/>
+        <v>-0.43365913301360837</v>
+      </c>
+      <c r="AH8" s="1">
+        <f t="shared" si="8"/>
+        <v>1.1143032765262788</v>
+      </c>
+      <c r="AI8">
         <f t="shared" si="9"/>
-        <v>-0.43365913301360837</v>
-      </c>
-      <c r="AH8" s="1">
-        <f t="shared" si="9"/>
-        <v>1.1143032765262788</v>
-      </c>
-      <c r="AI8">
+        <v>0.38917513943375837</v>
+      </c>
+      <c r="AJ8">
         <f t="shared" si="10"/>
-        <v>0.38917513943375837</v>
-      </c>
-      <c r="AJ8">
-        <f t="shared" si="11"/>
-        <v>0.35307907459838006</v>
+        <v>0.3828062705468594</v>
       </c>
       <c r="AK8">
         <f t="shared" si="2"/>
@@ -1867,43 +1871,43 @@
         <v>209411.00116514997</v>
       </c>
       <c r="AM8" s="1">
+        <f t="shared" si="12"/>
+        <v>-0.72359320916839664</v>
+      </c>
+      <c r="AN8">
         <f t="shared" si="4"/>
-        <v>-0.70008856585589563</v>
-      </c>
-      <c r="AN8">
-        <f t="shared" si="5"/>
-        <v>-0.2400990567088373</v>
+        <v>-0.24592665338339806</v>
       </c>
       <c r="AO8" s="1">
         <v>28139.598604578088</v>
       </c>
       <c r="AP8">
+        <f t="shared" si="17"/>
+        <v>1.5605914814069928</v>
+      </c>
+      <c r="AQ8">
         <f t="shared" si="13"/>
-        <v>1.5909360061713129</v>
-      </c>
-      <c r="AQ8">
+        <v>4.2525682485173277</v>
+      </c>
+      <c r="AR8" s="1">
         <f t="shared" si="14"/>
-        <v>4.3872187774419942</v>
-      </c>
-      <c r="AR8" s="1">
+        <v>-0.42600154311021243</v>
+      </c>
+      <c r="AS8">
         <f t="shared" si="15"/>
-        <v>-0.39507370664727764</v>
-      </c>
-      <c r="AS8">
+        <v>-1.3514666102044535</v>
+      </c>
+      <c r="AT8" s="1">
         <f t="shared" si="16"/>
-        <v>-1.3615470884913277</v>
-      </c>
-      <c r="AT8" s="1">
-        <f t="shared" si="17"/>
-        <v>1.1189383202521008</v>
+        <v>1.0946268143695808</v>
       </c>
       <c r="AU8">
         <f t="shared" si="18"/>
-        <v>5.3306106867105605</v>
+        <v>4.6777246656395617</v>
       </c>
       <c r="AV8">
-        <f t="shared" si="12"/>
-        <v>247.59159802958223</v>
+        <f t="shared" si="11"/>
+        <v>238.74042309813143</v>
       </c>
     </row>
     <row r="9" spans="1:52" x14ac:dyDescent="0.25">
@@ -1993,15 +1997,15 @@
         <v>-0.88855303993187196</v>
       </c>
       <c r="AC9">
+        <f t="shared" si="5"/>
+        <v>1.1006971360059508</v>
+      </c>
+      <c r="AD9">
         <f t="shared" si="6"/>
-        <v>1.1006971360059508</v>
-      </c>
-      <c r="AD9">
+        <v>-1.9892501759378227</v>
+      </c>
+      <c r="AE9" s="2">
         <f t="shared" si="7"/>
-        <v>-1.9892501759378227</v>
-      </c>
-      <c r="AE9" s="2">
-        <f t="shared" si="8"/>
         <v>6.9544037559349565</v>
       </c>
       <c r="AF9">
@@ -2009,20 +2013,20 @@
         <v>-4.2176627445773711</v>
       </c>
       <c r="AG9" s="1">
+        <f t="shared" si="8"/>
+        <v>-0.48219128579612325</v>
+      </c>
+      <c r="AH9" s="1">
+        <f t="shared" si="8"/>
+        <v>1.1319809260132168</v>
+      </c>
+      <c r="AI9">
         <f t="shared" si="9"/>
-        <v>-0.48219128579612325</v>
-      </c>
-      <c r="AH9" s="1">
-        <f t="shared" si="9"/>
-        <v>1.1319809260132168</v>
-      </c>
-      <c r="AI9">
+        <v>0.42597121092347212</v>
+      </c>
+      <c r="AJ9">
         <f t="shared" si="10"/>
-        <v>0.42597121092347212</v>
-      </c>
-      <c r="AJ9">
-        <f t="shared" si="11"/>
-        <v>0.37737655620437677</v>
+        <v>0.38005511171867795</v>
       </c>
       <c r="AK9">
         <f t="shared" si="2"/>
@@ -2033,43 +2037,43 @@
         <v>253290.84840685001</v>
       </c>
       <c r="AM9" s="1">
+        <f t="shared" si="12"/>
+        <v>-0.74823219503090477</v>
+      </c>
+      <c r="AN9">
         <f t="shared" si="4"/>
-        <v>-0.7158391574077142</v>
-      </c>
-      <c r="AN9">
-        <f t="shared" si="5"/>
-        <v>-0.24561629943858299</v>
+        <v>-0.23970267343902538</v>
       </c>
       <c r="AO9" s="1">
         <v>28139.598604578088</v>
       </c>
       <c r="AP9">
+        <f t="shared" si="17"/>
+        <v>1.563375740302964</v>
+      </c>
+      <c r="AQ9">
         <f t="shared" si="13"/>
-        <v>1.5660912330976451</v>
-      </c>
-      <c r="AQ9">
+        <v>4.2646860786674825</v>
+      </c>
+      <c r="AR9" s="1">
         <f t="shared" si="14"/>
-        <v>4.2765499505540543</v>
-      </c>
-      <c r="AR9" s="1">
+        <v>-0.43696813285925512</v>
+      </c>
+      <c r="AS9">
         <f t="shared" si="15"/>
-        <v>-0.38684488008829637</v>
-      </c>
-      <c r="AS9">
+        <v>-1.7884347430637086</v>
+      </c>
+      <c r="AT9" s="1">
         <f t="shared" si="16"/>
-        <v>-1.7483919685796241</v>
-      </c>
-      <c r="AT9" s="1">
-        <f t="shared" si="17"/>
-        <v>1.0250898571420317</v>
+        <v>1.0258161153941423</v>
       </c>
       <c r="AU9">
         <f t="shared" si="18"/>
-        <v>6.355700543852592</v>
+        <v>5.7035407810337038</v>
       </c>
       <c r="AV9">
-        <f t="shared" si="12"/>
-        <v>289.20475981938586</v>
+        <f t="shared" si="11"/>
+        <v>288.26842852417082</v>
       </c>
     </row>
     <row r="10" spans="1:52" x14ac:dyDescent="0.25">
@@ -2159,15 +2163,15 @@
         <v>-1.305056091661605</v>
       </c>
       <c r="AC10">
+        <f t="shared" si="5"/>
+        <v>1.1729353875385273</v>
+      </c>
+      <c r="AD10">
         <f t="shared" si="6"/>
-        <v>1.1729353875385273</v>
-      </c>
-      <c r="AD10">
+        <v>-2.4779914792001323</v>
+      </c>
+      <c r="AE10" s="2">
         <f t="shared" si="7"/>
-        <v>-2.4779914792001323</v>
-      </c>
-      <c r="AE10" s="2">
-        <f t="shared" si="8"/>
         <v>8.087888554101534</v>
       </c>
       <c r="AF10">
@@ -2175,20 +2179,20 @@
         <v>-5.1314910201021045</v>
       </c>
       <c r="AG10" s="1">
+        <f t="shared" si="8"/>
+        <v>-0.48874130326230958</v>
+      </c>
+      <c r="AH10" s="1">
+        <f t="shared" si="8"/>
+        <v>1.1334847981665774</v>
+      </c>
+      <c r="AI10">
         <f t="shared" si="9"/>
-        <v>-0.48874130326230958</v>
-      </c>
-      <c r="AH10" s="1">
-        <f t="shared" si="9"/>
-        <v>1.1334847981665774</v>
-      </c>
-      <c r="AI10">
+        <v>0.43118470053842217</v>
+      </c>
+      <c r="AJ10">
         <f t="shared" si="10"/>
-        <v>0.43118470053842217</v>
-      </c>
-      <c r="AJ10">
-        <f t="shared" si="11"/>
-        <v>0.39625827099902622</v>
+        <v>0.38100718152435725</v>
       </c>
       <c r="AK10">
         <f t="shared" si="2"/>
@@ -2199,43 +2203,43 @@
         <v>294678.32969245</v>
       </c>
       <c r="AM10" s="1">
+        <f t="shared" si="12"/>
+        <v>-0.75178028601090829</v>
+      </c>
+      <c r="AN10">
         <f t="shared" si="4"/>
-        <v>-0.72828201425592209</v>
-      </c>
-      <c r="AN10">
-        <f t="shared" si="5"/>
-        <v>-0.24986339313473777</v>
+        <v>-0.23930924735669273</v>
       </c>
       <c r="AO10" s="1">
         <v>28139.598604578088</v>
       </c>
       <c r="AP10">
+        <f t="shared" si="17"/>
+        <v>1.5624116610317862</v>
+      </c>
+      <c r="AQ10">
         <f t="shared" si="13"/>
-        <v>1.5470482432552271</v>
-      </c>
-      <c r="AQ10">
+        <v>4.2604848384200737</v>
+      </c>
+      <c r="AR10" s="1">
         <f t="shared" si="14"/>
-        <v>4.1942868771939201</v>
-      </c>
-      <c r="AR10" s="1">
+        <v>-0.42245932275460668</v>
+      </c>
+      <c r="AS10">
         <f t="shared" si="15"/>
-        <v>-0.38273635867892974</v>
-      </c>
-      <c r="AS10">
+        <v>-2.2108940658183154</v>
+      </c>
+      <c r="AT10" s="1">
         <f t="shared" si="16"/>
-        <v>-2.1311283272585539</v>
-      </c>
-      <c r="AT10" s="1">
-        <f t="shared" si="17"/>
-        <v>0.96587601241481769</v>
+        <v>0.97976417583249142</v>
       </c>
       <c r="AU10">
         <f t="shared" si="18"/>
-        <v>7.3215765562674093</v>
+        <v>6.6833049568661949</v>
       </c>
       <c r="AV10">
-        <f t="shared" si="12"/>
-        <v>329.17586663205594</v>
+        <f t="shared" si="11"/>
+        <v>335.24516626817837</v>
       </c>
     </row>
     <row r="11" spans="1:52" x14ac:dyDescent="0.25">
@@ -2325,15 +2329,15 @@
         <v>-1.742412368716928</v>
       </c>
       <c r="AC11">
+        <f t="shared" si="5"/>
+        <v>1.2342634287037701</v>
+      </c>
+      <c r="AD11">
         <f t="shared" si="6"/>
-        <v>1.2342634287037701</v>
-      </c>
-      <c r="AD11">
+        <v>-2.9766757974206981</v>
+      </c>
+      <c r="AE11" s="2">
         <f t="shared" si="7"/>
-        <v>-2.9766757974206981</v>
-      </c>
-      <c r="AE11" s="2">
-        <f t="shared" si="8"/>
         <v>9.2382312100566431</v>
       </c>
       <c r="AF11">
@@ -2341,20 +2345,20 @@
         <v>-6.0711259122924277</v>
       </c>
       <c r="AG11" s="1">
+        <f t="shared" si="8"/>
+        <v>-0.4986843182205658</v>
+      </c>
+      <c r="AH11" s="1">
+        <f t="shared" si="8"/>
+        <v>1.1503426559551091</v>
+      </c>
+      <c r="AI11">
         <f t="shared" si="9"/>
-        <v>-0.4986843182205658</v>
-      </c>
-      <c r="AH11" s="1">
-        <f t="shared" si="9"/>
-        <v>1.1503426559551091</v>
-      </c>
-      <c r="AI11">
+        <v>0.43350936839468679</v>
+      </c>
+      <c r="AJ11">
         <f t="shared" si="10"/>
-        <v>0.43350936839468679</v>
-      </c>
-      <c r="AJ11">
-        <f t="shared" si="11"/>
-        <v>0.41157302641138527</v>
+        <v>0.38663144433752566</v>
       </c>
       <c r="AK11">
         <f t="shared" si="2"/>
@@ -2365,43 +2369,43 @@
         <v>332296.6699485</v>
       </c>
       <c r="AM11" s="1">
+        <f t="shared" si="12"/>
+        <v>-0.75336700807876966</v>
+      </c>
+      <c r="AN11">
         <f t="shared" si="4"/>
-        <v>-0.7385076132787961</v>
-      </c>
-      <c r="AN11">
-        <f t="shared" si="5"/>
-        <v>-0.25328016369442291</v>
+        <v>-0.24098917727988414</v>
       </c>
       <c r="AO11" s="1">
         <v>28139.598604578088</v>
       </c>
       <c r="AP11">
+        <f t="shared" si="17"/>
+        <v>1.5567284342015653</v>
+      </c>
+      <c r="AQ11">
         <f t="shared" si="13"/>
-        <v>1.5317723436675272</v>
-      </c>
-      <c r="AQ11">
+        <v>4.235832682687886</v>
+      </c>
+      <c r="AR11" s="1">
         <f t="shared" si="14"/>
-        <v>4.129839579838289</v>
-      </c>
-      <c r="AR11" s="1">
+        <v>-0.39532288601843657</v>
+      </c>
+      <c r="AS11">
         <f t="shared" si="15"/>
-        <v>-0.36744933601365415</v>
-      </c>
-      <c r="AS11">
+        <v>-2.6062169518367519</v>
+      </c>
+      <c r="AT11" s="1">
         <f t="shared" si="16"/>
-        <v>-2.4985776632722079</v>
-      </c>
-      <c r="AT11" s="1">
-        <f t="shared" si="17"/>
-        <v>0.89279256033259169</v>
+        <v>0.9119131323097881</v>
       </c>
       <c r="AU11">
         <f t="shared" si="18"/>
-        <v>8.2143691166000004</v>
+        <v>7.5952180891759831</v>
       </c>
       <c r="AV11">
-        <f t="shared" si="12"/>
-        <v>367.68304006185787</v>
+        <f t="shared" si="11"/>
+        <v>378.71117269034664</v>
       </c>
     </row>
     <row r="12" spans="1:52" x14ac:dyDescent="0.25">
@@ -2491,15 +2495,15 @@
         <v>-2.2197631133044293</v>
       </c>
       <c r="AC12">
+        <f t="shared" si="5"/>
+        <v>1.2930882904983581</v>
+      </c>
+      <c r="AD12">
         <f t="shared" si="6"/>
-        <v>1.2930882904983581</v>
-      </c>
-      <c r="AD12">
+        <v>-3.5128514038027872</v>
+      </c>
+      <c r="AE12" s="2">
         <f t="shared" si="7"/>
-        <v>-3.5128514038027872</v>
-      </c>
-      <c r="AE12" s="2">
-        <f t="shared" si="8"/>
         <v>10.393042696659142</v>
       </c>
       <c r="AF12">
@@ -2507,20 +2511,20 @@
         <v>-7.0463239427499289</v>
       </c>
       <c r="AG12" s="1">
+        <f t="shared" si="8"/>
+        <v>-0.53617560638208905</v>
+      </c>
+      <c r="AH12" s="1">
+        <f t="shared" si="8"/>
+        <v>1.1548114866024992</v>
+      </c>
+      <c r="AI12">
         <f t="shared" si="9"/>
-        <v>-0.53617560638208905</v>
-      </c>
-      <c r="AH12" s="1">
-        <f t="shared" si="9"/>
-        <v>1.1548114866024992</v>
-      </c>
-      <c r="AI12">
+        <v>0.46429708450470886</v>
+      </c>
+      <c r="AJ12">
         <f t="shared" si="10"/>
-        <v>0.46429708450470886</v>
-      </c>
-      <c r="AJ12">
-        <f t="shared" si="11"/>
-        <v>0.42485215982469099</v>
+        <v>0.38633521054004205</v>
       </c>
       <c r="AK12">
         <f t="shared" si="2"/>
@@ -2531,43 +2535,43 @@
         <v>372704.62721100001</v>
       </c>
       <c r="AM12" s="1">
+        <f t="shared" si="12"/>
+        <v>-0.77465584493403816</v>
+      </c>
+      <c r="AN12">
         <f t="shared" si="4"/>
-        <v>-0.74747248674221833</v>
-      </c>
-      <c r="AN12">
-        <f t="shared" si="5"/>
-        <v>-0.25622124969646054</v>
+        <v>-0.2365440743642501</v>
       </c>
       <c r="AO12" s="1">
         <v>28139.598604578088</v>
       </c>
       <c r="AP12">
+        <f t="shared" si="17"/>
+        <v>1.5570272623984061</v>
+      </c>
+      <c r="AQ12">
         <f t="shared" si="13"/>
-        <v>1.518649905691144</v>
-      </c>
-      <c r="AQ12">
+        <v>4.2371240741243357</v>
+      </c>
+      <c r="AR12" s="1">
         <f t="shared" si="14"/>
-        <v>4.0755388173104841</v>
-      </c>
-      <c r="AR12" s="1">
+        <v>-0.44256824737524914</v>
+      </c>
+      <c r="AS12">
         <f t="shared" si="15"/>
-        <v>-0.39167732526288207</v>
-      </c>
-      <c r="AS12">
+        <v>-3.0487851992120012</v>
+      </c>
+      <c r="AT12" s="1">
         <f t="shared" si="16"/>
-        <v>-2.8902549885350899</v>
-      </c>
-      <c r="AT12" s="1">
-        <f t="shared" si="17"/>
-        <v>0.92191440294078308</v>
+        <v>0.95320057382518575</v>
       </c>
       <c r="AU12">
         <f t="shared" si="18"/>
-        <v>9.1362835195407825</v>
+        <v>8.5484186630011685</v>
       </c>
       <c r="AV12">
-        <f t="shared" si="12"/>
-        <v>406.19814920134121</v>
+        <f t="shared" si="11"/>
+        <v>425.01970569761494</v>
       </c>
     </row>
     <row r="13" spans="1:52" x14ac:dyDescent="0.25">
@@ -2657,15 +2661,15 @@
         <v>-2.831527778097831</v>
       </c>
       <c r="AC13">
+        <f t="shared" si="5"/>
+        <v>1.3380229358605791</v>
+      </c>
+      <c r="AD13">
         <f t="shared" si="6"/>
-        <v>1.3380229358605791</v>
-      </c>
-      <c r="AD13">
+        <v>-4.1695507139584098</v>
+      </c>
+      <c r="AE13" s="2">
         <f t="shared" si="7"/>
-        <v>-4.1695507139584098</v>
-      </c>
-      <c r="AE13" s="2">
-        <f t="shared" si="8"/>
         <v>11.595556534490276</v>
       </c>
       <c r="AF13">
@@ -2673,20 +2677,20 @@
         <v>-8.15738474899333</v>
       </c>
       <c r="AG13" s="1">
+        <f t="shared" si="8"/>
+        <v>-0.65669931015562266</v>
+      </c>
+      <c r="AH13" s="1">
+        <f t="shared" si="8"/>
+        <v>1.202513837831134</v>
+      </c>
+      <c r="AI13">
         <f t="shared" si="9"/>
-        <v>-0.65669931015562266</v>
-      </c>
-      <c r="AH13" s="1">
-        <f t="shared" si="9"/>
-        <v>1.202513837831134</v>
-      </c>
-      <c r="AI13">
+        <v>0.54610540810079333</v>
+      </c>
+      <c r="AJ13">
         <f t="shared" si="10"/>
-        <v>0.54610540810079333</v>
-      </c>
-      <c r="AJ13">
-        <f t="shared" si="11"/>
-        <v>0.43593164491848863</v>
+        <v>0.39561208536105724</v>
       </c>
       <c r="AK13">
         <f t="shared" si="2"/>
@@ -2697,43 +2701,43 @@
         <v>403312.17996999994</v>
       </c>
       <c r="AM13" s="1">
+        <f t="shared" si="12"/>
+        <v>-0.83381960042431891</v>
+      </c>
+      <c r="AN13">
         <f t="shared" si="4"/>
-        <v>-0.75502341467684686</v>
-      </c>
-      <c r="AN13">
-        <f t="shared" si="5"/>
-        <v>-0.25865911202134573</v>
+        <v>-0.22834621739849562</v>
       </c>
       <c r="AO13" s="1">
         <v>28139.598604578088</v>
       </c>
       <c r="AP13">
+        <f t="shared" si="17"/>
+        <v>1.5476961308415831</v>
+      </c>
+      <c r="AQ13">
         <f t="shared" si="13"/>
-        <v>1.5077885627325758</v>
-      </c>
-      <c r="AQ13">
+        <v>4.1970502118233233</v>
+      </c>
+      <c r="AR13" s="1">
         <f t="shared" si="14"/>
-        <v>4.0313168598151412</v>
-      </c>
-      <c r="AR13" s="1">
+        <v>-0.42668317530902911</v>
+      </c>
+      <c r="AS13">
         <f t="shared" si="15"/>
-        <v>-0.32653093440050962</v>
-      </c>
-      <c r="AS13">
+        <v>-3.4754683745210304</v>
+      </c>
+      <c r="AT13" s="1">
         <f t="shared" si="16"/>
-        <v>-3.2167859229355997</v>
-      </c>
-      <c r="AT13" s="1">
-        <f t="shared" si="17"/>
-        <v>0.74904159449485508</v>
+        <v>0.78132017918100727</v>
       </c>
       <c r="AU13">
         <f t="shared" si="18"/>
-        <v>9.8853251140356377</v>
+        <v>9.3297388421821754</v>
       </c>
       <c r="AV13">
-        <f t="shared" si="12"/>
-        <v>439.31766403274253</v>
+        <f t="shared" si="11"/>
+        <v>460.41718589226116</v>
       </c>
     </row>
     <row r="14" spans="1:52" x14ac:dyDescent="0.25">
@@ -2823,15 +2827,15 @@
         <v>-3.327809748108379</v>
       </c>
       <c r="AC14">
+        <f t="shared" si="5"/>
+        <v>1.3745409124337273</v>
+      </c>
+      <c r="AD14">
         <f t="shared" si="6"/>
-        <v>1.3745409124337273</v>
-      </c>
-      <c r="AD14">
+        <v>-4.7023506605421064</v>
+      </c>
+      <c r="AE14" s="2">
         <f t="shared" si="7"/>
-        <v>-4.7023506605421064</v>
-      </c>
-      <c r="AE14" s="2">
-        <f t="shared" si="8"/>
         <v>12.760909153627127</v>
       </c>
       <c r="AF14">
@@ -2839,20 +2843,20 @@
         <v>-9.1536293669038784</v>
       </c>
       <c r="AG14" s="1">
+        <f t="shared" si="8"/>
+        <v>-0.53279994658369656</v>
+      </c>
+      <c r="AH14" s="1">
+        <f t="shared" si="8"/>
+        <v>1.1653526191368506</v>
+      </c>
+      <c r="AI14">
         <f t="shared" si="9"/>
-        <v>-0.53279994658369656</v>
-      </c>
-      <c r="AH14" s="1">
-        <f t="shared" si="9"/>
-        <v>1.1653526191368506</v>
-      </c>
-      <c r="AI14">
+        <v>0.45720062565983588</v>
+      </c>
+      <c r="AJ14">
         <f t="shared" si="10"/>
-        <v>0.45720062565983588</v>
-      </c>
-      <c r="AJ14">
-        <f t="shared" si="11"/>
-        <v>0.44441327087751592</v>
+        <v>0.40496946414833346</v>
       </c>
       <c r="AK14">
         <f t="shared" si="2"/>
@@ -2863,43 +2867,43 @@
         <v>428853.21413350001</v>
       </c>
       <c r="AM14" s="1">
+        <f t="shared" si="12"/>
+        <v>-0.76970312538625407</v>
+      </c>
+      <c r="AN14">
         <f t="shared" si="4"/>
-        <v>-0.76084808577213592</v>
-      </c>
-      <c r="AN14">
-        <f t="shared" si="5"/>
-        <v>-0.26051511681427553</v>
+        <v>-0.24415123021716428</v>
       </c>
       <c r="AO14" s="1">
         <v>28139.598604578088</v>
       </c>
       <c r="AP14">
+        <f t="shared" si="17"/>
+        <v>1.5383405150773626</v>
+      </c>
+      <c r="AQ14">
         <f t="shared" si="13"/>
-        <v>1.4995276395959829</v>
-      </c>
-      <c r="AQ14">
+        <v>4.1573848716730026</v>
+      </c>
+      <c r="AR14" s="1">
         <f t="shared" si="14"/>
-        <v>3.9981111531948916</v>
-      </c>
-      <c r="AR14" s="1">
+        <v>-0.30130015466040133</v>
+      </c>
+      <c r="AS14">
         <f t="shared" si="15"/>
-        <v>-0.28361820612571581</v>
-      </c>
-      <c r="AS14">
+        <v>-3.7767685291814317</v>
+      </c>
+      <c r="AT14" s="1">
         <f t="shared" si="16"/>
-        <v>-3.5004041290613155</v>
-      </c>
-      <c r="AT14" s="1">
-        <f t="shared" si="17"/>
-        <v>0.63818572646513827</v>
+        <v>0.65901081002582274</v>
       </c>
       <c r="AU14">
         <f t="shared" si="18"/>
-        <v>10.523510840500776</v>
+        <v>9.9887496522079982</v>
       </c>
       <c r="AV14">
-        <f t="shared" si="12"/>
-        <v>469.11173846494273</v>
+        <f t="shared" si="11"/>
+        <v>490.92911718595383</v>
       </c>
     </row>
     <row r="15" spans="1:52" x14ac:dyDescent="0.25">
@@ -2989,15 +2993,15 @@
         <v>-4.1379641983745552</v>
       </c>
       <c r="AC15">
+        <f t="shared" si="5"/>
+        <v>1.3716721447836224</v>
+      </c>
+      <c r="AD15">
         <f t="shared" si="6"/>
-        <v>1.3716721447836224</v>
-      </c>
-      <c r="AD15">
+        <v>-5.5096363431581779</v>
+      </c>
+      <c r="AE15" s="2">
         <f t="shared" si="7"/>
-        <v>-5.5096363431581779</v>
-      </c>
-      <c r="AE15" s="2">
-        <f t="shared" si="8"/>
         <v>14.036175153849184</v>
       </c>
       <c r="AF15">
@@ -3005,20 +3009,20 @@
         <v>-10.466391075570055</v>
       </c>
       <c r="AG15" s="1">
+        <f t="shared" si="8"/>
+        <v>-0.80728568261607148</v>
+      </c>
+      <c r="AH15" s="1">
+        <f t="shared" si="8"/>
+        <v>1.2752660002220573</v>
+      </c>
+      <c r="AI15">
         <f t="shared" si="9"/>
-        <v>-0.80728568261607148</v>
-      </c>
-      <c r="AH15" s="1">
-        <f t="shared" si="9"/>
-        <v>1.2752660002220573</v>
-      </c>
-      <c r="AI15">
+        <v>0.63303317305997486</v>
+      </c>
+      <c r="AJ15">
         <f t="shared" si="10"/>
-        <v>0.63303317305997486</v>
-      </c>
-      <c r="AJ15">
-        <f t="shared" si="11"/>
-        <v>0.44784531836997016</v>
+        <v>0.45121524339355551</v>
       </c>
       <c r="AK15">
         <f t="shared" si="2"/>
@@ -3029,43 +3033,43 @@
         <v>414015.90840900003</v>
       </c>
       <c r="AM15" s="1">
+        <f t="shared" si="12"/>
+        <v>-0.9011673289133183</v>
+      </c>
+      <c r="AN15">
         <f t="shared" si="4"/>
-        <v>-0.7632160120976309</v>
-      </c>
-      <c r="AN15">
-        <f t="shared" si="5"/>
-        <v>-0.26126355037376092</v>
+        <v>-0.23441189202063328</v>
       </c>
       <c r="AO15" s="1">
         <v>28139.598604578088</v>
       </c>
       <c r="AP15">
+        <f t="shared" si="17"/>
+        <v>1.492936302783036</v>
+      </c>
+      <c r="AQ15">
         <f t="shared" si="13"/>
-        <v>1.4961981301422862</v>
-      </c>
-      <c r="AQ15">
+        <v>3.9718776430086868</v>
+      </c>
+      <c r="AR15" s="1">
         <f t="shared" si="14"/>
-        <v>3.9848309676936089</v>
-      </c>
-      <c r="AR15" s="1">
+        <v>3.2998380816330698E-2</v>
+      </c>
+      <c r="AS15">
         <f t="shared" si="15"/>
-        <v>2.2887437504523867E-2</v>
-      </c>
-      <c r="AS15">
+        <v>-3.7437701483651011</v>
+      </c>
+      <c r="AT15" s="1">
         <f t="shared" si="16"/>
-        <v>-3.4775166915567914</v>
-      </c>
-      <c r="AT15" s="1">
-        <f t="shared" si="17"/>
-        <v>-5.1105675477032216E-2</v>
+        <v>-5.212741167547686E-2</v>
       </c>
       <c r="AU15">
         <f t="shared" si="18"/>
-        <v>10.472405165023744</v>
+        <v>9.9366222405325217</v>
       </c>
       <c r="AV15">
-        <f t="shared" si="12"/>
-        <v>477.4498258522658</v>
+        <f t="shared" si="11"/>
+        <v>475.64088360470163</v>
       </c>
     </row>
     <row r="16" spans="1:52" x14ac:dyDescent="0.25">
@@ -3155,15 +3159,15 @@
         <v>-5.6187271480327317</v>
       </c>
       <c r="AC16">
+        <f t="shared" si="5"/>
+        <v>1.3426263047016374</v>
+      </c>
+      <c r="AD16">
         <f t="shared" si="6"/>
-        <v>1.3426263047016374</v>
-      </c>
-      <c r="AD16">
+        <v>-6.961353452734369</v>
+      </c>
+      <c r="AE16" s="2">
         <f t="shared" si="7"/>
-        <v>-6.961353452734369</v>
-      </c>
-      <c r="AE16" s="2">
-        <f t="shared" si="8"/>
         <v>15.527784505235244</v>
       </c>
       <c r="AF16">
@@ -3171,20 +3175,20 @@
         <v>-12.446164875978232</v>
       </c>
       <c r="AG16" s="1">
+        <f t="shared" si="8"/>
+        <v>-1.4517171095761912</v>
+      </c>
+      <c r="AH16" s="1">
+        <f t="shared" si="8"/>
+        <v>1.4916093513860602</v>
+      </c>
+      <c r="AI16">
         <f t="shared" si="9"/>
-        <v>-1.4517171095761912</v>
-      </c>
-      <c r="AH16" s="1">
-        <f t="shared" si="9"/>
-        <v>1.4916093513860602</v>
-      </c>
-      <c r="AI16">
+        <v>0.97325557005069752</v>
+      </c>
+      <c r="AJ16">
         <f t="shared" si="10"/>
-        <v>0.97325557005069752</v>
-      </c>
-      <c r="AJ16">
-        <f t="shared" si="11"/>
-        <v>0.44458408134806887</v>
+        <v>0.51619962721028223</v>
       </c>
       <c r="AK16">
         <f t="shared" si="2"/>
@@ -3195,43 +3199,43 @@
         <v>376239.58324000001</v>
       </c>
       <c r="AM16" s="1">
+        <f t="shared" si="12"/>
+        <v>-1.2203095434743905</v>
+      </c>
+      <c r="AN16">
         <f t="shared" si="4"/>
-        <v>-0.76096578531681969</v>
-      </c>
-      <c r="AN16">
-        <f t="shared" si="5"/>
-        <v>-0.26055240141687014</v>
+        <v>-0.20479517692204133</v>
       </c>
       <c r="AO16" s="1">
         <v>28139.598604578088</v>
       </c>
       <c r="AP16">
+        <f t="shared" si="17"/>
+        <v>1.4314706702909348</v>
+      </c>
+      <c r="AQ16">
         <f t="shared" si="13"/>
-        <v>1.4993617521296954</v>
-      </c>
-      <c r="AQ16">
+        <v>3.7378589163323728</v>
+      </c>
+      <c r="AR16" s="1">
         <f t="shared" si="14"/>
-        <v>3.9974480943510118</v>
-      </c>
-      <c r="AR16" s="1">
+        <v>0.51704358216687463</v>
+      </c>
+      <c r="AS16">
         <f t="shared" si="15"/>
-        <v>0.22589386887338517</v>
-      </c>
-      <c r="AS16">
+        <v>-3.2267265661982263</v>
+      </c>
+      <c r="AT16" s="1">
         <f t="shared" si="16"/>
-        <v>-3.2516228226834061</v>
-      </c>
-      <c r="AT16" s="1">
-        <f t="shared" si="17"/>
-        <v>-0.50810156807330853</v>
+        <v>-0.53125160346109446</v>
       </c>
       <c r="AU16">
         <f t="shared" si="18"/>
-        <v>9.964303596950435</v>
+        <v>9.4053706370714281</v>
       </c>
       <c r="AV16">
-        <f t="shared" si="12"/>
-        <v>471.63530899359938</v>
+        <f t="shared" si="11"/>
+        <v>436.04289520981513</v>
       </c>
     </row>
     <row r="17" spans="1:48" x14ac:dyDescent="0.25">
@@ -3321,15 +3325,15 @@
         <v>-6.1987397390733445</v>
       </c>
       <c r="AC17">
+        <f t="shared" si="5"/>
+        <v>1.3365593830994347</v>
+      </c>
+      <c r="AD17">
         <f t="shared" si="6"/>
-        <v>1.3365593830994347</v>
-      </c>
-      <c r="AD17">
+        <v>-7.5352991221727788</v>
+      </c>
+      <c r="AE17" s="2">
         <f t="shared" si="7"/>
-        <v>-7.5352991221727788</v>
-      </c>
-      <c r="AE17" s="2">
-        <f t="shared" si="8"/>
         <v>16.718768563182113</v>
       </c>
       <c r="AF17">
@@ -3337,20 +3341,20 @@
         <v>-13.525000730818844</v>
       </c>
       <c r="AG17" s="1">
+        <f t="shared" si="8"/>
+        <v>-0.57394566943840974</v>
+      </c>
+      <c r="AH17" s="1">
+        <f t="shared" si="8"/>
+        <v>1.1909840579468689</v>
+      </c>
+      <c r="AI17">
         <f t="shared" si="9"/>
-        <v>-0.57394566943840974</v>
-      </c>
-      <c r="AH17" s="1">
-        <f t="shared" si="9"/>
-        <v>1.1909840579468689</v>
-      </c>
-      <c r="AI17">
+        <v>0.48190877586374381</v>
+      </c>
+      <c r="AJ17">
         <f t="shared" si="10"/>
-        <v>0.48190877586374381</v>
-      </c>
-      <c r="AJ17">
-        <f t="shared" si="11"/>
-        <v>0.44093453510387404</v>
+        <v>0.54883034523800622</v>
       </c>
       <c r="AK17">
         <f t="shared" si="2"/>
@@ -3361,43 +3365,43 @@
         <v>364252.63082599995</v>
       </c>
       <c r="AM17" s="1">
+        <f t="shared" si="12"/>
+        <v>-0.78706790161804752</v>
+      </c>
+      <c r="AN17">
         <f t="shared" si="4"/>
-        <v>-0.75845442866881008</v>
-      </c>
-      <c r="AN17">
-        <f t="shared" si="5"/>
-        <v>-0.2597549708912657</v>
+        <v>-0.29459731703413211</v>
       </c>
       <c r="AO17" s="1">
         <v>28139.598604578088</v>
       </c>
       <c r="AP17">
+        <f t="shared" si="17"/>
+        <v>1.4016313498926285</v>
+      </c>
+      <c r="AQ17">
         <f t="shared" si="13"/>
-        <v>1.5029102215241579</v>
-      </c>
-      <c r="AQ17">
+        <v>3.6307410680229615</v>
+      </c>
+      <c r="AR17" s="1">
         <f t="shared" si="14"/>
-        <v>4.0116635150383066</v>
-      </c>
-      <c r="AR17" s="1">
+        <v>4.6205369562911366E-2</v>
+      </c>
+      <c r="AS17">
         <f t="shared" si="15"/>
-        <v>4.5857493560592363E-2</v>
-      </c>
-      <c r="AS17">
+        <v>-3.1805211966353149</v>
+      </c>
+      <c r="AT17" s="1">
         <f t="shared" si="16"/>
-        <v>-3.2057653291228139</v>
-      </c>
-      <c r="AT17" s="1">
-        <f t="shared" si="17"/>
-        <v>-0.10400068470433915</v>
+        <v>-9.5879908972596933E-2</v>
       </c>
       <c r="AU17">
         <f t="shared" si="18"/>
-        <v>9.8603029122460963</v>
+        <v>9.3094907280988313</v>
       </c>
       <c r="AV17">
-        <f t="shared" si="12"/>
-        <v>475.77113218707916</v>
+        <f t="shared" si="11"/>
+        <v>423.39505457636022</v>
       </c>
     </row>
     <row r="18" spans="1:48" x14ac:dyDescent="0.25">
@@ -3487,15 +3491,15 @@
         <v>-7.4986021185680096</v>
       </c>
       <c r="AC18">
+        <f t="shared" si="5"/>
+        <v>1.2944292306190333</v>
+      </c>
+      <c r="AD18">
         <f t="shared" si="6"/>
-        <v>1.2944292306190333</v>
-      </c>
-      <c r="AD18">
+        <v>-8.7930313491870429</v>
+      </c>
+      <c r="AE18" s="2">
         <f t="shared" si="7"/>
-        <v>-8.7930313491870429</v>
-      </c>
-      <c r="AE18" s="2">
-        <f t="shared" si="8"/>
         <v>18.156405220313669</v>
       </c>
       <c r="AF18">
@@ -3503,20 +3507,20 @@
         <v>-15.327037708963509</v>
       </c>
       <c r="AG18" s="1">
+        <f t="shared" si="8"/>
+        <v>-1.2577322270142641</v>
+      </c>
+      <c r="AH18" s="1">
+        <f t="shared" si="8"/>
+        <v>1.4376366571315558</v>
+      </c>
+      <c r="AI18">
         <f t="shared" si="9"/>
-        <v>-1.2577322270142641</v>
-      </c>
-      <c r="AH18" s="1">
-        <f t="shared" si="9"/>
-        <v>1.4376366571315558</v>
-      </c>
-      <c r="AI18">
+        <v>0.87486098853639005</v>
+      </c>
+      <c r="AJ18">
         <f t="shared" si="10"/>
-        <v>0.87486098853639005</v>
-      </c>
-      <c r="AJ18">
-        <f t="shared" si="11"/>
-        <v>0.43591454550161352</v>
+        <v>0.62101485103115017</v>
       </c>
       <c r="AK18">
         <f t="shared" si="2"/>
@@ -3527,43 +3531,43 @@
         <v>321106.96157449996</v>
       </c>
       <c r="AM18" s="1">
+        <f t="shared" si="12"/>
+        <v>-1.1175085374301201</v>
+      </c>
+      <c r="AN18">
         <f t="shared" si="4"/>
-        <v>-0.75501171074672224</v>
-      </c>
-      <c r="AN18">
-        <f t="shared" si="5"/>
-        <v>-0.25865536113326543</v>
+        <v>-0.25043118858985425</v>
       </c>
       <c r="AO18" s="1">
         <v>28139.598604578088</v>
       </c>
       <c r="AP18">
+        <f t="shared" si="17"/>
+        <v>1.3380324737091922</v>
+      </c>
+      <c r="AQ18">
         <f t="shared" si="13"/>
-        <v>1.5078052642379274</v>
-      </c>
-      <c r="AQ18">
+        <v>3.4152682634457188</v>
+      </c>
+      <c r="AR18" s="1">
         <f t="shared" si="14"/>
-        <v>4.0313843657970336</v>
-      </c>
-      <c r="AR18" s="1">
+        <v>0.57610337071233331</v>
+      </c>
+      <c r="AS18">
         <f t="shared" si="15"/>
-        <v>0.30611501796858726</v>
-      </c>
-      <c r="AS18">
+        <v>-2.6044178259229813</v>
+      </c>
+      <c r="AT18" s="1">
         <f t="shared" si="16"/>
-        <v>-2.8996503111542267</v>
-      </c>
-      <c r="AT18" s="1">
-        <f t="shared" si="17"/>
-        <v>-0.70223630096200618</v>
+        <v>-0.65850846964399767</v>
       </c>
       <c r="AU18">
         <f t="shared" si="18"/>
-        <v>9.1580666112840898</v>
+        <v>8.6509822584548335</v>
       </c>
       <c r="AV18">
-        <f t="shared" si="12"/>
-        <v>460.18089440805079</v>
+        <f t="shared" si="11"/>
+        <v>378.87076656985465</v>
       </c>
     </row>
     <row r="19" spans="1:48" x14ac:dyDescent="0.25">

--- a/SMP_PE.xlsx
+++ b/SMP_PE.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="50">
   <si>
     <t>avgT</t>
   </si>
@@ -182,6 +182,14 @@
   </si>
   <si>
     <t>dratio</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>dratio-M</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>dratio_pred</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -580,10 +588,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AZ22"/>
+  <dimension ref="A1:BB22"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="AD1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="AO3" sqref="AO3:AO18"/>
+      <selection activeCell="AR1" sqref="AR1:AR1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -607,16 +615,17 @@
     <col min="36" max="36" width="12.88671875" customWidth="1"/>
     <col min="41" max="41" width="12.77734375" bestFit="1" customWidth="1"/>
     <col min="42" max="42" width="12.77734375" customWidth="1"/>
-    <col min="43" max="43" width="8.88671875" customWidth="1"/>
-    <col min="44" max="44" width="12.44140625" customWidth="1"/>
-    <col min="45" max="45" width="11.21875" customWidth="1"/>
-    <col min="48" max="49" width="13.33203125" customWidth="1"/>
-    <col min="50" max="51" width="13.109375" bestFit="1" customWidth="1"/>
-    <col min="52" max="52" width="13.109375" customWidth="1"/>
-    <col min="53" max="1030" width="11.5546875"/>
+    <col min="43" max="44" width="10.44140625" customWidth="1"/>
+    <col min="45" max="45" width="8.88671875" customWidth="1"/>
+    <col min="46" max="46" width="12.44140625" customWidth="1"/>
+    <col min="47" max="47" width="11.21875" customWidth="1"/>
+    <col min="50" max="51" width="13.33203125" customWidth="1"/>
+    <col min="52" max="53" width="13.109375" bestFit="1" customWidth="1"/>
+    <col min="54" max="54" width="13.109375" customWidth="1"/>
+    <col min="55" max="1032" width="11.5546875"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -744,25 +753,31 @@
         <v>47</v>
       </c>
       <c r="AQ1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AR1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AS1" t="s">
         <v>32</v>
       </c>
-      <c r="AR1" t="s">
+      <c r="AT1" t="s">
         <v>33</v>
       </c>
-      <c r="AS1" t="s">
+      <c r="AU1" t="s">
         <v>34</v>
       </c>
-      <c r="AT1" t="s">
+      <c r="AV1" t="s">
         <v>35</v>
       </c>
-      <c r="AU1" t="s">
+      <c r="AW1" t="s">
         <v>36</v>
       </c>
-      <c r="AV1" t="s">
+      <c r="AX1" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="2" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>0.160598911058</v>
       </c>
@@ -881,7 +896,7 @@
         <v>-0.5</v>
       </c>
       <c r="AN2">
-        <f t="shared" ref="AN2:AN18" si="4">1/(2+AM2*AQ2-2*0.33*(1+AM2+AQ2))</f>
+        <f t="shared" ref="AN2:AN18" si="4">1/(2+AM2*AS2-2*0.33*(1+AM2+AS2))</f>
         <v>-0.22624434389140272</v>
       </c>
       <c r="AO2" s="1" t="e">
@@ -893,20 +908,28 @@
         <v>1.3817837640450785</v>
       </c>
       <c r="AQ2">
+        <f>AL2/AK2-(1.35*(AK2/3255000)^-0.0723)</f>
+        <v>-0.88456311129873444</v>
+      </c>
+      <c r="AR2">
+        <f>1.35*(AK2/3255000)^-0.0723-1.386/(AE2+1.27)+0.03463</f>
+        <v>1.2096383603061214</v>
+      </c>
+      <c r="AS2">
         <v>5.25</v>
-      </c>
-      <c r="AS2">
-        <v>0</v>
       </c>
       <c r="AU2">
         <v>0</v>
       </c>
-      <c r="AV2">
-        <f>(AQ2*X2-4*X2*(1-2*0.01*P2-0.01*AF2)*(0.08/0.4)^2/(-0.08/0.4*0.01*P2-(2*0.08/0.4+3)*0.01*AF2+0.08/0.4+1))/1000</f>
+      <c r="AW2">
+        <v>0</v>
+      </c>
+      <c r="AX2">
+        <f>(AS2*X2-4*X2*(1-2*0.01*P2-0.01*AF2)*(0.08/0.4)^2/(-0.08/0.4*0.01*P2-(2*0.08/0.4+3)*0.01*AF2+0.08/0.4+1))/1000</f>
         <v>7.0549048057573849</v>
       </c>
     </row>
-    <row r="3" spans="1:52" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:54" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>0.508269369114</v>
       </c>
@@ -1047,36 +1070,44 @@
         <f>AL3/AK3</f>
         <v>1.3625837364055839</v>
       </c>
-      <c r="AQ3" s="1">
+      <c r="AQ3">
+        <f t="shared" ref="AQ3:AQ18" si="11">AL3/AK3-(1.35*(AK3/3255000)^-0.0723)</f>
+        <v>-0.73431037601183302</v>
+      </c>
+      <c r="AR3">
+        <f t="shared" ref="AR3:AR18" si="12">1.35*(AK3/3255000)^-0.0723-1.386/(AE3+1.27)+0.03463</f>
+        <v>1.3918723722861615</v>
+      </c>
+      <c r="AS3" s="1">
         <f>(2*AP3+3)/(3-AP3)</f>
         <v>3.4964642773508432</v>
       </c>
-      <c r="AR3" s="1">
+      <c r="AT3" s="1">
         <f>(1+2*AM3)*(AK3-AK2)*(1-AP3/3)/(3*AN3*AO3*AM3)</f>
         <v>-6.1005518163690367E-3</v>
       </c>
-      <c r="AS3" s="1">
-        <f>(AS2+AR3)</f>
+      <c r="AU3" s="1">
+        <f>(AU2+AT3)</f>
         <v>-6.1005518163690367E-3</v>
       </c>
-      <c r="AT3" s="1">
+      <c r="AV3" s="1">
         <f>2*(1-AM3)*(AK3-AK2)*(1-AP3/3)/(9*AN3*AO3*AM3)</f>
         <v>0.14936647101621081</v>
       </c>
-      <c r="AU3" s="1">
-        <f>AU2+AT3</f>
+      <c r="AW3" s="1">
+        <f>AW2+AV3</f>
         <v>0.14936647101621081</v>
       </c>
-      <c r="AV3">
-        <f t="shared" ref="AV3:AV18" si="11">(AQ3*X3-4*X3*(1-0.01*P3-2*0.01*AF3)*(0.08/0.4)/(-0.08/0.4*0.01*P3-(2*0.08/0.4+3)*0.01*AF3+0.08/0.4+1))/1000</f>
+      <c r="AX3">
+        <f t="shared" ref="AX3:AX18" si="13">(AS3*X3-4*X3*(1-0.01*P3-2*0.01*AF3)*(0.08/0.4)/(-0.08/0.4*0.01*P3-(2*0.08/0.4+3)*0.01*AF3+0.08/0.4+1))/1000</f>
         <v>11.544925646599328</v>
       </c>
-      <c r="AW3"/>
-      <c r="AX3"/>
       <c r="AY3"/>
       <c r="AZ3"/>
+      <c r="BA3"/>
+      <c r="BB3"/>
     </row>
-    <row r="4" spans="1:52" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:54" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>1.6453933726400001</v>
       </c>
@@ -1203,7 +1234,7 @@
         <v>37030.15371405</v>
       </c>
       <c r="AM4" s="1">
-        <f t="shared" ref="AM4:AM18" si="12">(-2*AI4-3)/(-2*AI4+6)</f>
+        <f t="shared" ref="AM4:AM18" si="14">(-2*AI4-3)/(-2*AI4+6)</f>
         <v>-0.55595176365299948</v>
       </c>
       <c r="AN4" s="2">
@@ -1217,36 +1248,44 @@
         <f>AL4/AK4</f>
         <v>1.4620074972829318</v>
       </c>
-      <c r="AQ4" s="2">
-        <f t="shared" ref="AQ4:AQ18" si="13">(2*AP4+3)/(3-AP4)</f>
+      <c r="AQ4">
+        <f t="shared" si="11"/>
+        <v>-0.45582422382012289</v>
+      </c>
+      <c r="AR4">
+        <f t="shared" si="12"/>
+        <v>1.4607850395800126</v>
+      </c>
+      <c r="AS4" s="2">
+        <f t="shared" ref="AS4:AS18" si="15">(2*AP4+3)/(3-AP4)</f>
         <v>3.851784052328151</v>
       </c>
-      <c r="AR4" s="1">
-        <f t="shared" ref="AR4:AR18" si="14">(1+2*AM4)*(AK4-AK3)*(1-AP4/3)/(3*AN4*AO4*AM4)</f>
+      <c r="AT4" s="1">
+        <f t="shared" ref="AT4:AT18" si="16">(1+2*AM4)*(AK4-AK3)*(1-AP4/3)/(3*AN4*AO4*AM4)</f>
         <v>-6.5344978128567086E-2</v>
       </c>
-      <c r="AS4" s="2">
-        <f t="shared" ref="AS4:AS18" si="15">AS3+AR4</f>
+      <c r="AU4" s="2">
+        <f t="shared" ref="AU4:AU18" si="17">AU3+AT4</f>
         <v>-7.1445529944936123E-2</v>
       </c>
-      <c r="AT4" s="1">
-        <f t="shared" ref="AT4:AT18" si="16">2*(1-AM4)*(AK4-AK3)*(1-AP4/3)/(9*AN4*AO4*AM4)</f>
+      <c r="AV4" s="1">
+        <f t="shared" ref="AV4:AV18" si="18">2*(1-AM4)*(AK4-AK3)*(1-AP4/3)/(9*AN4*AO4*AM4)</f>
         <v>0.60572194885323094</v>
       </c>
-      <c r="AU4" s="2">
-        <f>AU3+AT4</f>
+      <c r="AW4" s="2">
+        <f>AW3+AV4</f>
         <v>0.75508841986944175</v>
       </c>
-      <c r="AV4">
-        <f t="shared" si="11"/>
+      <c r="AX4">
+        <f t="shared" si="13"/>
         <v>42.093808622920491</v>
       </c>
-      <c r="AW4"/>
-      <c r="AX4"/>
       <c r="AY4"/>
       <c r="AZ4"/>
+      <c r="BA4"/>
+      <c r="BB4"/>
     </row>
-    <row r="5" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>3.1487884125400001</v>
       </c>
@@ -1373,7 +1412,7 @@
         <v>74684.303747600003</v>
       </c>
       <c r="AM5" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>-0.65643144324627922</v>
       </c>
       <c r="AN5">
@@ -1384,35 +1423,43 @@
         <v>28139.598604578088</v>
       </c>
       <c r="AP5">
-        <f t="shared" ref="AP4:AP18" si="17">AL5/AK5</f>
+        <f t="shared" ref="AP5:AP18" si="19">AL5/AK5</f>
         <v>1.5118113914496207</v>
       </c>
       <c r="AQ5">
-        <f t="shared" si="13"/>
-        <v>4.0476205423765181</v>
-      </c>
-      <c r="AR5" s="1">
-        <f t="shared" si="14"/>
-        <v>-0.2396841580534215</v>
+        <f t="shared" si="11"/>
+        <v>-0.31559189530742793</v>
+      </c>
+      <c r="AR5">
+        <f t="shared" si="12"/>
+        <v>1.502249990271521</v>
       </c>
       <c r="AS5">
         <f t="shared" si="15"/>
-        <v>-0.31112968799835761</v>
+        <v>4.0476205423765181</v>
       </c>
       <c r="AT5" s="1">
         <f t="shared" si="16"/>
+        <v>-0.2396841580534215</v>
+      </c>
+      <c r="AU5">
+        <f t="shared" si="17"/>
+        <v>-0.31112968799835761</v>
+      </c>
+      <c r="AV5" s="1">
+        <f t="shared" si="18"/>
         <v>0.84599440199637632</v>
       </c>
-      <c r="AU5">
-        <f>AU4+AT5</f>
+      <c r="AW5">
+        <f>AW4+AV5</f>
         <v>1.601082821865818</v>
       </c>
-      <c r="AV5">
-        <f t="shared" si="11"/>
+      <c r="AX5">
+        <f t="shared" si="13"/>
         <v>85.079679730579613</v>
       </c>
     </row>
-    <row r="6" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>4.8111521126300003</v>
       </c>
@@ -1539,7 +1586,7 @@
         <v>116883.154572</v>
       </c>
       <c r="AM6" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>-0.63468886241445877</v>
       </c>
       <c r="AN6">
@@ -1550,35 +1597,43 @@
         <v>28139.598604578088</v>
       </c>
       <c r="AP6">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>1.5347109124734899</v>
       </c>
       <c r="AQ6">
-        <f t="shared" si="13"/>
-        <v>4.142132686726347</v>
-      </c>
-      <c r="AR6" s="1">
-        <f t="shared" si="14"/>
-        <v>-0.236813580628704</v>
+        <f t="shared" si="11"/>
+        <v>-0.23638655876496029</v>
+      </c>
+      <c r="AR6">
+        <f t="shared" si="12"/>
+        <v>1.5220789884291808</v>
       </c>
       <c r="AS6">
         <f t="shared" si="15"/>
-        <v>-0.54794326862706155</v>
+        <v>4.142132686726347</v>
       </c>
       <c r="AT6" s="1">
         <f t="shared" si="16"/>
+        <v>-0.236813580628704</v>
+      </c>
+      <c r="AU6">
+        <f t="shared" si="17"/>
+        <v>-0.54794326862706155</v>
+      </c>
+      <c r="AV6" s="1">
+        <f t="shared" si="18"/>
         <v>0.95805130872913236</v>
       </c>
-      <c r="AU6">
-        <f t="shared" ref="AU6:AU18" si="18">AU5+AT6</f>
+      <c r="AW6">
+        <f t="shared" ref="AW6:AW18" si="20">AW5+AV6</f>
         <v>2.5591341305949502</v>
       </c>
-      <c r="AV6">
-        <f t="shared" si="11"/>
+      <c r="AX6">
+        <f t="shared" si="13"/>
         <v>133.27363886553618</v>
       </c>
     </row>
-    <row r="7" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6.5685508673699999</v>
       </c>
@@ -1705,7 +1760,7 @@
         <v>161586.88985345</v>
       </c>
       <c r="AM7" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>-0.71017263087975191</v>
       </c>
       <c r="AN7">
@@ -1716,35 +1771,43 @@
         <v>28139.598604578088</v>
       </c>
       <c r="AP7">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>1.5483504356166418</v>
       </c>
       <c r="AQ7">
-        <f t="shared" si="13"/>
-        <v>4.1998434200771326</v>
-      </c>
-      <c r="AR7" s="1">
-        <f t="shared" si="14"/>
-        <v>-0.37752179846717959</v>
+        <f t="shared" si="11"/>
+        <v>-0.18286450000625365</v>
+      </c>
+      <c r="AR7">
+        <f t="shared" si="12"/>
+        <v>1.5339994551803409</v>
       </c>
       <c r="AS7">
         <f t="shared" si="15"/>
-        <v>-0.92546506709424115</v>
+        <v>4.1998434200771326</v>
       </c>
       <c r="AT7" s="1">
         <f t="shared" si="16"/>
+        <v>-0.37752179846717959</v>
+      </c>
+      <c r="AU7">
+        <f t="shared" si="17"/>
+        <v>-0.92546506709424115</v>
+      </c>
+      <c r="AV7" s="1">
+        <f t="shared" si="18"/>
         <v>1.0239637206750309</v>
       </c>
-      <c r="AU7">
-        <f t="shared" si="18"/>
+      <c r="AW7">
+        <f t="shared" si="20"/>
         <v>3.5830978512699811</v>
       </c>
-      <c r="AV7">
-        <f t="shared" si="11"/>
+      <c r="AX7">
+        <f t="shared" si="13"/>
         <v>184.69861856820185</v>
       </c>
     </row>
-    <row r="8" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>8.3302405671600006</v>
       </c>
@@ -1871,7 +1934,7 @@
         <v>209411.00116514997</v>
       </c>
       <c r="AM8" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>-0.72359320916839664</v>
       </c>
       <c r="AN8">
@@ -1882,35 +1945,43 @@
         <v>28139.598604578088</v>
       </c>
       <c r="AP8">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>1.5605914814069928</v>
       </c>
       <c r="AQ8">
-        <f t="shared" si="13"/>
-        <v>4.2525682485173277</v>
-      </c>
-      <c r="AR8" s="1">
-        <f t="shared" si="14"/>
-        <v>-0.42600154311021243</v>
+        <f t="shared" si="11"/>
+        <v>-0.13944309096909246</v>
+      </c>
+      <c r="AR8">
+        <f t="shared" si="12"/>
+        <v>1.5392447513591121</v>
       </c>
       <c r="AS8">
         <f t="shared" si="15"/>
-        <v>-1.3514666102044535</v>
+        <v>4.2525682485173277</v>
       </c>
       <c r="AT8" s="1">
         <f t="shared" si="16"/>
+        <v>-0.42600154311021243</v>
+      </c>
+      <c r="AU8">
+        <f t="shared" si="17"/>
+        <v>-1.3514666102044535</v>
+      </c>
+      <c r="AV8" s="1">
+        <f t="shared" si="18"/>
         <v>1.0946268143695808</v>
       </c>
-      <c r="AU8">
-        <f t="shared" si="18"/>
+      <c r="AW8">
+        <f t="shared" si="20"/>
         <v>4.6777246656395617</v>
       </c>
-      <c r="AV8">
-        <f t="shared" si="11"/>
+      <c r="AX8">
+        <f t="shared" si="13"/>
         <v>238.74042309813143</v>
       </c>
     </row>
-    <row r="9" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>10.1081107487</v>
       </c>
@@ -2037,7 +2108,7 @@
         <v>253290.84840685001</v>
       </c>
       <c r="AM9" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>-0.74823219503090477</v>
       </c>
       <c r="AN9">
@@ -2048,35 +2119,43 @@
         <v>28139.598604578088</v>
       </c>
       <c r="AP9">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>1.563375740302964</v>
       </c>
       <c r="AQ9">
-        <f t="shared" si="13"/>
-        <v>4.2646860786674825</v>
-      </c>
-      <c r="AR9" s="1">
-        <f t="shared" si="14"/>
-        <v>-0.43696813285925512</v>
+        <f t="shared" si="11"/>
+        <v>-0.11365219534445625</v>
+      </c>
+      <c r="AR9">
+        <f t="shared" si="12"/>
+        <v>1.5431350808447455</v>
       </c>
       <c r="AS9">
         <f t="shared" si="15"/>
-        <v>-1.7884347430637086</v>
+        <v>4.2646860786674825</v>
       </c>
       <c r="AT9" s="1">
         <f t="shared" si="16"/>
+        <v>-0.43696813285925512</v>
+      </c>
+      <c r="AU9">
+        <f t="shared" si="17"/>
+        <v>-1.7884347430637086</v>
+      </c>
+      <c r="AV9" s="1">
+        <f t="shared" si="18"/>
         <v>1.0258161153941423</v>
       </c>
-      <c r="AU9">
-        <f t="shared" si="18"/>
+      <c r="AW9">
+        <f t="shared" si="20"/>
         <v>5.7035407810337038</v>
       </c>
-      <c r="AV9">
-        <f t="shared" si="11"/>
+      <c r="AX9">
+        <f t="shared" si="13"/>
         <v>288.26842852417082</v>
       </c>
     </row>
-    <row r="10" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>11.863345736599999</v>
       </c>
@@ -2203,7 +2282,7 @@
         <v>294678.32969245</v>
       </c>
       <c r="AM10" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>-0.75178028601090829</v>
       </c>
       <c r="AN10">
@@ -2214,35 +2293,43 @@
         <v>28139.598604578088</v>
       </c>
       <c r="AP10">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>1.5624116610317862</v>
       </c>
       <c r="AQ10">
-        <f t="shared" si="13"/>
-        <v>4.2604848384200737</v>
-      </c>
-      <c r="AR10" s="1">
-        <f t="shared" si="14"/>
-        <v>-0.42245932275460668</v>
+        <f t="shared" si="11"/>
+        <v>-9.6291770225417128E-2</v>
+      </c>
+      <c r="AR10">
+        <f t="shared" si="12"/>
+        <v>1.5452230971805572</v>
       </c>
       <c r="AS10">
         <f t="shared" si="15"/>
-        <v>-2.2108940658183154</v>
+        <v>4.2604848384200737</v>
       </c>
       <c r="AT10" s="1">
         <f t="shared" si="16"/>
+        <v>-0.42245932275460668</v>
+      </c>
+      <c r="AU10">
+        <f t="shared" si="17"/>
+        <v>-2.2108940658183154</v>
+      </c>
+      <c r="AV10" s="1">
+        <f t="shared" si="18"/>
         <v>0.97976417583249142</v>
       </c>
-      <c r="AU10">
-        <f t="shared" si="18"/>
+      <c r="AW10">
+        <f t="shared" si="20"/>
         <v>6.6833049568661949</v>
       </c>
-      <c r="AV10">
-        <f t="shared" si="11"/>
+      <c r="AX10">
+        <f t="shared" si="13"/>
         <v>335.24516626817837</v>
       </c>
     </row>
-    <row r="11" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>13.559501474499999</v>
       </c>
@@ -2369,7 +2456,7 @@
         <v>332296.6699485</v>
       </c>
       <c r="AM11" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>-0.75336700807876966</v>
       </c>
       <c r="AN11">
@@ -2380,35 +2467,43 @@
         <v>28139.598604578088</v>
       </c>
       <c r="AP11">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>1.5567284342015653</v>
       </c>
       <c r="AQ11">
-        <f t="shared" si="13"/>
-        <v>4.235832682687886</v>
-      </c>
-      <c r="AR11" s="1">
-        <f t="shared" si="14"/>
-        <v>-0.39532288601843657</v>
+        <f t="shared" si="11"/>
+        <v>-8.7196058035180712E-2</v>
+      </c>
+      <c r="AR11">
+        <f t="shared" si="12"/>
+        <v>1.5466578892505494</v>
       </c>
       <c r="AS11">
         <f t="shared" si="15"/>
-        <v>-2.6062169518367519</v>
+        <v>4.235832682687886</v>
       </c>
       <c r="AT11" s="1">
         <f t="shared" si="16"/>
+        <v>-0.39532288601843657</v>
+      </c>
+      <c r="AU11">
+        <f t="shared" si="17"/>
+        <v>-2.6062169518367519</v>
+      </c>
+      <c r="AV11" s="1">
+        <f t="shared" si="18"/>
         <v>0.9119131323097881</v>
       </c>
-      <c r="AU11">
-        <f t="shared" si="18"/>
+      <c r="AW11">
+        <f t="shared" si="20"/>
         <v>7.5952180891759831</v>
       </c>
-      <c r="AV11">
-        <f t="shared" si="11"/>
+      <c r="AX11">
+        <f t="shared" si="13"/>
         <v>378.71117269034664</v>
       </c>
     </row>
-    <row r="12" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>15.2057996294</v>
       </c>
@@ -2535,7 +2630,7 @@
         <v>372704.62721100001</v>
       </c>
       <c r="AM12" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>-0.77465584493403816</v>
       </c>
       <c r="AN12">
@@ -2546,35 +2641,43 @@
         <v>28139.598604578088</v>
       </c>
       <c r="AP12">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>1.5570272623984061</v>
       </c>
       <c r="AQ12">
-        <f t="shared" si="13"/>
-        <v>4.2371240741243357</v>
-      </c>
-      <c r="AR12" s="1">
-        <f t="shared" si="14"/>
-        <v>-0.44256824737524914</v>
+        <f t="shared" si="11"/>
+        <v>-7.3336627598270976E-2</v>
+      </c>
+      <c r="AR12">
+        <f t="shared" si="12"/>
+        <v>1.5461569761614034</v>
       </c>
       <c r="AS12">
         <f t="shared" si="15"/>
-        <v>-3.0487851992120012</v>
+        <v>4.2371240741243357</v>
       </c>
       <c r="AT12" s="1">
         <f t="shared" si="16"/>
+        <v>-0.44256824737524914</v>
+      </c>
+      <c r="AU12">
+        <f t="shared" si="17"/>
+        <v>-3.0487851992120012</v>
+      </c>
+      <c r="AV12" s="1">
+        <f t="shared" si="18"/>
         <v>0.95320057382518575</v>
       </c>
-      <c r="AU12">
-        <f t="shared" si="18"/>
+      <c r="AW12">
+        <f t="shared" si="20"/>
         <v>8.5484186630011685</v>
       </c>
-      <c r="AV12">
-        <f t="shared" si="11"/>
+      <c r="AX12">
+        <f t="shared" si="13"/>
         <v>425.01970569761494</v>
       </c>
     </row>
-    <row r="13" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>16.7294617465</v>
       </c>
@@ -2701,7 +2804,7 @@
         <v>403312.17996999994</v>
       </c>
       <c r="AM13" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>-0.83381960042431891</v>
       </c>
       <c r="AN13">
@@ -2712,35 +2815,43 @@
         <v>28139.598604578088</v>
       </c>
       <c r="AP13">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>1.5476961308415831</v>
       </c>
       <c r="AQ13">
-        <f t="shared" si="13"/>
-        <v>4.1970502118233233</v>
-      </c>
-      <c r="AR13" s="1">
-        <f t="shared" si="14"/>
-        <v>-0.42668317530902911</v>
+        <f t="shared" si="11"/>
+        <v>-7.2686623801271555E-2</v>
+      </c>
+      <c r="AR13">
+        <f t="shared" si="12"/>
+        <v>1.5472832525195395</v>
       </c>
       <c r="AS13">
         <f t="shared" si="15"/>
-        <v>-3.4754683745210304</v>
+        <v>4.1970502118233233</v>
       </c>
       <c r="AT13" s="1">
         <f t="shared" si="16"/>
+        <v>-0.42668317530902911</v>
+      </c>
+      <c r="AU13">
+        <f t="shared" si="17"/>
+        <v>-3.4754683745210304</v>
+      </c>
+      <c r="AV13" s="1">
+        <f t="shared" si="18"/>
         <v>0.78132017918100727</v>
       </c>
-      <c r="AU13">
-        <f t="shared" si="18"/>
+      <c r="AW13">
+        <f t="shared" si="20"/>
         <v>9.3297388421821754</v>
       </c>
-      <c r="AV13">
-        <f t="shared" si="11"/>
+      <c r="AX13">
+        <f t="shared" si="13"/>
         <v>460.41718589226116</v>
       </c>
     </row>
-    <row r="14" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>18.081688816100002</v>
       </c>
@@ -2867,7 +2978,7 @@
         <v>428853.21413350001</v>
       </c>
       <c r="AM14" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>-0.76970312538625407</v>
       </c>
       <c r="AN14">
@@ -2878,35 +2989,43 @@
         <v>28139.598604578088</v>
       </c>
       <c r="AP14">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>1.5383405150773626</v>
       </c>
       <c r="AQ14">
-        <f t="shared" si="13"/>
-        <v>4.1573848716730026</v>
-      </c>
-      <c r="AR14" s="1">
-        <f t="shared" si="14"/>
-        <v>-0.30130015466040133</v>
+        <f t="shared" si="11"/>
+        <v>-7.4157477540880867E-2</v>
+      </c>
+      <c r="AR14">
+        <f t="shared" si="12"/>
+        <v>1.548346082991118</v>
       </c>
       <c r="AS14">
         <f t="shared" si="15"/>
-        <v>-3.7767685291814317</v>
+        <v>4.1573848716730026</v>
       </c>
       <c r="AT14" s="1">
         <f t="shared" si="16"/>
+        <v>-0.30130015466040133</v>
+      </c>
+      <c r="AU14">
+        <f t="shared" si="17"/>
+        <v>-3.7767685291814317</v>
+      </c>
+      <c r="AV14" s="1">
+        <f t="shared" si="18"/>
         <v>0.65901081002582274</v>
       </c>
-      <c r="AU14">
-        <f t="shared" si="18"/>
+      <c r="AW14">
+        <f t="shared" si="20"/>
         <v>9.9887496522079982</v>
       </c>
-      <c r="AV14">
-        <f t="shared" si="11"/>
+      <c r="AX14">
+        <f t="shared" si="13"/>
         <v>490.92911718595383</v>
       </c>
     </row>
-    <row r="15" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>18.802809787099999</v>
       </c>
@@ -3033,7 +3152,7 @@
         <v>414015.90840900003</v>
       </c>
       <c r="AM15" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>-0.9011673289133183</v>
       </c>
       <c r="AN15">
@@ -3044,35 +3163,43 @@
         <v>28139.598604578088</v>
       </c>
       <c r="AP15">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>1.492936302783036</v>
       </c>
       <c r="AQ15">
-        <f t="shared" si="13"/>
-        <v>3.9718776430086868</v>
-      </c>
-      <c r="AR15" s="1">
-        <f t="shared" si="14"/>
-        <v>3.2998380816330698E-2</v>
+        <f t="shared" si="11"/>
+        <v>-0.12017397594349122</v>
+      </c>
+      <c r="AR15">
+        <f t="shared" si="12"/>
+        <v>1.5571885905308351</v>
       </c>
       <c r="AS15">
         <f t="shared" si="15"/>
-        <v>-3.7437701483651011</v>
+        <v>3.9718776430086868</v>
       </c>
       <c r="AT15" s="1">
         <f t="shared" si="16"/>
+        <v>3.2998380816330698E-2</v>
+      </c>
+      <c r="AU15">
+        <f t="shared" si="17"/>
+        <v>-3.7437701483651011</v>
+      </c>
+      <c r="AV15" s="1">
+        <f t="shared" si="18"/>
         <v>-5.212741167547686E-2</v>
       </c>
-      <c r="AU15">
-        <f t="shared" si="18"/>
+      <c r="AW15">
+        <f t="shared" si="20"/>
         <v>9.9366222405325217</v>
       </c>
-      <c r="AV15">
-        <f t="shared" si="11"/>
+      <c r="AX15">
+        <f t="shared" si="13"/>
         <v>475.64088360470163</v>
       </c>
     </row>
-    <row r="16" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>18.943144225699999</v>
       </c>
@@ -3199,7 +3326,7 @@
         <v>376239.58324000001</v>
       </c>
       <c r="AM16" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>-1.2203095434743905</v>
       </c>
       <c r="AN16">
@@ -3210,35 +3337,43 @@
         <v>28139.598604578088</v>
       </c>
       <c r="AP16">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>1.4314706702909348</v>
       </c>
       <c r="AQ16">
-        <f t="shared" si="13"/>
-        <v>3.7378589163323728</v>
-      </c>
-      <c r="AR16" s="1">
-        <f t="shared" si="14"/>
-        <v>0.51704358216687463</v>
+        <f t="shared" si="11"/>
+        <v>-0.18790717900330134</v>
+      </c>
+      <c r="AR16">
+        <f t="shared" si="12"/>
+        <v>1.5714969681975037</v>
       </c>
       <c r="AS16">
         <f t="shared" si="15"/>
-        <v>-3.2267265661982263</v>
+        <v>3.7378589163323728</v>
       </c>
       <c r="AT16" s="1">
         <f t="shared" si="16"/>
+        <v>0.51704358216687463</v>
+      </c>
+      <c r="AU16">
+        <f t="shared" si="17"/>
+        <v>-3.2267265661982263</v>
+      </c>
+      <c r="AV16" s="1">
+        <f t="shared" si="18"/>
         <v>-0.53125160346109446</v>
       </c>
-      <c r="AU16">
-        <f t="shared" si="18"/>
+      <c r="AW16">
+        <f t="shared" si="20"/>
         <v>9.4053706370714281</v>
       </c>
-      <c r="AV16">
-        <f t="shared" si="11"/>
+      <c r="AX16">
+        <f t="shared" si="13"/>
         <v>436.04289520981513</v>
       </c>
     </row>
-    <row r="17" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>19.166691396400001</v>
       </c>
@@ -3365,7 +3500,7 @@
         <v>364252.63082599995</v>
       </c>
       <c r="AM17" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>-0.78706790161804752</v>
       </c>
       <c r="AN17">
@@ -3376,35 +3511,43 @@
         <v>28139.598604578088</v>
       </c>
       <c r="AP17">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>1.4016313498926285</v>
       </c>
       <c r="AQ17">
-        <f t="shared" si="13"/>
-        <v>3.6307410680229615</v>
-      </c>
-      <c r="AR17" s="1">
-        <f t="shared" si="14"/>
-        <v>4.6205369562911366E-2</v>
+        <f t="shared" si="11"/>
+        <v>-0.21907156871478661</v>
+      </c>
+      <c r="AR17">
+        <f t="shared" si="12"/>
+        <v>1.57828484301892</v>
       </c>
       <c r="AS17">
         <f t="shared" si="15"/>
-        <v>-3.1805211966353149</v>
+        <v>3.6307410680229615</v>
       </c>
       <c r="AT17" s="1">
         <f t="shared" si="16"/>
+        <v>4.6205369562911366E-2</v>
+      </c>
+      <c r="AU17">
+        <f t="shared" si="17"/>
+        <v>-3.1805211966353149</v>
+      </c>
+      <c r="AV17" s="1">
+        <f t="shared" si="18"/>
         <v>-9.5879908972596933E-2</v>
       </c>
-      <c r="AU17">
-        <f t="shared" si="18"/>
+      <c r="AW17">
+        <f t="shared" si="20"/>
         <v>9.3094907280988313</v>
       </c>
-      <c r="AV17">
-        <f t="shared" si="11"/>
+      <c r="AX17">
+        <f t="shared" si="13"/>
         <v>423.39505457636022</v>
       </c>
     </row>
-    <row r="18" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>18.9103806629</v>
       </c>
@@ -3531,7 +3674,7 @@
         <v>321106.96157449996</v>
       </c>
       <c r="AM18" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>-1.1175085374301201</v>
       </c>
       <c r="AN18">
@@ -3542,35 +3685,43 @@
         <v>28139.598604578088</v>
       </c>
       <c r="AP18">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>1.3380324737091922</v>
       </c>
       <c r="AQ18">
-        <f t="shared" si="13"/>
-        <v>3.4152682634457188</v>
-      </c>
-      <c r="AR18" s="1">
-        <f t="shared" si="14"/>
-        <v>0.57610337071233331</v>
+        <f t="shared" si="11"/>
+        <v>-0.29202894919440148</v>
+      </c>
+      <c r="AR18">
+        <f t="shared" si="12"/>
+        <v>1.593345232793717</v>
       </c>
       <c r="AS18">
         <f t="shared" si="15"/>
-        <v>-2.6044178259229813</v>
+        <v>3.4152682634457188</v>
       </c>
       <c r="AT18" s="1">
         <f t="shared" si="16"/>
+        <v>0.57610337071233331</v>
+      </c>
+      <c r="AU18">
+        <f t="shared" si="17"/>
+        <v>-2.6044178259229813</v>
+      </c>
+      <c r="AV18" s="1">
+        <f t="shared" si="18"/>
         <v>-0.65850846964399767</v>
       </c>
-      <c r="AU18">
-        <f t="shared" si="18"/>
+      <c r="AW18">
+        <f t="shared" si="20"/>
         <v>8.6509822584548335</v>
       </c>
-      <c r="AV18">
-        <f t="shared" si="11"/>
+      <c r="AX18">
+        <f t="shared" si="13"/>
         <v>378.87076656985465</v>
       </c>
     </row>
-    <row r="19" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>18.596284598899999</v>
       </c>
@@ -3657,7 +3808,7 @@
         <v>-8.3865018885030942</v>
       </c>
     </row>
-    <row r="20" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>18.671151548299999</v>
       </c>
@@ -3744,7 +3895,7 @@
         <v>-9.2577310762631306</v>
       </c>
     </row>
-    <row r="21" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>18.5911722737</v>
       </c>
@@ -3831,7 +3982,7 @@
         <v>-9.9604393099804724</v>
       </c>
     </row>
-    <row r="22" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>17.981935276200002</v>
       </c>

--- a/SMP_PE.xlsx
+++ b/SMP_PE.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="51">
   <si>
     <t>avgT</t>
   </si>
@@ -141,55 +141,59 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
+    <t>s_n_real_pred</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ev_ela</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ev_pla</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>eq</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>er_from_ev</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>dev_pla</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>deq</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>dev/deq</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>dratio</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>dratio-M</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>dratio_pred</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>dev/deq-ratioF</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
     <t>dev/deq_pred</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>K_phi</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>s_n_real_pred</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ev_ela</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ev_pla</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>eq</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>er_from_ev</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>dev_pla</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>deq</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>dev/deq</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>dratio</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>dratio-M</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>dratio_pred</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -588,10 +592,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:BB22"/>
+  <dimension ref="A1:BC22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AD1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="AR1" sqref="AR1:AR1048576"/>
+    <sheetView tabSelected="1" topLeftCell="AC1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="AN1" sqref="AN1:AN1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -612,20 +616,20 @@
     <col min="28" max="28" width="15.33203125" bestFit="1" customWidth="1"/>
     <col min="31" max="31" width="13.109375" bestFit="1" customWidth="1"/>
     <col min="32" max="32" width="13.109375" customWidth="1"/>
-    <col min="36" max="36" width="12.88671875" customWidth="1"/>
-    <col min="41" max="41" width="12.77734375" bestFit="1" customWidth="1"/>
-    <col min="42" max="42" width="12.77734375" customWidth="1"/>
-    <col min="43" max="44" width="10.44140625" customWidth="1"/>
-    <col min="45" max="45" width="8.88671875" customWidth="1"/>
-    <col min="46" max="46" width="12.44140625" customWidth="1"/>
-    <col min="47" max="47" width="11.21875" customWidth="1"/>
-    <col min="50" max="51" width="13.33203125" customWidth="1"/>
-    <col min="52" max="53" width="13.109375" bestFit="1" customWidth="1"/>
-    <col min="54" max="54" width="13.109375" customWidth="1"/>
-    <col min="55" max="1032" width="11.5546875"/>
+    <col min="36" max="37" width="12.88671875" customWidth="1"/>
+    <col min="42" max="42" width="12.77734375" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="12.77734375" customWidth="1"/>
+    <col min="44" max="45" width="10.44140625" customWidth="1"/>
+    <col min="46" max="46" width="8.88671875" customWidth="1"/>
+    <col min="47" max="47" width="12.44140625" customWidth="1"/>
+    <col min="48" max="48" width="11.21875" customWidth="1"/>
+    <col min="51" max="52" width="13.33203125" customWidth="1"/>
+    <col min="53" max="54" width="13.109375" bestFit="1" customWidth="1"/>
+    <col min="55" max="55" width="13.109375" customWidth="1"/>
+    <col min="56" max="1033" width="11.5546875"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -711,73 +715,76 @@
         <v>27</v>
       </c>
       <c r="AC1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AE1" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="AD1" t="s">
+      <c r="AF1" t="s">
         <v>41</v>
       </c>
-      <c r="AE1" s="2" t="s">
+      <c r="AG1" t="s">
         <v>42</v>
       </c>
-      <c r="AF1" t="s">
+      <c r="AH1" t="s">
         <v>43</v>
       </c>
-      <c r="AG1" t="s">
+      <c r="AI1" t="s">
         <v>44</v>
       </c>
-      <c r="AH1" t="s">
+      <c r="AJ1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AK1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AL1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AM1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AN1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AO1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AP1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AQ1" t="s">
         <v>45</v>
       </c>
-      <c r="AI1" t="s">
+      <c r="AR1" t="s">
         <v>46</v>
       </c>
-      <c r="AJ1" t="s">
+      <c r="AS1" t="s">
+        <v>47</v>
+      </c>
+      <c r="AT1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AU1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AV1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AW1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AX1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AY1" t="s">
         <v>37</v>
       </c>
-      <c r="AK1" t="s">
-        <v>28</v>
-      </c>
-      <c r="AL1" t="s">
-        <v>29</v>
-      </c>
-      <c r="AM1" t="s">
-        <v>38</v>
-      </c>
-      <c r="AN1" t="s">
-        <v>30</v>
-      </c>
-      <c r="AO1" t="s">
-        <v>31</v>
-      </c>
-      <c r="AP1" t="s">
-        <v>47</v>
-      </c>
-      <c r="AQ1" t="s">
-        <v>48</v>
-      </c>
-      <c r="AR1" t="s">
-        <v>49</v>
-      </c>
-      <c r="AS1" t="s">
-        <v>32</v>
-      </c>
-      <c r="AT1" t="s">
-        <v>33</v>
-      </c>
-      <c r="AU1" t="s">
-        <v>34</v>
-      </c>
-      <c r="AV1" t="s">
-        <v>35</v>
-      </c>
-      <c r="AW1" t="s">
-        <v>36</v>
-      </c>
-      <c r="AX1" t="s">
-        <v>39</v>
-      </c>
     </row>
-    <row r="2" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>0.160598911058</v>
       </c>
@@ -864,7 +871,7 @@
         <v>-2.36137909226386E-7</v>
       </c>
       <c r="AC2">
-        <f>1.34 *((AK2/100000)^0.3-(2594/100000)^0.3)</f>
+        <f>1.34 *((AL2/100000)^0.3-(2594/100000)^0.3)</f>
         <v>-4.1125681660424598E-3</v>
       </c>
       <c r="AD2">
@@ -879,57 +886,53 @@
         <f t="shared" ref="AF2:AF18" si="1">AB2-P2/2</f>
         <v>-2.36137909226386E-7</v>
       </c>
-      <c r="AJ2">
-        <f>(( 1.588*EXP(-0.0005387*53))^2-AP2^2)/(2*AP2)+0.4</f>
-        <v>0.57095823460902184</v>
-      </c>
-      <c r="AK2">
-        <f t="shared" ref="AK2:AK18" si="2">(X2+Y2+Z2)/3</f>
+      <c r="AL2">
+        <f t="shared" ref="AL2:AL18" si="2">(X2+Y2+Z2)/3</f>
         <v>2515.4747919599999</v>
       </c>
-      <c r="AL2">
-        <f t="shared" ref="AL2:AL18" si="3">Z2-(Y2+X2)/2</f>
+      <c r="AM2">
+        <f t="shared" ref="AM2:AM18" si="3">Z2-(Y2+X2)/2</f>
         <v>3475.8422263949997</v>
       </c>
-      <c r="AM2" s="1">
-        <f>(-2*AI2-3)/(-2*AI2+6)</f>
+      <c r="AN2" s="1">
+        <f>(-2*AJ2-3)/(-2*AJ2+6)</f>
         <v>-0.5</v>
       </c>
-      <c r="AN2">
-        <f t="shared" ref="AN2:AN18" si="4">1/(2+AM2*AS2-2*0.33*(1+AM2+AS2))</f>
+      <c r="AO2">
+        <f t="shared" ref="AO2:AO18" si="4">1/(2+AN2*AT2-2*0.33*(1+AN2+AT2))</f>
         <v>-0.22624434389140272</v>
       </c>
-      <c r="AO2" s="1" t="e">
-        <f>3*(1-2*0.33)*(AK2-AK1)/(AC2-AC1)</f>
+      <c r="AP2" s="1" t="e">
+        <f>3*(1-2*0.33)*(AL2-AL1)/(AC2-AC1)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="AP2">
-        <f>AL2/AK2</f>
+      <c r="AQ2">
+        <f>AM2/AL2</f>
         <v>1.3817837640450785</v>
       </c>
-      <c r="AQ2">
-        <f>AL2/AK2-(1.35*(AK2/3255000)^-0.0723)</f>
-        <v>-0.88456311129873444</v>
-      </c>
       <c r="AR2">
-        <f>1.35*(AK2/3255000)^-0.0723-1.386/(AE2+1.27)+0.03463</f>
+        <f>-1.386/(AE2+1.27)+0.03463</f>
+        <v>-1.0567085150376916</v>
+      </c>
+      <c r="AS2">
+        <f>1.35*(AL2/3255000)^-0.0723-1.386/(AE2+1.27)+0.03463</f>
         <v>1.2096383603061214</v>
       </c>
-      <c r="AS2">
+      <c r="AT2">
         <v>5.25</v>
       </c>
-      <c r="AU2">
+      <c r="AV2">
         <v>0</v>
       </c>
-      <c r="AW2">
+      <c r="AX2">
         <v>0</v>
       </c>
-      <c r="AX2">
-        <f>(AS2*X2-4*X2*(1-2*0.01*P2-0.01*AF2)*(0.08/0.4)^2/(-0.08/0.4*0.01*P2-(2*0.08/0.4+3)*0.01*AF2+0.08/0.4+1))/1000</f>
+      <c r="AY2">
+        <f>(AT2*X2-4*X2*(1-2*0.01*P2-0.01*AF2)*(0.08/0.4)^2/(-0.08/0.4*0.01*P2-(2*0.08/0.4+3)*0.01*AF2+0.08/0.4+1))/1000</f>
         <v>7.0549048057573849</v>
       </c>
     </row>
-    <row r="3" spans="1:54" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:55" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>0.508269369114</v>
       </c>
@@ -1016,7 +1019,7 @@
         <v>0.14424923787768051</v>
       </c>
       <c r="AC3">
-        <f t="shared" ref="AC3:AC18" si="5">1.34 *((AK3/100000)^0.3-(2594/100000)^0.3)</f>
+        <f t="shared" ref="AC3:AC18" si="5">1.34 *((AL3/100000)^0.3-(2594/100000)^0.3)</f>
         <v>0.16480005342311152</v>
       </c>
       <c r="AD3">
@@ -1044,70 +1047,74 @@
         <v>4.0842846288488374E-2</v>
       </c>
       <c r="AJ3">
-        <f t="shared" ref="AJ3:AJ18" si="10">(( 1.588*EXP(-0.0005387*53))^2-AP3^2)/(2*AP3)+0.4</f>
-        <v>0.59270249000329356</v>
+        <f>-(1.35-(1.35*(AL3/3255000)^-0.0723))+0.2354+1.382*AR3</f>
+        <v>7.9540675560220153E-3</v>
       </c>
       <c r="AK3">
+        <f>AI3+(1.35-(1.35*(AL3/3255000)^-0.0723))</f>
+        <v>-0.70605126612892855</v>
+      </c>
+      <c r="AL3">
         <f t="shared" si="2"/>
         <v>7369.2502595533333</v>
       </c>
-      <c r="AL3">
+      <c r="AM3">
         <f t="shared" si="3"/>
         <v>10041.22055317</v>
       </c>
-      <c r="AM3" s="1">
-        <f>(-2*AI3-3)/(-2*AI3+6)</f>
-        <v>-0.52070328348593853</v>
-      </c>
       <c r="AN3" s="1">
+        <f>(-2*AJ3-3)/(-2*AJ3+6)</f>
+        <v>-0.50398760634141981</v>
+      </c>
+      <c r="AO3" s="1">
         <f t="shared" si="4"/>
-        <v>-0.40906108162439841</v>
-      </c>
-      <c r="AO3" s="1">
+        <v>-0.41715173336738198</v>
+      </c>
+      <c r="AP3" s="1">
         <v>28139.598604578099</v>
       </c>
-      <c r="AP3">
-        <f>AL3/AK3</f>
+      <c r="AQ3">
+        <f>AM3/AL3</f>
         <v>1.3625837364055839</v>
       </c>
-      <c r="AQ3">
-        <f t="shared" ref="AQ3:AQ18" si="11">AL3/AK3-(1.35*(AK3/3255000)^-0.0723)</f>
-        <v>-0.73431037601183302</v>
-      </c>
       <c r="AR3">
-        <f t="shared" ref="AR3:AR18" si="12">1.35*(AK3/3255000)^-0.0723-1.386/(AE3+1.27)+0.03463</f>
+        <f t="shared" ref="AR3:AR18" si="10">-1.386/(AE3+1.27)+0.03463</f>
+        <v>-0.7050217401312554</v>
+      </c>
+      <c r="AS3">
+        <f t="shared" ref="AS3:AS18" si="11">1.35*(AL3/3255000)^-0.0723-1.386/(AE3+1.27)+0.03463</f>
         <v>1.3918723722861615</v>
       </c>
-      <c r="AS3" s="1">
-        <f>(2*AP3+3)/(3-AP3)</f>
+      <c r="AT3" s="1">
+        <f>(2*AQ3+3)/(3-AQ3)</f>
         <v>3.4964642773508432</v>
       </c>
-      <c r="AT3" s="1">
-        <f>(1+2*AM3)*(AK3-AK2)*(1-AP3/3)/(3*AN3*AO3*AM3)</f>
-        <v>-6.1005518163690367E-3</v>
-      </c>
       <c r="AU3" s="1">
-        <f>(AU2+AT3)</f>
-        <v>-6.1005518163690367E-3</v>
+        <f>(1+2*AN3)*(AL3-AL2)*(1-AQ3/3)/(3*AO3*AP3*AN3)</f>
+        <v>-1.1904378826251398E-3</v>
       </c>
       <c r="AV3" s="1">
-        <f>2*(1-AM3)*(AK3-AK2)*(1-AP3/3)/(9*AN3*AO3*AM3)</f>
-        <v>0.14936647101621081</v>
+        <f>(AV2+AU3)</f>
+        <v>-1.1904378826251398E-3</v>
       </c>
       <c r="AW3" s="1">
-        <f>AW2+AV3</f>
-        <v>0.14936647101621081</v>
-      </c>
-      <c r="AX3">
-        <f t="shared" ref="AX3:AX18" si="13">(AS3*X3-4*X3*(1-0.01*P3-2*0.01*AF3)*(0.08/0.4)/(-0.08/0.4*0.01*P3-(2*0.08/0.4+3)*0.01*AF3+0.08/0.4+1))/1000</f>
+        <f>2*(1-AN3)*(AL3-AL2)*(1-AQ3/3)/(9*AO3*AP3*AN3)</f>
+        <v>0.14966403971812714</v>
+      </c>
+      <c r="AX3" s="1">
+        <f>AX2+AW3</f>
+        <v>0.14966403971812714</v>
+      </c>
+      <c r="AY3">
+        <f t="shared" ref="AY3:AY18" si="12">(AT3*X3-4*X3*(1-0.01*P3-2*0.01*AF3)*(0.08/0.4)/(-0.08/0.4*0.01*P3-(2*0.08/0.4+3)*0.01*AF3+0.08/0.4+1))/1000</f>
         <v>11.544925646599328</v>
       </c>
-      <c r="AY3"/>
       <c r="AZ3"/>
       <c r="BA3"/>
       <c r="BB3"/>
+      <c r="BC3"/>
     </row>
-    <row r="4" spans="1:54" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:55" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>1.6453933726400001</v>
       </c>
@@ -1222,70 +1229,74 @@
         <v>0.10787949529033893</v>
       </c>
       <c r="AJ4">
-        <f t="shared" si="10"/>
-        <v>0.48355465849054891</v>
+        <f t="shared" ref="AJ4:AJ22" si="13">-(1.35-(1.35*(AL4/3255000)^-0.0723))+0.2354+1.382*AR4</f>
+        <v>0.17159320723821048</v>
       </c>
       <c r="AK4">
+        <f t="shared" ref="AK4:AK18" si="14">AI4+(1.35-(1.35*(AL4/3255000)^-0.0723))</f>
+        <v>-0.45995222581271566</v>
+      </c>
+      <c r="AL4">
         <f t="shared" si="2"/>
         <v>25328.292626999999</v>
       </c>
-      <c r="AL4">
+      <c r="AM4">
         <f t="shared" si="3"/>
         <v>37030.15371405</v>
       </c>
-      <c r="AM4" s="1">
-        <f t="shared" ref="AM4:AM18" si="14">(-2*AI4-3)/(-2*AI4+6)</f>
-        <v>-0.55595176365299948</v>
-      </c>
-      <c r="AN4" s="2">
+      <c r="AN4" s="1">
+        <f t="shared" ref="AN4:AN18" si="15">(-2*AJ4-3)/(-2*AJ4+6)</f>
+        <v>-0.59100169449317019</v>
+      </c>
+      <c r="AO4" s="2">
         <f t="shared" si="4"/>
-        <v>-0.33594751478438328</v>
-      </c>
-      <c r="AO4" s="1">
+        <v>-0.32377891353753191</v>
+      </c>
+      <c r="AP4" s="1">
         <v>28139.598604578088</v>
       </c>
-      <c r="AP4">
-        <f>AL4/AK4</f>
+      <c r="AQ4">
+        <f>AM4/AL4</f>
         <v>1.4620074972829318</v>
       </c>
-      <c r="AQ4">
+      <c r="AR4">
+        <f t="shared" si="10"/>
+        <v>-0.45704668152304212</v>
+      </c>
+      <c r="AS4">
         <f t="shared" si="11"/>
-        <v>-0.45582422382012289</v>
-      </c>
-      <c r="AR4">
+        <v>1.4607850395800126</v>
+      </c>
+      <c r="AT4" s="2">
+        <f t="shared" ref="AT4:AT18" si="16">(2*AQ4+3)/(3-AQ4)</f>
+        <v>3.851784052328151</v>
+      </c>
+      <c r="AU4" s="1">
+        <f t="shared" ref="AU4:AU18" si="17">(1+2*AN4)*(AL4-AL3)*(1-AQ4/3)/(3*AO4*AP4*AN4)</f>
+        <v>-0.10373353385622849</v>
+      </c>
+      <c r="AV4" s="2">
+        <f t="shared" ref="AV4:AV18" si="18">AV3+AU4</f>
+        <v>-0.10492397173885364</v>
+      </c>
+      <c r="AW4" s="1">
+        <f t="shared" ref="AW4:AW18" si="19">2*(1-AN4)*(AL4-AL3)*(1-AQ4/3)/(9*AO4*AP4*AN4)</f>
+        <v>0.60453170335713058</v>
+      </c>
+      <c r="AX4" s="2">
+        <f>AX3+AW4</f>
+        <v>0.75419574307525772</v>
+      </c>
+      <c r="AY4">
         <f t="shared" si="12"/>
-        <v>1.4607850395800126</v>
-      </c>
-      <c r="AS4" s="2">
-        <f t="shared" ref="AS4:AS18" si="15">(2*AP4+3)/(3-AP4)</f>
-        <v>3.851784052328151</v>
-      </c>
-      <c r="AT4" s="1">
-        <f t="shared" ref="AT4:AT18" si="16">(1+2*AM4)*(AK4-AK3)*(1-AP4/3)/(3*AN4*AO4*AM4)</f>
-        <v>-6.5344978128567086E-2</v>
-      </c>
-      <c r="AU4" s="2">
-        <f t="shared" ref="AU4:AU18" si="17">AU3+AT4</f>
-        <v>-7.1445529944936123E-2</v>
-      </c>
-      <c r="AV4" s="1">
-        <f t="shared" ref="AV4:AV18" si="18">2*(1-AM4)*(AK4-AK3)*(1-AP4/3)/(9*AN4*AO4*AM4)</f>
-        <v>0.60572194885323094</v>
-      </c>
-      <c r="AW4" s="2">
-        <f>AW3+AV4</f>
-        <v>0.75508841986944175</v>
-      </c>
-      <c r="AX4">
-        <f t="shared" si="13"/>
         <v>42.093808622920491</v>
       </c>
-      <c r="AY4"/>
       <c r="AZ4"/>
       <c r="BA4"/>
       <c r="BB4"/>
+      <c r="BC4"/>
     </row>
-    <row r="5" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>3.1487884125400001</v>
       </c>
@@ -1400,66 +1411,70 @@
         <v>0.283316482340563</v>
       </c>
       <c r="AJ5">
-        <f t="shared" si="10"/>
-        <v>0.43181855674291775</v>
+        <f t="shared" si="13"/>
+        <v>0.26344143101404943</v>
       </c>
       <c r="AK5">
+        <f t="shared" si="14"/>
+        <v>-0.19408680441648557</v>
+      </c>
+      <c r="AL5">
         <f t="shared" si="2"/>
         <v>49400.543063766672</v>
       </c>
-      <c r="AL5">
+      <c r="AM5">
         <f t="shared" si="3"/>
         <v>74684.303747600003</v>
       </c>
-      <c r="AM5" s="1">
-        <f t="shared" si="14"/>
-        <v>-0.65643144324627922</v>
-      </c>
-      <c r="AN5">
+      <c r="AN5" s="1">
+        <f t="shared" si="15"/>
+        <v>-0.64440112884830525</v>
+      </c>
+      <c r="AO5">
         <f t="shared" si="4"/>
-        <v>-0.28128048554870394</v>
-      </c>
-      <c r="AO5" s="1">
+        <v>-0.28454229181900093</v>
+      </c>
+      <c r="AP5" s="1">
         <v>28139.598604578088</v>
       </c>
-      <c r="AP5">
-        <f t="shared" ref="AP5:AP18" si="19">AL5/AK5</f>
+      <c r="AQ5">
+        <f t="shared" ref="AQ5:AQ18" si="20">AM5/AL5</f>
         <v>1.5118113914496207</v>
       </c>
-      <c r="AQ5">
+      <c r="AR5">
+        <f t="shared" si="10"/>
+        <v>-0.32515329648552765</v>
+      </c>
+      <c r="AS5">
         <f t="shared" si="11"/>
-        <v>-0.31559189530742793</v>
-      </c>
-      <c r="AR5">
+        <v>1.502249990271521</v>
+      </c>
+      <c r="AT5">
+        <f t="shared" si="16"/>
+        <v>4.0476205423765181</v>
+      </c>
+      <c r="AU5" s="1">
+        <f t="shared" si="17"/>
+        <v>-0.22279822548023656</v>
+      </c>
+      <c r="AV5">
+        <f t="shared" si="18"/>
+        <v>-0.32772219721909018</v>
+      </c>
+      <c r="AW5" s="1">
+        <f t="shared" si="19"/>
+        <v>0.84572204388137662</v>
+      </c>
+      <c r="AX5">
+        <f>AX4+AW5</f>
+        <v>1.5999177869566343</v>
+      </c>
+      <c r="AY5">
         <f t="shared" si="12"/>
-        <v>1.502249990271521</v>
-      </c>
-      <c r="AS5">
-        <f t="shared" si="15"/>
-        <v>4.0476205423765181</v>
-      </c>
-      <c r="AT5" s="1">
-        <f t="shared" si="16"/>
-        <v>-0.2396841580534215</v>
-      </c>
-      <c r="AU5">
-        <f t="shared" si="17"/>
-        <v>-0.31112968799835761</v>
-      </c>
-      <c r="AV5" s="1">
-        <f t="shared" si="18"/>
-        <v>0.84599440199637632</v>
-      </c>
-      <c r="AW5">
-        <f>AW4+AV5</f>
-        <v>1.601082821865818</v>
-      </c>
-      <c r="AX5">
-        <f t="shared" si="13"/>
         <v>85.079679730579613</v>
       </c>
     </row>
-    <row r="6" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>4.8111521126300003</v>
       </c>
@@ -1574,66 +1589,70 @@
         <v>0.24718256576763123</v>
       </c>
       <c r="AJ6">
-        <f t="shared" si="10"/>
-        <v>0.40861511158993008</v>
+        <f t="shared" si="13"/>
+        <v>0.31235392799603989</v>
       </c>
       <c r="AK6">
+        <f t="shared" si="14"/>
+        <v>-0.17391490547081886</v>
+      </c>
+      <c r="AL6">
         <f t="shared" si="2"/>
         <v>76159.720779999989</v>
       </c>
-      <c r="AL6">
+      <c r="AM6">
         <f t="shared" si="3"/>
         <v>116883.154572</v>
       </c>
-      <c r="AM6" s="1">
-        <f t="shared" si="14"/>
-        <v>-0.63468886241445877</v>
-      </c>
-      <c r="AN6">
+      <c r="AN6" s="1">
+        <f t="shared" si="15"/>
+        <v>-0.67432760097192201</v>
+      </c>
+      <c r="AO6">
         <f t="shared" si="4"/>
-        <v>-0.27747884003811829</v>
-      </c>
-      <c r="AO6" s="1">
+        <v>-0.26724350256340568</v>
+      </c>
+      <c r="AP6" s="1">
         <v>28139.598604578088</v>
       </c>
-      <c r="AP6">
+      <c r="AQ6">
+        <f t="shared" si="20"/>
+        <v>1.5347109124734899</v>
+      </c>
+      <c r="AR6">
+        <f t="shared" si="10"/>
+        <v>-0.24901848280926936</v>
+      </c>
+      <c r="AS6">
+        <f t="shared" si="11"/>
+        <v>1.5220789884291808</v>
+      </c>
+      <c r="AT6">
+        <f t="shared" si="16"/>
+        <v>4.142132686726347</v>
+      </c>
+      <c r="AU6" s="1">
+        <f t="shared" si="17"/>
+        <v>-0.29953924410934124</v>
+      </c>
+      <c r="AV6">
+        <f t="shared" si="18"/>
+        <v>-0.62726144132843142</v>
+      </c>
+      <c r="AW6" s="1">
         <f t="shared" si="19"/>
-        <v>1.5347109124734899</v>
-      </c>
-      <c r="AQ6">
-        <f t="shared" si="11"/>
-        <v>-0.23638655876496029</v>
-      </c>
-      <c r="AR6">
+        <v>0.95897383468518071</v>
+      </c>
+      <c r="AX6">
+        <f t="shared" ref="AX6:AX18" si="21">AX5+AW6</f>
+        <v>2.5588916216418149</v>
+      </c>
+      <c r="AY6">
         <f t="shared" si="12"/>
-        <v>1.5220789884291808</v>
-      </c>
-      <c r="AS6">
-        <f t="shared" si="15"/>
-        <v>4.142132686726347</v>
-      </c>
-      <c r="AT6" s="1">
-        <f t="shared" si="16"/>
-        <v>-0.236813580628704</v>
-      </c>
-      <c r="AU6">
-        <f t="shared" si="17"/>
-        <v>-0.54794326862706155</v>
-      </c>
-      <c r="AV6" s="1">
-        <f t="shared" si="18"/>
-        <v>0.95805130872913236</v>
-      </c>
-      <c r="AW6">
-        <f t="shared" ref="AW6:AW18" si="20">AW5+AV6</f>
-        <v>2.5591341305949502</v>
-      </c>
-      <c r="AX6">
-        <f t="shared" si="13"/>
         <v>133.27363886553618</v>
       </c>
     </row>
-    <row r="7" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6.5685508673699999</v>
       </c>
@@ -1748,66 +1767,70 @@
         <v>0.36868669352690009</v>
       </c>
       <c r="AJ7">
-        <f t="shared" si="10"/>
-        <v>0.39495977308769531</v>
+        <f t="shared" si="13"/>
+        <v>0.34406314165128504</v>
       </c>
       <c r="AK7">
+        <f t="shared" si="14"/>
+        <v>-1.2528242095995235E-2</v>
+      </c>
+      <c r="AL7">
         <f t="shared" si="2"/>
         <v>104360.67064436666</v>
       </c>
-      <c r="AL7">
+      <c r="AM7">
         <f t="shared" si="3"/>
         <v>161586.88985345</v>
       </c>
-      <c r="AM7" s="1">
-        <f t="shared" si="14"/>
-        <v>-0.71017263087975191</v>
-      </c>
-      <c r="AN7">
+      <c r="AN7" s="1">
+        <f t="shared" si="15"/>
+        <v>-0.69431738780032637</v>
+      </c>
+      <c r="AO7">
         <f t="shared" si="4"/>
-        <v>-0.25343425131176711</v>
-      </c>
-      <c r="AO7" s="1">
+        <v>-0.25709111979456095</v>
+      </c>
+      <c r="AP7" s="1">
         <v>28139.598604578088</v>
       </c>
-      <c r="AP7">
+      <c r="AQ7">
+        <f t="shared" si="20"/>
+        <v>1.5483504356166418</v>
+      </c>
+      <c r="AR7">
+        <f t="shared" si="10"/>
+        <v>-0.19721548044255452</v>
+      </c>
+      <c r="AS7">
+        <f t="shared" si="11"/>
+        <v>1.5339994551803409</v>
+      </c>
+      <c r="AT7">
+        <f t="shared" si="16"/>
+        <v>4.1998434200771326</v>
+      </c>
+      <c r="AU7" s="1">
+        <f t="shared" si="17"/>
+        <v>-0.35193435112926996</v>
+      </c>
+      <c r="AV7">
+        <f t="shared" si="18"/>
+        <v>-0.97919579245770139</v>
+      </c>
+      <c r="AW7" s="1">
         <f t="shared" si="19"/>
-        <v>1.5483504356166418</v>
-      </c>
-      <c r="AQ7">
-        <f t="shared" si="11"/>
-        <v>-0.18286450000625365</v>
-      </c>
-      <c r="AR7">
+        <v>1.0228772237566861</v>
+      </c>
+      <c r="AX7">
+        <f t="shared" si="21"/>
+        <v>3.5817688453985008</v>
+      </c>
+      <c r="AY7">
         <f t="shared" si="12"/>
-        <v>1.5339994551803409</v>
-      </c>
-      <c r="AS7">
-        <f t="shared" si="15"/>
-        <v>4.1998434200771326</v>
-      </c>
-      <c r="AT7" s="1">
-        <f t="shared" si="16"/>
-        <v>-0.37752179846717959</v>
-      </c>
-      <c r="AU7">
-        <f t="shared" si="17"/>
-        <v>-0.92546506709424115</v>
-      </c>
-      <c r="AV7" s="1">
-        <f t="shared" si="18"/>
-        <v>1.0239637206750309</v>
-      </c>
-      <c r="AW7">
-        <f t="shared" si="20"/>
-        <v>3.5830978512699811</v>
-      </c>
-      <c r="AX7">
-        <f t="shared" si="13"/>
         <v>184.69861856820185</v>
       </c>
     </row>
-    <row r="8" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>8.3302405671600006</v>
       </c>
@@ -1922,66 +1945,70 @@
         <v>0.38917513943375837</v>
       </c>
       <c r="AJ8">
-        <f t="shared" si="10"/>
-        <v>0.3828062705468594</v>
+        <f t="shared" si="13"/>
+        <v>0.36322303973062842</v>
       </c>
       <c r="AK8">
+        <f t="shared" si="14"/>
+        <v>3.9140567057673215E-2</v>
+      </c>
+      <c r="AL8">
         <f t="shared" si="2"/>
         <v>134186.94364290001</v>
       </c>
-      <c r="AL8">
+      <c r="AM8">
         <f t="shared" si="3"/>
         <v>209411.00116514997</v>
       </c>
-      <c r="AM8" s="1">
-        <f t="shared" si="14"/>
-        <v>-0.72359320916839664</v>
-      </c>
-      <c r="AN8">
+      <c r="AN8" s="1">
+        <f t="shared" si="15"/>
+        <v>-0.70662898978769995</v>
+      </c>
+      <c r="AO8">
         <f t="shared" si="4"/>
-        <v>-0.24592665338339806</v>
-      </c>
-      <c r="AO8" s="1">
+        <v>-0.24966869487155319</v>
+      </c>
+      <c r="AP8" s="1">
         <v>28139.598604578088</v>
       </c>
-      <c r="AP8">
+      <c r="AQ8">
+        <f t="shared" si="20"/>
+        <v>1.5605914814069928</v>
+      </c>
+      <c r="AR8">
+        <f t="shared" si="10"/>
+        <v>-0.16078982101697306</v>
+      </c>
+      <c r="AS8">
+        <f t="shared" si="11"/>
+        <v>1.5392447513591121</v>
+      </c>
+      <c r="AT8">
+        <f t="shared" si="16"/>
+        <v>4.2525682485173277</v>
+      </c>
+      <c r="AU8" s="1">
+        <f t="shared" si="17"/>
+        <v>-0.39708945667012907</v>
+      </c>
+      <c r="AV8">
+        <f t="shared" si="18"/>
+        <v>-1.3762852491278306</v>
+      </c>
+      <c r="AW8" s="1">
         <f t="shared" si="19"/>
-        <v>1.5605914814069928</v>
-      </c>
-      <c r="AQ8">
-        <f t="shared" si="11"/>
-        <v>-0.13944309096909246</v>
-      </c>
-      <c r="AR8">
+        <v>1.0932386254038746</v>
+      </c>
+      <c r="AX8">
+        <f t="shared" si="21"/>
+        <v>4.6750074708023757</v>
+      </c>
+      <c r="AY8">
         <f t="shared" si="12"/>
-        <v>1.5392447513591121</v>
-      </c>
-      <c r="AS8">
-        <f t="shared" si="15"/>
-        <v>4.2525682485173277</v>
-      </c>
-      <c r="AT8" s="1">
-        <f t="shared" si="16"/>
-        <v>-0.42600154311021243</v>
-      </c>
-      <c r="AU8">
-        <f t="shared" si="17"/>
-        <v>-1.3514666102044535</v>
-      </c>
-      <c r="AV8" s="1">
-        <f t="shared" si="18"/>
-        <v>1.0946268143695808</v>
-      </c>
-      <c r="AW8">
-        <f t="shared" si="20"/>
-        <v>4.6777246656395617</v>
-      </c>
-      <c r="AX8">
-        <f t="shared" si="13"/>
         <v>238.74042309813143</v>
       </c>
     </row>
-    <row r="9" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>10.1081107487</v>
       </c>
@@ -2096,66 +2123,70 @@
         <v>0.42597121092347212</v>
       </c>
       <c r="AJ9">
-        <f t="shared" si="10"/>
-        <v>0.38005511171867795</v>
+        <f t="shared" si="13"/>
+        <v>0.37738801031012359</v>
       </c>
       <c r="AK9">
+        <f t="shared" si="14"/>
+        <v>9.8943275276051956E-2</v>
+      </c>
+      <c r="AL9">
         <f t="shared" si="2"/>
         <v>162015.33762943334</v>
       </c>
-      <c r="AL9">
+      <c r="AM9">
         <f t="shared" si="3"/>
         <v>253290.84840685001</v>
       </c>
-      <c r="AM9" s="1">
-        <f t="shared" si="14"/>
-        <v>-0.74823219503090477</v>
-      </c>
-      <c r="AN9">
+      <c r="AN9" s="1">
+        <f t="shared" si="15"/>
+        <v>-0.71584665123571123</v>
+      </c>
+      <c r="AO9">
         <f t="shared" si="4"/>
-        <v>-0.23970267343902538</v>
-      </c>
-      <c r="AO9" s="1">
+        <v>-0.24660333072215271</v>
+      </c>
+      <c r="AP9" s="1">
         <v>28139.598604578088</v>
       </c>
-      <c r="AP9">
+      <c r="AQ9">
+        <f t="shared" si="20"/>
+        <v>1.563375740302964</v>
+      </c>
+      <c r="AR9">
+        <f t="shared" si="10"/>
+        <v>-0.13389285480267482</v>
+      </c>
+      <c r="AS9">
+        <f t="shared" si="11"/>
+        <v>1.5431350808447455</v>
+      </c>
+      <c r="AT9">
+        <f t="shared" si="16"/>
+        <v>4.2646860786674825</v>
+      </c>
+      <c r="AU9" s="1">
+        <f t="shared" si="17"/>
+        <v>-0.38603555541358803</v>
+      </c>
+      <c r="AV9">
+        <f t="shared" si="18"/>
+        <v>-1.7623208045414187</v>
+      </c>
+      <c r="AW9" s="1">
         <f t="shared" si="19"/>
-        <v>1.563375740302964</v>
-      </c>
-      <c r="AQ9">
-        <f t="shared" si="11"/>
-        <v>-0.11365219534445625</v>
-      </c>
-      <c r="AR9">
+        <v>1.0229142020075257</v>
+      </c>
+      <c r="AX9">
+        <f t="shared" si="21"/>
+        <v>5.6979216728099011</v>
+      </c>
+      <c r="AY9">
         <f t="shared" si="12"/>
-        <v>1.5431350808447455</v>
-      </c>
-      <c r="AS9">
-        <f t="shared" si="15"/>
-        <v>4.2646860786674825</v>
-      </c>
-      <c r="AT9" s="1">
-        <f t="shared" si="16"/>
-        <v>-0.43696813285925512</v>
-      </c>
-      <c r="AU9">
-        <f t="shared" si="17"/>
-        <v>-1.7884347430637086</v>
-      </c>
-      <c r="AV9" s="1">
-        <f t="shared" si="18"/>
-        <v>1.0258161153941423</v>
-      </c>
-      <c r="AW9">
-        <f t="shared" si="20"/>
-        <v>5.7035407810337038</v>
-      </c>
-      <c r="AX9">
-        <f t="shared" si="13"/>
         <v>288.26842852417082</v>
       </c>
     </row>
-    <row r="10" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>11.863345736599999</v>
       </c>
@@ -2270,66 +2301,70 @@
         <v>0.43118470053842217</v>
       </c>
       <c r="AJ10">
-        <f t="shared" si="10"/>
-        <v>0.38100718152435725</v>
+        <f t="shared" si="13"/>
+        <v>0.3872736095632785</v>
       </c>
       <c r="AK10">
+        <f t="shared" si="14"/>
+        <v>0.12248126928121894</v>
+      </c>
+      <c r="AL10">
         <f t="shared" si="2"/>
         <v>188604.79414103334</v>
       </c>
-      <c r="AL10">
+      <c r="AM10">
         <f t="shared" si="3"/>
         <v>294678.32969245</v>
       </c>
-      <c r="AM10" s="1">
-        <f t="shared" si="14"/>
-        <v>-0.75178028601090829</v>
-      </c>
-      <c r="AN10">
+      <c r="AN10" s="1">
+        <f t="shared" si="15"/>
+        <v>-0.72233878620861547</v>
+      </c>
+      <c r="AO10">
         <f t="shared" si="4"/>
-        <v>-0.23930924735669273</v>
-      </c>
-      <c r="AO10" s="1">
+        <v>-0.24553797096412017</v>
+      </c>
+      <c r="AP10" s="1">
         <v>28139.598604578088</v>
       </c>
-      <c r="AP10">
+      <c r="AQ10">
+        <f t="shared" si="20"/>
+        <v>1.5624116610317862</v>
+      </c>
+      <c r="AR10">
+        <f t="shared" si="10"/>
+        <v>-0.11348033407664601</v>
+      </c>
+      <c r="AS10">
+        <f t="shared" si="11"/>
+        <v>1.5452230971805572</v>
+      </c>
+      <c r="AT10">
+        <f t="shared" si="16"/>
+        <v>4.2604848384200737</v>
+      </c>
+      <c r="AU10" s="1">
+        <f t="shared" si="17"/>
+        <v>-0.37841576627946655</v>
+      </c>
+      <c r="AV10">
+        <f t="shared" si="18"/>
+        <v>-2.1407365708208852</v>
+      </c>
+      <c r="AW10" s="1">
         <f t="shared" si="19"/>
-        <v>1.5624116610317862</v>
-      </c>
-      <c r="AQ10">
-        <f t="shared" si="11"/>
-        <v>-9.6291770225417128E-2</v>
-      </c>
-      <c r="AR10">
+        <v>0.97712768682120921</v>
+      </c>
+      <c r="AX10">
+        <f t="shared" si="21"/>
+        <v>6.6750493596311102</v>
+      </c>
+      <c r="AY10">
         <f t="shared" si="12"/>
-        <v>1.5452230971805572</v>
-      </c>
-      <c r="AS10">
-        <f t="shared" si="15"/>
-        <v>4.2604848384200737</v>
-      </c>
-      <c r="AT10" s="1">
-        <f t="shared" si="16"/>
-        <v>-0.42245932275460668</v>
-      </c>
-      <c r="AU10">
-        <f t="shared" si="17"/>
-        <v>-2.2108940658183154</v>
-      </c>
-      <c r="AV10" s="1">
-        <f t="shared" si="18"/>
-        <v>0.97976417583249142</v>
-      </c>
-      <c r="AW10">
-        <f t="shared" si="20"/>
-        <v>6.6833049568661949</v>
-      </c>
-      <c r="AX10">
-        <f t="shared" si="13"/>
         <v>335.24516626817837</v>
       </c>
     </row>
-    <row r="11" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>13.559501474499999</v>
       </c>
@@ -2444,66 +2479,70 @@
         <v>0.43350936839468679</v>
       </c>
       <c r="AJ11">
-        <f t="shared" si="10"/>
-        <v>0.38663144433752566</v>
+        <f t="shared" si="13"/>
+        <v>0.39490204690982245</v>
       </c>
       <c r="AK11">
+        <f t="shared" si="14"/>
+        <v>0.13958487615794091</v>
+      </c>
+      <c r="AL11">
         <f t="shared" si="2"/>
         <v>213458.34164</v>
       </c>
-      <c r="AL11">
+      <c r="AM11">
         <f t="shared" si="3"/>
         <v>332296.6699485</v>
       </c>
-      <c r="AM11" s="1">
-        <f t="shared" si="14"/>
-        <v>-0.75336700807876966</v>
-      </c>
-      <c r="AN11">
+      <c r="AN11" s="1">
+        <f t="shared" si="15"/>
+        <v>-0.72738226394216077</v>
+      </c>
+      <c r="AO11">
         <f t="shared" si="4"/>
-        <v>-0.24098917727988414</v>
-      </c>
-      <c r="AO11" s="1">
+        <v>-0.24650901070630371</v>
+      </c>
+      <c r="AP11" s="1">
         <v>28139.598604578088</v>
       </c>
-      <c r="AP11">
+      <c r="AQ11">
+        <f t="shared" si="20"/>
+        <v>1.5567284342015653</v>
+      </c>
+      <c r="AR11">
+        <f t="shared" si="10"/>
+        <v>-9.7266602986196465E-2</v>
+      </c>
+      <c r="AS11">
+        <f t="shared" si="11"/>
+        <v>1.5466578892505494</v>
+      </c>
+      <c r="AT11">
+        <f t="shared" si="16"/>
+        <v>4.235832682687886</v>
+      </c>
+      <c r="AU11" s="1">
+        <f t="shared" si="17"/>
+        <v>-0.35922546102653835</v>
+      </c>
+      <c r="AV11">
+        <f t="shared" si="18"/>
+        <v>-2.4999620318474234</v>
+      </c>
+      <c r="AW11" s="1">
         <f t="shared" si="19"/>
-        <v>1.5567284342015653</v>
-      </c>
-      <c r="AQ11">
-        <f t="shared" si="11"/>
-        <v>-8.7196058035180712E-2</v>
-      </c>
-      <c r="AR11">
+        <v>0.90965712595703285</v>
+      </c>
+      <c r="AX11">
+        <f t="shared" si="21"/>
+        <v>7.5847064855881428</v>
+      </c>
+      <c r="AY11">
         <f t="shared" si="12"/>
-        <v>1.5466578892505494</v>
-      </c>
-      <c r="AS11">
-        <f t="shared" si="15"/>
-        <v>4.235832682687886</v>
-      </c>
-      <c r="AT11" s="1">
-        <f t="shared" si="16"/>
-        <v>-0.39532288601843657</v>
-      </c>
-      <c r="AU11">
-        <f t="shared" si="17"/>
-        <v>-2.6062169518367519</v>
-      </c>
-      <c r="AV11" s="1">
-        <f t="shared" si="18"/>
-        <v>0.9119131323097881</v>
-      </c>
-      <c r="AW11">
-        <f t="shared" si="20"/>
-        <v>7.5952180891759831</v>
-      </c>
-      <c r="AX11">
-        <f t="shared" si="13"/>
         <v>378.71117269034664</v>
       </c>
     </row>
-    <row r="12" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>15.2057996294</v>
       </c>
@@ -2618,66 +2657,70 @@
         <v>0.46429708450470886</v>
       </c>
       <c r="AJ12">
-        <f t="shared" si="10"/>
-        <v>0.38633521054004205</v>
+        <f t="shared" si="13"/>
+        <v>0.39938993507632886</v>
       </c>
       <c r="AK12">
+        <f t="shared" si="14"/>
+        <v>0.18393319450803192</v>
+      </c>
+      <c r="AL12">
         <f t="shared" si="2"/>
         <v>239369.36507900001</v>
       </c>
-      <c r="AL12">
+      <c r="AM12">
         <f t="shared" si="3"/>
         <v>372704.62721100001</v>
       </c>
-      <c r="AM12" s="1">
-        <f t="shared" si="14"/>
-        <v>-0.77465584493403816</v>
-      </c>
-      <c r="AN12">
+      <c r="AN12" s="1">
+        <f t="shared" si="15"/>
+        <v>-0.73036321772909729</v>
+      </c>
+      <c r="AO12">
         <f t="shared" si="4"/>
-        <v>-0.2365440743642501</v>
-      </c>
-      <c r="AO12" s="1">
+        <v>-0.24575448450502957</v>
+      </c>
+      <c r="AP12" s="1">
         <v>28139.598604578088</v>
       </c>
-      <c r="AP12">
+      <c r="AQ12">
+        <f t="shared" si="20"/>
+        <v>1.5570272623984061</v>
+      </c>
+      <c r="AR12">
+        <f t="shared" si="10"/>
+        <v>-8.4206913835273622E-2</v>
+      </c>
+      <c r="AS12">
+        <f t="shared" si="11"/>
+        <v>1.5461569761614034</v>
+      </c>
+      <c r="AT12">
+        <f t="shared" si="16"/>
+        <v>4.2371240741243357</v>
+      </c>
+      <c r="AU12" s="1">
+        <f t="shared" si="17"/>
+        <v>-0.37895275825769498</v>
+      </c>
+      <c r="AV12">
+        <f t="shared" si="18"/>
+        <v>-2.8789147901051182</v>
+      </c>
+      <c r="AW12" s="1">
         <f t="shared" si="19"/>
-        <v>1.5570272623984061</v>
-      </c>
-      <c r="AQ12">
-        <f t="shared" si="11"/>
-        <v>-7.3336627598270976E-2</v>
-      </c>
-      <c r="AR12">
+        <v>0.94882901389408281</v>
+      </c>
+      <c r="AX12">
+        <f t="shared" si="21"/>
+        <v>8.533535499482225</v>
+      </c>
+      <c r="AY12">
         <f t="shared" si="12"/>
-        <v>1.5461569761614034</v>
-      </c>
-      <c r="AS12">
-        <f t="shared" si="15"/>
-        <v>4.2371240741243357</v>
-      </c>
-      <c r="AT12" s="1">
-        <f t="shared" si="16"/>
-        <v>-0.44256824737524914</v>
-      </c>
-      <c r="AU12">
-        <f t="shared" si="17"/>
-        <v>-3.0487851992120012</v>
-      </c>
-      <c r="AV12" s="1">
-        <f t="shared" si="18"/>
-        <v>0.95320057382518575</v>
-      </c>
-      <c r="AW12">
-        <f t="shared" si="20"/>
-        <v>8.5484186630011685</v>
-      </c>
-      <c r="AX12">
-        <f t="shared" si="13"/>
         <v>425.01970569761494</v>
       </c>
     </row>
-    <row r="13" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>16.7294617465</v>
       </c>
@@ -2792,66 +2835,70 @@
         <v>0.54610540810079333</v>
       </c>
       <c r="AJ13">
-        <f t="shared" si="10"/>
-        <v>0.39561208536105724</v>
+        <f t="shared" si="13"/>
+        <v>0.40475924270843322</v>
       </c>
       <c r="AK13">
+        <f t="shared" si="14"/>
+        <v>0.27572265345793878</v>
+      </c>
+      <c r="AL13">
         <f t="shared" si="2"/>
         <v>260588.73698333334</v>
       </c>
-      <c r="AL13">
+      <c r="AM13">
         <f t="shared" si="3"/>
         <v>403312.17996999994</v>
       </c>
-      <c r="AM13" s="1">
-        <f t="shared" si="14"/>
-        <v>-0.83381960042431891</v>
-      </c>
-      <c r="AN13">
+      <c r="AN13" s="1">
+        <f t="shared" si="15"/>
+        <v>-0.7339431755442487</v>
+      </c>
+      <c r="AO13">
         <f t="shared" si="4"/>
-        <v>-0.22834621739849562</v>
-      </c>
-      <c r="AO13" s="1">
+        <v>-0.24838259437231744</v>
+      </c>
+      <c r="AP13" s="1">
         <v>28139.598604578088</v>
       </c>
-      <c r="AP13">
+      <c r="AQ13">
+        <f t="shared" si="20"/>
+        <v>1.5476961308415831</v>
+      </c>
+      <c r="AR13">
+        <f t="shared" si="10"/>
+        <v>-7.3099502123315035E-2</v>
+      </c>
+      <c r="AS13">
+        <f t="shared" si="11"/>
+        <v>1.5472832525195395</v>
+      </c>
+      <c r="AT13">
+        <f t="shared" si="16"/>
+        <v>4.1970502118233233</v>
+      </c>
+      <c r="AU13" s="1">
+        <f t="shared" si="17"/>
+        <v>-0.31231036085535846</v>
+      </c>
+      <c r="AV13">
+        <f t="shared" si="18"/>
+        <v>-3.1912251509604768</v>
+      </c>
+      <c r="AW13" s="1">
         <f t="shared" si="19"/>
-        <v>1.5476961308415831</v>
-      </c>
-      <c r="AQ13">
-        <f t="shared" si="11"/>
-        <v>-7.2686623801271555E-2</v>
-      </c>
-      <c r="AR13">
+        <v>0.77159537794750255</v>
+      </c>
+      <c r="AX13">
+        <f t="shared" si="21"/>
+        <v>9.3051308774297272</v>
+      </c>
+      <c r="AY13">
         <f t="shared" si="12"/>
-        <v>1.5472832525195395</v>
-      </c>
-      <c r="AS13">
-        <f t="shared" si="15"/>
-        <v>4.1970502118233233</v>
-      </c>
-      <c r="AT13" s="1">
-        <f t="shared" si="16"/>
-        <v>-0.42668317530902911</v>
-      </c>
-      <c r="AU13">
-        <f t="shared" si="17"/>
-        <v>-3.4754683745210304</v>
-      </c>
-      <c r="AV13" s="1">
-        <f t="shared" si="18"/>
-        <v>0.78132017918100727</v>
-      </c>
-      <c r="AW13">
-        <f t="shared" si="20"/>
-        <v>9.3297388421821754</v>
-      </c>
-      <c r="AX13">
-        <f t="shared" si="13"/>
         <v>460.41718589226116</v>
       </c>
     </row>
-    <row r="14" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>18.081688816100002</v>
       </c>
@@ -2966,66 +3013,70 @@
         <v>0.45720062565983588</v>
       </c>
       <c r="AJ14">
-        <f t="shared" si="10"/>
-        <v>0.40496946414833346</v>
+        <f t="shared" si="13"/>
+        <v>0.40924005351355619</v>
       </c>
       <c r="AK14">
+        <f t="shared" si="14"/>
+        <v>0.19470263304159252</v>
+      </c>
+      <c r="AL14">
         <f t="shared" si="2"/>
         <v>278776.51919733331</v>
       </c>
-      <c r="AL14">
+      <c r="AM14">
         <f t="shared" si="3"/>
         <v>428853.21413350001</v>
       </c>
-      <c r="AM14" s="1">
-        <f t="shared" si="14"/>
-        <v>-0.76970312538625407</v>
-      </c>
-      <c r="AN14">
+      <c r="AN14" s="1">
+        <f t="shared" si="15"/>
+        <v>-0.73694209149050793</v>
+      </c>
+      <c r="AO14">
         <f t="shared" si="4"/>
-        <v>-0.24415123021716428</v>
-      </c>
-      <c r="AO14" s="1">
+        <v>-0.25117776390813012</v>
+      </c>
+      <c r="AP14" s="1">
         <v>28139.598604578088</v>
       </c>
-      <c r="AP14">
+      <c r="AQ14">
+        <f t="shared" si="20"/>
+        <v>1.5383405150773626</v>
+      </c>
+      <c r="AR14">
+        <f t="shared" si="10"/>
+        <v>-6.4151909627125303E-2</v>
+      </c>
+      <c r="AS14">
+        <f t="shared" si="11"/>
+        <v>1.548346082991118</v>
+      </c>
+      <c r="AT14">
+        <f t="shared" si="16"/>
+        <v>4.1573848716730026</v>
+      </c>
+      <c r="AU14" s="1">
+        <f t="shared" si="17"/>
+        <v>-0.26873436577009191</v>
+      </c>
+      <c r="AV14">
+        <f t="shared" si="18"/>
+        <v>-3.4599595167305686</v>
+      </c>
+      <c r="AW14" s="1">
         <f t="shared" si="19"/>
-        <v>1.5383405150773626</v>
-      </c>
-      <c r="AQ14">
-        <f t="shared" si="11"/>
-        <v>-7.4157477540880867E-2</v>
-      </c>
-      <c r="AR14">
+        <v>0.65666682296333445</v>
+      </c>
+      <c r="AX14">
+        <f t="shared" si="21"/>
+        <v>9.9617977003930616</v>
+      </c>
+      <c r="AY14">
         <f t="shared" si="12"/>
-        <v>1.548346082991118</v>
-      </c>
-      <c r="AS14">
-        <f t="shared" si="15"/>
-        <v>4.1573848716730026</v>
-      </c>
-      <c r="AT14" s="1">
-        <f t="shared" si="16"/>
-        <v>-0.30130015466040133</v>
-      </c>
-      <c r="AU14">
-        <f t="shared" si="17"/>
-        <v>-3.7767685291814317</v>
-      </c>
-      <c r="AV14" s="1">
-        <f t="shared" si="18"/>
-        <v>0.65901081002582274</v>
-      </c>
-      <c r="AW14">
-        <f t="shared" si="20"/>
-        <v>9.9887496522079982</v>
-      </c>
-      <c r="AX14">
-        <f t="shared" si="13"/>
         <v>490.92911718595383</v>
       </c>
     </row>
-    <row r="15" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>18.802809787099999</v>
       </c>
@@ -3140,66 +3191,70 @@
         <v>0.63303317305997486</v>
       </c>
       <c r="AJ15">
-        <f t="shared" si="10"/>
-        <v>0.45121524339355551</v>
+        <f t="shared" si="13"/>
+        <v>0.42122650564008074</v>
       </c>
       <c r="AK15">
+        <f t="shared" si="14"/>
+        <v>0.36992289433344772</v>
+      </c>
+      <c r="AL15">
         <f t="shared" si="2"/>
         <v>277316.525586</v>
       </c>
-      <c r="AL15">
+      <c r="AM15">
         <f t="shared" si="3"/>
         <v>414015.90840900003</v>
       </c>
-      <c r="AM15" s="1">
-        <f t="shared" si="14"/>
-        <v>-0.9011673289133183</v>
-      </c>
-      <c r="AN15">
+      <c r="AN15" s="1">
+        <f t="shared" si="15"/>
+        <v>-0.74501560910333109</v>
+      </c>
+      <c r="AO15">
         <f t="shared" si="4"/>
-        <v>-0.23441189202063328</v>
-      </c>
-      <c r="AO15" s="1">
+        <v>-0.26674919645894629</v>
+      </c>
+      <c r="AP15" s="1">
         <v>28139.598604578088</v>
       </c>
-      <c r="AP15">
+      <c r="AQ15">
+        <f t="shared" si="20"/>
+        <v>1.492936302783036</v>
+      </c>
+      <c r="AR15">
+        <f t="shared" si="10"/>
+        <v>-5.5921688195692036E-2</v>
+      </c>
+      <c r="AS15">
+        <f t="shared" si="11"/>
+        <v>1.5571885905308351</v>
+      </c>
+      <c r="AT15">
+        <f t="shared" si="16"/>
+        <v>3.9718776430086868</v>
+      </c>
+      <c r="AU15" s="1">
+        <f t="shared" si="17"/>
+        <v>2.1422858183383946E-2</v>
+      </c>
+      <c r="AV15">
+        <f t="shared" si="18"/>
+        <v>-3.4385366585471848</v>
+      </c>
+      <c r="AW15" s="1">
         <f t="shared" si="19"/>
-        <v>1.492936302783036</v>
-      </c>
-      <c r="AQ15">
-        <f t="shared" si="11"/>
-        <v>-0.12017397594349122</v>
-      </c>
-      <c r="AR15">
+        <v>-5.0858286210718223E-2</v>
+      </c>
+      <c r="AX15">
+        <f t="shared" si="21"/>
+        <v>9.9109394141823426</v>
+      </c>
+      <c r="AY15">
         <f t="shared" si="12"/>
-        <v>1.5571885905308351</v>
-      </c>
-      <c r="AS15">
-        <f t="shared" si="15"/>
-        <v>3.9718776430086868</v>
-      </c>
-      <c r="AT15" s="1">
-        <f t="shared" si="16"/>
-        <v>3.2998380816330698E-2</v>
-      </c>
-      <c r="AU15">
-        <f t="shared" si="17"/>
-        <v>-3.7437701483651011</v>
-      </c>
-      <c r="AV15" s="1">
-        <f t="shared" si="18"/>
-        <v>-5.212741167547686E-2</v>
-      </c>
-      <c r="AW15">
-        <f t="shared" si="20"/>
-        <v>9.9366222405325217</v>
-      </c>
-      <c r="AX15">
-        <f t="shared" si="13"/>
         <v>475.64088360470163</v>
       </c>
     </row>
-    <row r="16" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>18.943144225699999</v>
       </c>
@@ -3314,66 +3369,70 @@
         <v>0.97325557005069752</v>
       </c>
       <c r="AJ16">
-        <f t="shared" si="10"/>
-        <v>0.51619962721028223</v>
+        <f t="shared" si="13"/>
+        <v>0.43860647161855187</v>
       </c>
       <c r="AK16">
+        <f t="shared" si="14"/>
+        <v>0.70387772075646149</v>
+      </c>
+      <c r="AL16">
         <f t="shared" si="2"/>
         <v>262834.2941623333</v>
       </c>
-      <c r="AL16">
+      <c r="AM16">
         <f t="shared" si="3"/>
         <v>376239.58324000001</v>
       </c>
-      <c r="AM16" s="1">
-        <f t="shared" si="14"/>
-        <v>-1.2203095434743905</v>
-      </c>
-      <c r="AN16">
+      <c r="AN16" s="1">
+        <f t="shared" si="15"/>
+        <v>-0.75685616057738803</v>
+      </c>
+      <c r="AO16">
         <f t="shared" si="4"/>
-        <v>-0.20479517692204133</v>
-      </c>
-      <c r="AO16" s="1">
+        <v>-0.28931138785423854</v>
+      </c>
+      <c r="AP16" s="1">
         <v>28139.598604578088</v>
       </c>
-      <c r="AP16">
+      <c r="AQ16">
+        <f t="shared" si="20"/>
+        <v>1.4314706702909348</v>
+      </c>
+      <c r="AR16">
+        <f t="shared" si="10"/>
+        <v>-4.7880881096732435E-2</v>
+      </c>
+      <c r="AS16">
+        <f t="shared" si="11"/>
+        <v>1.5714969681975037</v>
+      </c>
+      <c r="AT16">
+        <f t="shared" si="16"/>
+        <v>3.7378589163323728</v>
+      </c>
+      <c r="AU16" s="1">
+        <f t="shared" si="17"/>
+        <v>0.2104305657031626</v>
+      </c>
+      <c r="AV16">
+        <f t="shared" si="18"/>
+        <v>-3.2281060928440222</v>
+      </c>
+      <c r="AW16" s="1">
         <f t="shared" si="19"/>
-        <v>1.4314706702909348</v>
-      </c>
-      <c r="AQ16">
-        <f t="shared" si="11"/>
-        <v>-0.18790717900330134</v>
-      </c>
-      <c r="AR16">
+        <v>-0.47977077248000632</v>
+      </c>
+      <c r="AX16">
+        <f t="shared" si="21"/>
+        <v>9.431168641702337</v>
+      </c>
+      <c r="AY16">
         <f t="shared" si="12"/>
-        <v>1.5714969681975037</v>
-      </c>
-      <c r="AS16">
-        <f t="shared" si="15"/>
-        <v>3.7378589163323728</v>
-      </c>
-      <c r="AT16" s="1">
-        <f t="shared" si="16"/>
-        <v>0.51704358216687463</v>
-      </c>
-      <c r="AU16">
-        <f t="shared" si="17"/>
-        <v>-3.2267265661982263</v>
-      </c>
-      <c r="AV16" s="1">
-        <f t="shared" si="18"/>
-        <v>-0.53125160346109446</v>
-      </c>
-      <c r="AW16">
-        <f t="shared" si="20"/>
-        <v>9.4053706370714281</v>
-      </c>
-      <c r="AX16">
-        <f t="shared" si="13"/>
         <v>436.04289520981513</v>
       </c>
     </row>
-    <row r="17" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>19.166691396400001</v>
       </c>
@@ -3488,66 +3547,70 @@
         <v>0.48190877586374381</v>
       </c>
       <c r="AJ17">
-        <f t="shared" si="10"/>
-        <v>0.54883034523800622</v>
+        <f t="shared" si="13"/>
+        <v>0.44748113814411483</v>
       </c>
       <c r="AK17">
+        <f t="shared" si="14"/>
+        <v>0.21120585725632879</v>
+      </c>
+      <c r="AL17">
         <f t="shared" si="2"/>
         <v>259877.62820366668</v>
       </c>
-      <c r="AL17">
+      <c r="AM17">
         <f t="shared" si="3"/>
         <v>364252.63082599995</v>
       </c>
-      <c r="AM17" s="1">
-        <f t="shared" si="14"/>
-        <v>-0.78706790161804752</v>
-      </c>
-      <c r="AN17">
+      <c r="AN17" s="1">
+        <f t="shared" si="15"/>
+        <v>-0.76296444553132126</v>
+      </c>
+      <c r="AO17">
         <f t="shared" si="4"/>
-        <v>-0.29459731703413211</v>
-      </c>
-      <c r="AO17" s="1">
+        <v>-0.30094566909877035</v>
+      </c>
+      <c r="AP17" s="1">
         <v>28139.598604578088</v>
       </c>
-      <c r="AP17">
+      <c r="AQ17">
+        <f t="shared" si="20"/>
+        <v>1.4016313498926285</v>
+      </c>
+      <c r="AR17">
+        <f t="shared" si="10"/>
+        <v>-4.2418075588495106E-2</v>
+      </c>
+      <c r="AS17">
+        <f t="shared" si="11"/>
+        <v>1.57828484301892</v>
+      </c>
+      <c r="AT17">
+        <f t="shared" si="16"/>
+        <v>3.6307410680229615</v>
+      </c>
+      <c r="AU17" s="1">
+        <f t="shared" si="17"/>
+        <v>4.2741861941908418E-2</v>
+      </c>
+      <c r="AV17">
+        <f t="shared" si="18"/>
+        <v>-3.1853642309021137</v>
+      </c>
+      <c r="AW17" s="1">
         <f t="shared" si="19"/>
-        <v>1.4016313498926285</v>
-      </c>
-      <c r="AQ17">
-        <f t="shared" si="11"/>
-        <v>-0.21907156871478661</v>
-      </c>
-      <c r="AR17">
+        <v>-9.5516566618151139E-2</v>
+      </c>
+      <c r="AX17">
+        <f t="shared" si="21"/>
+        <v>9.3356520750841856</v>
+      </c>
+      <c r="AY17">
         <f t="shared" si="12"/>
-        <v>1.57828484301892</v>
-      </c>
-      <c r="AS17">
-        <f t="shared" si="15"/>
-        <v>3.6307410680229615</v>
-      </c>
-      <c r="AT17" s="1">
-        <f t="shared" si="16"/>
-        <v>4.6205369562911366E-2</v>
-      </c>
-      <c r="AU17">
-        <f t="shared" si="17"/>
-        <v>-3.1805211966353149</v>
-      </c>
-      <c r="AV17" s="1">
-        <f t="shared" si="18"/>
-        <v>-9.5879908972596933E-2</v>
-      </c>
-      <c r="AW17">
-        <f t="shared" si="20"/>
-        <v>9.3094907280988313</v>
-      </c>
-      <c r="AX17">
-        <f t="shared" si="13"/>
         <v>423.39505457636022</v>
       </c>
     </row>
-    <row r="18" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>18.9103806629</v>
       </c>
@@ -3662,66 +3725,70 @@
         <v>0.87486098853639005</v>
       </c>
       <c r="AJ18">
-        <f t="shared" si="10"/>
-        <v>0.62101485103115017</v>
+        <f t="shared" si="13"/>
+        <v>0.46471964817174405</v>
       </c>
       <c r="AK18">
+        <f t="shared" si="14"/>
+        <v>0.59479956563279646</v>
+      </c>
+      <c r="AL18">
         <f t="shared" si="2"/>
         <v>239984.43078466668</v>
       </c>
-      <c r="AL18">
+      <c r="AM18">
         <f t="shared" si="3"/>
         <v>321106.96157449996</v>
       </c>
-      <c r="AM18" s="1">
-        <f t="shared" si="14"/>
-        <v>-1.1175085374301201</v>
-      </c>
-      <c r="AN18">
+      <c r="AN18" s="1">
+        <f t="shared" si="15"/>
+        <v>-0.77495163276713519</v>
+      </c>
+      <c r="AO18">
         <f t="shared" si="4"/>
-        <v>-0.25043118858985425</v>
-      </c>
-      <c r="AO18" s="1">
+        <v>-0.32794662491048199</v>
+      </c>
+      <c r="AP18" s="1">
         <v>28139.598604578088</v>
       </c>
-      <c r="AP18">
+      <c r="AQ18">
+        <f t="shared" si="20"/>
+        <v>1.3380324737091922</v>
+      </c>
+      <c r="AR18">
+        <f t="shared" si="10"/>
+        <v>-3.671619010987668E-2</v>
+      </c>
+      <c r="AS18">
+        <f t="shared" si="11"/>
+        <v>1.593345232793717</v>
+      </c>
+      <c r="AT18">
+        <f t="shared" si="16"/>
+        <v>3.4152682634457188</v>
+      </c>
+      <c r="AU18" s="1">
+        <f t="shared" si="17"/>
+        <v>0.28247190187690924</v>
+      </c>
+      <c r="AV18">
+        <f t="shared" si="18"/>
+        <v>-2.9028923290252044</v>
+      </c>
+      <c r="AW18" s="1">
         <f t="shared" si="19"/>
-        <v>1.3380324737091922</v>
-      </c>
-      <c r="AQ18">
-        <f t="shared" si="11"/>
-        <v>-0.29202894919440148</v>
-      </c>
-      <c r="AR18">
+        <v>-0.60783292246881204</v>
+      </c>
+      <c r="AX18">
+        <f t="shared" si="21"/>
+        <v>8.727819152615373</v>
+      </c>
+      <c r="AY18">
         <f t="shared" si="12"/>
-        <v>1.593345232793717</v>
-      </c>
-      <c r="AS18">
-        <f t="shared" si="15"/>
-        <v>3.4152682634457188</v>
-      </c>
-      <c r="AT18" s="1">
-        <f t="shared" si="16"/>
-        <v>0.57610337071233331</v>
-      </c>
-      <c r="AU18">
-        <f t="shared" si="17"/>
-        <v>-2.6044178259229813</v>
-      </c>
-      <c r="AV18" s="1">
-        <f t="shared" si="18"/>
-        <v>-0.65850846964399767</v>
-      </c>
-      <c r="AW18">
-        <f t="shared" si="20"/>
-        <v>8.6509822584548335</v>
-      </c>
-      <c r="AX18">
-        <f t="shared" si="13"/>
         <v>378.87076656985465</v>
       </c>
     </row>
-    <row r="19" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>18.596284598899999</v>
       </c>
@@ -3808,7 +3875,7 @@
         <v>-8.3865018885030942</v>
       </c>
     </row>
-    <row r="20" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>18.671151548299999</v>
       </c>
@@ -3895,7 +3962,7 @@
         <v>-9.2577310762631306</v>
       </c>
     </row>
-    <row r="21" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>18.5911722737</v>
       </c>
@@ -3982,7 +4049,7 @@
         <v>-9.9604393099804724</v>
       </c>
     </row>
-    <row r="22" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>17.981935276200002</v>
       </c>

--- a/SMP_PE.xlsx
+++ b/SMP_PE.xlsx
@@ -240,10 +240,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="11" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -592,10 +593,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:BC22"/>
+  <dimension ref="A1:BC23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AC1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="AN1" sqref="AN1:AN1048576"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -899,7 +900,7 @@
         <v>-0.5</v>
       </c>
       <c r="AO2">
-        <f t="shared" ref="AO2:AO18" si="4">1/(2+AN2*AT2-2*0.33*(1+AN2+AT2))</f>
+        <f>1/(2+AN2*AT2-2*0.33*(1+AN2+AT2))</f>
         <v>-0.22624434389140272</v>
       </c>
       <c r="AP2" s="1" t="e">
@@ -1019,15 +1020,15 @@
         <v>0.14424923787768051</v>
       </c>
       <c r="AC3">
-        <f t="shared" ref="AC3:AC18" si="5">1.34 *((AL3/100000)^0.3-(2594/100000)^0.3)</f>
+        <f t="shared" ref="AC3:AC18" si="4">1.34 *((AL3/100000)^0.3-(2594/100000)^0.3)</f>
         <v>0.16480005342311152</v>
       </c>
       <c r="AD3">
-        <f t="shared" ref="AD3:AD18" si="6">AB3-AC3</f>
+        <f t="shared" ref="AD3:AD18" si="5">AB3-AC3</f>
         <v>-2.0550815545431006E-2</v>
       </c>
       <c r="AE3" s="2">
-        <f t="shared" ref="AE3:AE18" si="7">P3-AB3/3</f>
+        <f t="shared" ref="AE3:AE18" si="6">P3-AB3/3</f>
         <v>0.60385484924843991</v>
       </c>
       <c r="AF3">
@@ -1035,15 +1036,15 @@
         <v>-0.18171972639281952</v>
       </c>
       <c r="AG3" s="1">
-        <f t="shared" ref="AG3:AH18" si="8">AD3-AD2</f>
+        <f t="shared" ref="AG3:AH18" si="7">AD3-AD2</f>
         <v>-2.4663147573564241E-2</v>
       </c>
       <c r="AH3" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>0.6038547705358035</v>
       </c>
       <c r="AI3">
-        <f t="shared" ref="AI3:AI18" si="9">-AG3/AH3</f>
+        <f t="shared" ref="AI3:AI18" si="8">-AG3/AH3</f>
         <v>4.0842846288488374E-2</v>
       </c>
       <c r="AJ3">
@@ -1067,22 +1068,22 @@
         <v>-0.50398760634141981</v>
       </c>
       <c r="AO3" s="1">
-        <f t="shared" si="4"/>
+        <f>1/(2+AN3*AT3-2*0.33*(1+AN3+AT3))</f>
         <v>-0.41715173336738198</v>
       </c>
-      <c r="AP3" s="1">
-        <v>28139.598604578099</v>
+      <c r="AP3" s="3">
+        <v>22197.018444111502</v>
       </c>
       <c r="AQ3">
         <f>AM3/AL3</f>
         <v>1.3625837364055839</v>
       </c>
       <c r="AR3">
-        <f t="shared" ref="AR3:AR18" si="10">-1.386/(AE3+1.27)+0.03463</f>
+        <f>-1.386/(AE3+1.27)+0.03463</f>
         <v>-0.7050217401312554</v>
       </c>
       <c r="AS3">
-        <f t="shared" ref="AS3:AS18" si="11">1.35*(AL3/3255000)^-0.0723-1.386/(AE3+1.27)+0.03463</f>
+        <f>1.35*(AL3/3255000)^-0.0723-1.386/(AE3+1.27)+0.03463</f>
         <v>1.3918723722861615</v>
       </c>
       <c r="AT3" s="1">
@@ -1091,22 +1092,22 @@
       </c>
       <c r="AU3" s="1">
         <f>(1+2*AN3)*(AL3-AL2)*(1-AQ3/3)/(3*AO3*AP3*AN3)</f>
-        <v>-1.1904378826251398E-3</v>
+        <v>-1.5091416112978846E-3</v>
       </c>
       <c r="AV3" s="1">
         <f>(AV2+AU3)</f>
-        <v>-1.1904378826251398E-3</v>
+        <v>-1.5091416112978846E-3</v>
       </c>
       <c r="AW3" s="1">
         <f>2*(1-AN3)*(AL3-AL2)*(1-AQ3/3)/(9*AO3*AP3*AN3)</f>
-        <v>0.14966403971812714</v>
+        <v>0.18973205855604308</v>
       </c>
       <c r="AX3" s="1">
         <f>AX2+AW3</f>
-        <v>0.14966403971812714</v>
+        <v>0.18973205855604308</v>
       </c>
       <c r="AY3">
-        <f t="shared" ref="AY3:AY18" si="12">(AT3*X3-4*X3*(1-0.01*P3-2*0.01*AF3)*(0.08/0.4)/(-0.08/0.4*0.01*P3-(2*0.08/0.4+3)*0.01*AF3+0.08/0.4+1))/1000</f>
+        <f>(AT3*X3-4*X3*(1-0.01*P3-2*0.01*AF3)*(0.08/0.4)/(-0.08/0.4*0.01*P3-(2*0.08/0.4+3)*0.01*AF3+0.08/0.4+1))/1000</f>
         <v>11.544925646599328</v>
       </c>
       <c r="AZ3"/>
@@ -1201,15 +1202,15 @@
         <v>0.31701430431554378</v>
       </c>
       <c r="AC4">
+        <f t="shared" si="4"/>
+        <v>0.43951887887353658</v>
+      </c>
+      <c r="AD4">
         <f t="shared" si="5"/>
-        <v>0.43951887887353658</v>
-      </c>
-      <c r="AD4">
+        <v>-0.1225045745579928</v>
+      </c>
+      <c r="AE4" s="2">
         <f t="shared" si="6"/>
-        <v>-0.1225045745579928</v>
-      </c>
-      <c r="AE4" s="2">
-        <f t="shared" si="7"/>
         <v>1.5489256315891522</v>
       </c>
       <c r="AF4">
@@ -1217,23 +1218,23 @@
         <v>-0.51028422886495628</v>
       </c>
       <c r="AG4" s="1">
+        <f t="shared" si="7"/>
+        <v>-0.10195375901256179</v>
+      </c>
+      <c r="AH4" s="1">
+        <f t="shared" si="7"/>
+        <v>0.94507078234071229</v>
+      </c>
+      <c r="AI4">
         <f t="shared" si="8"/>
-        <v>-0.10195375901256179</v>
-      </c>
-      <c r="AH4" s="1">
-        <f t="shared" si="8"/>
-        <v>0.94507078234071229</v>
-      </c>
-      <c r="AI4">
-        <f t="shared" si="9"/>
         <v>0.10787949529033893</v>
       </c>
       <c r="AJ4">
-        <f t="shared" ref="AJ4:AJ22" si="13">-(1.35-(1.35*(AL4/3255000)^-0.0723))+0.2354+1.382*AR4</f>
+        <f>-(1.35-(1.35*(AL4/3255000)^-0.0723))+0.2354+1.382*AR4</f>
         <v>0.17159320723821048</v>
       </c>
       <c r="AK4">
-        <f t="shared" ref="AK4:AK18" si="14">AI4+(1.35-(1.35*(AL4/3255000)^-0.0723))</f>
+        <f t="shared" ref="AK4:AK18" si="9">AI4+(1.35-(1.35*(AL4/3255000)^-0.0723))</f>
         <v>-0.45995222581271566</v>
       </c>
       <c r="AL4">
@@ -1245,50 +1246,50 @@
         <v>37030.15371405</v>
       </c>
       <c r="AN4" s="1">
-        <f t="shared" ref="AN4:AN18" si="15">(-2*AJ4-3)/(-2*AJ4+6)</f>
+        <f t="shared" ref="AN4:AN18" si="10">(-2*AJ4-3)/(-2*AJ4+6)</f>
         <v>-0.59100169449317019</v>
       </c>
       <c r="AO4" s="2">
-        <f t="shared" si="4"/>
+        <f>1/(2+AN4*AT4-2*0.33*(1+AN4+AT4))</f>
         <v>-0.32377891353753191</v>
       </c>
-      <c r="AP4" s="1">
-        <v>28139.598604578088</v>
+      <c r="AP4" s="3">
+        <v>22197.018444111502</v>
       </c>
       <c r="AQ4">
         <f>AM4/AL4</f>
         <v>1.4620074972829318</v>
       </c>
       <c r="AR4">
-        <f t="shared" si="10"/>
+        <f>-1.386/(AE4+1.27)+0.03463</f>
         <v>-0.45704668152304212</v>
       </c>
       <c r="AS4">
-        <f t="shared" si="11"/>
+        <f>1.35*(AL4/3255000)^-0.0723-1.386/(AE4+1.27)+0.03463</f>
         <v>1.4607850395800126</v>
       </c>
       <c r="AT4" s="2">
-        <f t="shared" ref="AT4:AT18" si="16">(2*AQ4+3)/(3-AQ4)</f>
+        <f>(2*AQ4+3)/(3-AQ4)</f>
         <v>3.851784052328151</v>
       </c>
       <c r="AU4" s="1">
-        <f t="shared" ref="AU4:AU18" si="17">(1+2*AN4)*(AL4-AL3)*(1-AQ4/3)/(3*AO4*AP4*AN4)</f>
-        <v>-0.10373353385622849</v>
+        <f>(1+2*AN4)*(AL4-AL3)*(1-AQ4/3)/(3*AO4*AP4*AN4)</f>
+        <v>-0.13150504928841236</v>
       </c>
       <c r="AV4" s="2">
-        <f t="shared" ref="AV4:AV18" si="18">AV3+AU4</f>
-        <v>-0.10492397173885364</v>
+        <f t="shared" ref="AV4:AV18" si="11">AV3+AU4</f>
+        <v>-0.13301419089971026</v>
       </c>
       <c r="AW4" s="1">
-        <f t="shared" ref="AW4:AW18" si="19">2*(1-AN4)*(AL4-AL3)*(1-AQ4/3)/(9*AO4*AP4*AN4)</f>
-        <v>0.60453170335713058</v>
+        <f>2*(1-AN4)*(AL4-AL3)*(1-AQ4/3)/(9*AO4*AP4*AN4)</f>
+        <v>0.76637677799129533</v>
       </c>
       <c r="AX4" s="2">
         <f>AX3+AW4</f>
-        <v>0.75419574307525772</v>
+        <v>0.95610883654733847</v>
       </c>
       <c r="AY4">
-        <f t="shared" si="12"/>
+        <f>(AT4*X4-4*X4*(1-0.01*P4-2*0.01*AF4)*(0.08/0.4)/(-0.08/0.4*0.01*P4-(2*0.08/0.4+3)*0.01*AF4+0.08/0.4+1))/1000</f>
         <v>42.093808622920491</v>
       </c>
       <c r="AZ4"/>
@@ -1383,15 +1384,15 @@
         <v>0.22118664939348998</v>
       </c>
       <c r="AC5">
+        <f t="shared" si="4"/>
+        <v>0.63646857517935185</v>
+      </c>
+      <c r="AD5">
         <f t="shared" si="5"/>
-        <v>0.63646857517935185</v>
-      </c>
-      <c r="AD5">
+        <v>-0.41528192578586187</v>
+      </c>
+      <c r="AE5" s="2">
         <f t="shared" si="6"/>
-        <v>-0.41528192578586187</v>
-      </c>
-      <c r="AE5" s="2">
-        <f t="shared" si="7"/>
         <v>2.5823189195798366</v>
       </c>
       <c r="AF5">
@@ -1399,23 +1400,23 @@
         <v>-1.10683725196201</v>
       </c>
       <c r="AG5" s="1">
+        <f t="shared" si="7"/>
+        <v>-0.29277735122786908</v>
+      </c>
+      <c r="AH5" s="1">
+        <f t="shared" si="7"/>
+        <v>1.0333932879906844</v>
+      </c>
+      <c r="AI5">
         <f t="shared" si="8"/>
-        <v>-0.29277735122786908</v>
-      </c>
-      <c r="AH5" s="1">
-        <f t="shared" si="8"/>
-        <v>1.0333932879906844</v>
-      </c>
-      <c r="AI5">
+        <v>0.283316482340563</v>
+      </c>
+      <c r="AJ5">
+        <f>-(1.35-(1.35*(AL5/3255000)^-0.0723))+0.2354+1.382*AR5</f>
+        <v>0.26344143101404943</v>
+      </c>
+      <c r="AK5">
         <f t="shared" si="9"/>
-        <v>0.283316482340563</v>
-      </c>
-      <c r="AJ5">
-        <f t="shared" si="13"/>
-        <v>0.26344143101404943</v>
-      </c>
-      <c r="AK5">
-        <f t="shared" si="14"/>
         <v>-0.19408680441648557</v>
       </c>
       <c r="AL5">
@@ -1427,50 +1428,50 @@
         <v>74684.303747600003</v>
       </c>
       <c r="AN5" s="1">
-        <f t="shared" si="15"/>
+        <f t="shared" si="10"/>
         <v>-0.64440112884830525</v>
       </c>
       <c r="AO5">
-        <f t="shared" si="4"/>
+        <f>1/(2+AN5*AT5-2*0.33*(1+AN5+AT5))</f>
         <v>-0.28454229181900093</v>
       </c>
-      <c r="AP5" s="1">
-        <v>28139.598604578088</v>
+      <c r="AP5" s="3">
+        <v>22197.018444111502</v>
       </c>
       <c r="AQ5">
-        <f t="shared" ref="AQ5:AQ18" si="20">AM5/AL5</f>
+        <f t="shared" ref="AQ5:AQ18" si="12">AM5/AL5</f>
         <v>1.5118113914496207</v>
       </c>
       <c r="AR5">
-        <f t="shared" si="10"/>
+        <f>-1.386/(AE5+1.27)+0.03463</f>
         <v>-0.32515329648552765</v>
       </c>
       <c r="AS5">
+        <f>1.35*(AL5/3255000)^-0.0723-1.386/(AE5+1.27)+0.03463</f>
+        <v>1.502249990271521</v>
+      </c>
+      <c r="AT5">
+        <f>(2*AQ5+3)/(3-AQ5)</f>
+        <v>4.0476205423765181</v>
+      </c>
+      <c r="AU5" s="1">
+        <f>(1+2*AN5)*(AL5-AL4)*(1-AQ5/3)/(3*AO5*AP5*AN5)</f>
+        <v>-0.28244571002234398</v>
+      </c>
+      <c r="AV5">
         <f t="shared" si="11"/>
-        <v>1.502249990271521</v>
-      </c>
-      <c r="AT5">
-        <f t="shared" si="16"/>
-        <v>4.0476205423765181</v>
-      </c>
-      <c r="AU5" s="1">
-        <f t="shared" si="17"/>
-        <v>-0.22279822548023656</v>
-      </c>
-      <c r="AV5">
-        <f t="shared" si="18"/>
-        <v>-0.32772219721909018</v>
+        <v>-0.4154599009220542</v>
       </c>
       <c r="AW5" s="1">
-        <f t="shared" si="19"/>
-        <v>0.84572204388137662</v>
+        <f>2*(1-AN5)*(AL5-AL4)*(1-AQ5/3)/(9*AO5*AP5*AN5)</f>
+        <v>1.0721385354427455</v>
       </c>
       <c r="AX5">
         <f>AX4+AW5</f>
-        <v>1.5999177869566343</v>
+        <v>2.028247371990084</v>
       </c>
       <c r="AY5">
-        <f t="shared" si="12"/>
+        <f>(AT5*X5-4*X5*(1-0.01*P5-2*0.01*AF5)*(0.08/0.4)/(-0.08/0.4*0.01*P5-(2*0.08/0.4+3)*0.01*AF5+0.08/0.4+1))/1000</f>
         <v>85.079679730579613</v>
       </c>
     </row>
@@ -1561,15 +1562,15 @@
         <v>0.1159836065091735</v>
       </c>
       <c r="AC6">
+        <f t="shared" si="4"/>
+        <v>0.78685496487971285</v>
+      </c>
+      <c r="AD6">
         <f t="shared" si="5"/>
-        <v>0.78685496487971285</v>
-      </c>
-      <c r="AD6">
+        <v>-0.67087135837053935</v>
+      </c>
+      <c r="AE6" s="2">
         <f t="shared" si="6"/>
-        <v>-0.67087135837053935</v>
-      </c>
-      <c r="AE6" s="2">
-        <f t="shared" si="7"/>
         <v>3.616329679161276</v>
       </c>
       <c r="AF6">
@@ -1577,23 +1578,23 @@
         <v>-1.7115118341563267</v>
       </c>
       <c r="AG6" s="1">
+        <f t="shared" si="7"/>
+        <v>-0.25558943258467748</v>
+      </c>
+      <c r="AH6" s="1">
+        <f t="shared" si="7"/>
+        <v>1.0340107595814394</v>
+      </c>
+      <c r="AI6">
         <f t="shared" si="8"/>
-        <v>-0.25558943258467748</v>
-      </c>
-      <c r="AH6" s="1">
-        <f t="shared" si="8"/>
-        <v>1.0340107595814394</v>
-      </c>
-      <c r="AI6">
+        <v>0.24718256576763123</v>
+      </c>
+      <c r="AJ6">
+        <f>-(1.35-(1.35*(AL6/3255000)^-0.0723))+0.2354+1.382*AR6</f>
+        <v>0.31235392799603989</v>
+      </c>
+      <c r="AK6">
         <f t="shared" si="9"/>
-        <v>0.24718256576763123</v>
-      </c>
-      <c r="AJ6">
-        <f t="shared" si="13"/>
-        <v>0.31235392799603989</v>
-      </c>
-      <c r="AK6">
-        <f t="shared" si="14"/>
         <v>-0.17391490547081886</v>
       </c>
       <c r="AL6">
@@ -1605,50 +1606,50 @@
         <v>116883.154572</v>
       </c>
       <c r="AN6" s="1">
-        <f t="shared" si="15"/>
+        <f t="shared" si="10"/>
         <v>-0.67432760097192201</v>
       </c>
       <c r="AO6">
-        <f t="shared" si="4"/>
+        <f>1/(2+AN6*AT6-2*0.33*(1+AN6+AT6))</f>
         <v>-0.26724350256340568</v>
       </c>
-      <c r="AP6" s="1">
-        <v>28139.598604578088</v>
+      <c r="AP6" s="3">
+        <v>22197.018444111502</v>
       </c>
       <c r="AQ6">
-        <f t="shared" si="20"/>
+        <f t="shared" si="12"/>
         <v>1.5347109124734899</v>
       </c>
       <c r="AR6">
-        <f t="shared" si="10"/>
+        <f>-1.386/(AE6+1.27)+0.03463</f>
         <v>-0.24901848280926936</v>
       </c>
       <c r="AS6">
+        <f>1.35*(AL6/3255000)^-0.0723-1.386/(AE6+1.27)+0.03463</f>
+        <v>1.5220789884291808</v>
+      </c>
+      <c r="AT6">
+        <f>(2*AQ6+3)/(3-AQ6)</f>
+        <v>4.142132686726347</v>
+      </c>
+      <c r="AU6" s="1">
+        <f>(1+2*AN6)*(AL6-AL5)*(1-AQ6/3)/(3*AO6*AP6*AN6)</f>
+        <v>-0.37973181473801249</v>
+      </c>
+      <c r="AV6">
         <f t="shared" si="11"/>
-        <v>1.5220789884291808</v>
-      </c>
-      <c r="AT6">
-        <f t="shared" si="16"/>
-        <v>4.142132686726347</v>
-      </c>
-      <c r="AU6" s="1">
-        <f t="shared" si="17"/>
-        <v>-0.29953924410934124</v>
-      </c>
-      <c r="AV6">
-        <f t="shared" si="18"/>
-        <v>-0.62726144132843142</v>
+        <v>-0.79519171566006674</v>
       </c>
       <c r="AW6" s="1">
-        <f t="shared" si="19"/>
-        <v>0.95897383468518071</v>
+        <f>2*(1-AN6)*(AL6-AL5)*(1-AQ6/3)/(9*AO6*AP6*AN6)</f>
+        <v>1.2157100670199568</v>
       </c>
       <c r="AX6">
-        <f t="shared" ref="AX6:AX18" si="21">AX5+AW6</f>
-        <v>2.5588916216418149</v>
+        <f t="shared" ref="AX6:AX18" si="13">AX5+AW6</f>
+        <v>3.2439574390100407</v>
       </c>
       <c r="AY6">
-        <f t="shared" si="12"/>
+        <f>(AT6*X6-4*X6*(1-0.01*P6-2*0.01*AF6)*(0.08/0.4)/(-0.08/0.4*0.01*P6-(2*0.08/0.4+3)*0.01*AF6+0.08/0.4+1))/1000</f>
         <v>133.27363886553618</v>
       </c>
     </row>
@@ -1739,15 +1740,15 @@
         <v>-0.16414932304338326</v>
       </c>
       <c r="AC7">
+        <f t="shared" si="4"/>
+        <v>0.90925043408470774</v>
+      </c>
+      <c r="AD7">
         <f t="shared" si="5"/>
-        <v>0.90925043408470774</v>
-      </c>
-      <c r="AD7">
+        <v>-1.0733997571280911</v>
+      </c>
+      <c r="AE7" s="2">
         <f t="shared" si="6"/>
-        <v>-1.0733997571280911</v>
-      </c>
-      <c r="AE7" s="2">
-        <f t="shared" si="7"/>
         <v>4.708119553395461</v>
       </c>
       <c r="AF7">
@@ -1755,23 +1756,23 @@
         <v>-2.490850879233883</v>
       </c>
       <c r="AG7" s="1">
+        <f t="shared" si="7"/>
+        <v>-0.40252839875755175</v>
+      </c>
+      <c r="AH7" s="1">
+        <f t="shared" si="7"/>
+        <v>1.0917898742341849</v>
+      </c>
+      <c r="AI7">
         <f t="shared" si="8"/>
-        <v>-0.40252839875755175</v>
-      </c>
-      <c r="AH7" s="1">
-        <f t="shared" si="8"/>
-        <v>1.0917898742341849</v>
-      </c>
-      <c r="AI7">
+        <v>0.36868669352690009</v>
+      </c>
+      <c r="AJ7">
+        <f>-(1.35-(1.35*(AL7/3255000)^-0.0723))+0.2354+1.382*AR7</f>
+        <v>0.34406314165128504</v>
+      </c>
+      <c r="AK7">
         <f t="shared" si="9"/>
-        <v>0.36868669352690009</v>
-      </c>
-      <c r="AJ7">
-        <f t="shared" si="13"/>
-        <v>0.34406314165128504</v>
-      </c>
-      <c r="AK7">
-        <f t="shared" si="14"/>
         <v>-1.2528242095995235E-2</v>
       </c>
       <c r="AL7">
@@ -1783,50 +1784,50 @@
         <v>161586.88985345</v>
       </c>
       <c r="AN7" s="1">
-        <f t="shared" si="15"/>
+        <f t="shared" si="10"/>
         <v>-0.69431738780032637</v>
       </c>
       <c r="AO7">
-        <f t="shared" si="4"/>
+        <f>1/(2+AN7*AT7-2*0.33*(1+AN7+AT7))</f>
         <v>-0.25709111979456095</v>
       </c>
-      <c r="AP7" s="1">
-        <v>28139.598604578088</v>
+      <c r="AP7" s="3">
+        <v>22197.018444111502</v>
       </c>
       <c r="AQ7">
-        <f t="shared" si="20"/>
+        <f t="shared" si="12"/>
         <v>1.5483504356166418</v>
       </c>
       <c r="AR7">
-        <f t="shared" si="10"/>
+        <f>-1.386/(AE7+1.27)+0.03463</f>
         <v>-0.19721548044255452</v>
       </c>
       <c r="AS7">
+        <f>1.35*(AL7/3255000)^-0.0723-1.386/(AE7+1.27)+0.03463</f>
+        <v>1.5339994551803409</v>
+      </c>
+      <c r="AT7">
+        <f>(2*AQ7+3)/(3-AQ7)</f>
+        <v>4.1998434200771326</v>
+      </c>
+      <c r="AU7" s="1">
+        <f>(1+2*AN7)*(AL7-AL6)*(1-AQ7/3)/(3*AO7*AP7*AN7)</f>
+        <v>-0.44615412654970682</v>
+      </c>
+      <c r="AV7">
         <f t="shared" si="11"/>
-        <v>1.5339994551803409</v>
-      </c>
-      <c r="AT7">
-        <f t="shared" si="16"/>
-        <v>4.1998434200771326</v>
-      </c>
-      <c r="AU7" s="1">
-        <f t="shared" si="17"/>
-        <v>-0.35193435112926996</v>
-      </c>
-      <c r="AV7">
-        <f t="shared" si="18"/>
-        <v>-0.97919579245770139</v>
+        <v>-1.2413458422097736</v>
       </c>
       <c r="AW7" s="1">
-        <f t="shared" si="19"/>
-        <v>1.0228772237566861</v>
+        <f>2*(1-AN7)*(AL7-AL6)*(1-AQ7/3)/(9*AO7*AP7*AN7)</f>
+        <v>1.2967216552416791</v>
       </c>
       <c r="AX7">
-        <f t="shared" si="21"/>
-        <v>3.5817688453985008</v>
+        <f t="shared" si="13"/>
+        <v>4.5406790942517201</v>
       </c>
       <c r="AY7">
-        <f t="shared" si="12"/>
+        <f>(AT7*X7-4*X7*(1-0.01*P7-2*0.01*AF7)*(0.08/0.4)/(-0.08/0.4*0.01*P7-(2*0.08/0.4+3)*0.01*AF7+0.08/0.4+1))/1000</f>
         <v>184.69861856820185</v>
       </c>
     </row>
@@ -1917,15 +1918,15 @@
         <v>-0.49149247383222239</v>
       </c>
       <c r="AC8">
+        <f t="shared" si="4"/>
+        <v>1.0155664163094771</v>
+      </c>
+      <c r="AD8">
         <f t="shared" si="5"/>
-        <v>1.0155664163094771</v>
-      </c>
-      <c r="AD8">
+        <v>-1.5070588901416995</v>
+      </c>
+      <c r="AE8" s="2">
         <f t="shared" si="6"/>
-        <v>-1.5070588901416995</v>
-      </c>
-      <c r="AE8" s="2">
-        <f t="shared" si="7"/>
         <v>5.8224228299217398</v>
       </c>
       <c r="AF8">
@@ -1933,23 +1934,23 @@
         <v>-3.320788476487722</v>
       </c>
       <c r="AG8" s="1">
+        <f t="shared" si="7"/>
+        <v>-0.43365913301360837</v>
+      </c>
+      <c r="AH8" s="1">
+        <f t="shared" si="7"/>
+        <v>1.1143032765262788</v>
+      </c>
+      <c r="AI8">
         <f t="shared" si="8"/>
-        <v>-0.43365913301360837</v>
-      </c>
-      <c r="AH8" s="1">
-        <f t="shared" si="8"/>
-        <v>1.1143032765262788</v>
-      </c>
-      <c r="AI8">
+        <v>0.38917513943375837</v>
+      </c>
+      <c r="AJ8">
+        <f>-(1.35-(1.35*(AL8/3255000)^-0.0723))+0.2354+1.382*AR8</f>
+        <v>0.36322303973062842</v>
+      </c>
+      <c r="AK8">
         <f t="shared" si="9"/>
-        <v>0.38917513943375837</v>
-      </c>
-      <c r="AJ8">
-        <f t="shared" si="13"/>
-        <v>0.36322303973062842</v>
-      </c>
-      <c r="AK8">
-        <f t="shared" si="14"/>
         <v>3.9140567057673215E-2</v>
       </c>
       <c r="AL8">
@@ -1961,50 +1962,50 @@
         <v>209411.00116514997</v>
       </c>
       <c r="AN8" s="1">
-        <f t="shared" si="15"/>
+        <f t="shared" si="10"/>
         <v>-0.70662898978769995</v>
       </c>
       <c r="AO8">
-        <f t="shared" si="4"/>
+        <f>1/(2+AN8*AT8-2*0.33*(1+AN8+AT8))</f>
         <v>-0.24966869487155319</v>
       </c>
-      <c r="AP8" s="1">
-        <v>28139.598604578088</v>
+      <c r="AP8" s="3">
+        <v>22197.018444111502</v>
       </c>
       <c r="AQ8">
-        <f t="shared" si="20"/>
+        <f t="shared" si="12"/>
         <v>1.5605914814069928</v>
       </c>
       <c r="AR8">
-        <f t="shared" si="10"/>
+        <f>-1.386/(AE8+1.27)+0.03463</f>
         <v>-0.16078982101697306</v>
       </c>
       <c r="AS8">
+        <f>1.35*(AL8/3255000)^-0.0723-1.386/(AE8+1.27)+0.03463</f>
+        <v>1.5392447513591121</v>
+      </c>
+      <c r="AT8">
+        <f>(2*AQ8+3)/(3-AQ8)</f>
+        <v>4.2525682485173277</v>
+      </c>
+      <c r="AU8" s="1">
+        <f>(1+2*AN8)*(AL8-AL7)*(1-AQ8/3)/(3*AO8*AP8*AN8)</f>
+        <v>-0.50339814551857964</v>
+      </c>
+      <c r="AV8">
         <f t="shared" si="11"/>
-        <v>1.5392447513591121</v>
-      </c>
-      <c r="AT8">
-        <f t="shared" si="16"/>
-        <v>4.2525682485173277</v>
-      </c>
-      <c r="AU8" s="1">
-        <f t="shared" si="17"/>
-        <v>-0.39708945667012907</v>
-      </c>
-      <c r="AV8">
-        <f t="shared" si="18"/>
-        <v>-1.3762852491278306</v>
+        <v>-1.7447439877283533</v>
       </c>
       <c r="AW8" s="1">
-        <f t="shared" si="19"/>
-        <v>1.0932386254038746</v>
+        <f>2*(1-AN8)*(AL8-AL7)*(1-AQ8/3)/(9*AO8*AP8*AN8)</f>
+        <v>1.3859201935315204</v>
       </c>
       <c r="AX8">
-        <f t="shared" si="21"/>
-        <v>4.6750074708023757</v>
+        <f t="shared" si="13"/>
+        <v>5.9265992877832403</v>
       </c>
       <c r="AY8">
-        <f t="shared" si="12"/>
+        <f>(AT8*X8-4*X8*(1-0.01*P8-2*0.01*AF8)*(0.08/0.4)/(-0.08/0.4*0.01*P8-(2*0.08/0.4+3)*0.01*AF8+0.08/0.4+1))/1000</f>
         <v>238.74042309813143</v>
       </c>
     </row>
@@ -2095,15 +2096,15 @@
         <v>-0.88855303993187196</v>
       </c>
       <c r="AC9">
+        <f t="shared" si="4"/>
+        <v>1.1006971360059508</v>
+      </c>
+      <c r="AD9">
         <f t="shared" si="5"/>
-        <v>1.1006971360059508</v>
-      </c>
-      <c r="AD9">
+        <v>-1.9892501759378227</v>
+      </c>
+      <c r="AE9" s="2">
         <f t="shared" si="6"/>
-        <v>-1.9892501759378227</v>
-      </c>
-      <c r="AE9" s="2">
-        <f t="shared" si="7"/>
         <v>6.9544037559349565</v>
       </c>
       <c r="AF9">
@@ -2111,23 +2112,23 @@
         <v>-4.2176627445773711</v>
       </c>
       <c r="AG9" s="1">
+        <f t="shared" si="7"/>
+        <v>-0.48219128579612325</v>
+      </c>
+      <c r="AH9" s="1">
+        <f t="shared" si="7"/>
+        <v>1.1319809260132168</v>
+      </c>
+      <c r="AI9">
         <f t="shared" si="8"/>
-        <v>-0.48219128579612325</v>
-      </c>
-      <c r="AH9" s="1">
-        <f t="shared" si="8"/>
-        <v>1.1319809260132168</v>
-      </c>
-      <c r="AI9">
+        <v>0.42597121092347212</v>
+      </c>
+      <c r="AJ9">
+        <f>-(1.35-(1.35*(AL9/3255000)^-0.0723))+0.2354+1.382*AR9</f>
+        <v>0.37738801031012359</v>
+      </c>
+      <c r="AK9">
         <f t="shared" si="9"/>
-        <v>0.42597121092347212</v>
-      </c>
-      <c r="AJ9">
-        <f t="shared" si="13"/>
-        <v>0.37738801031012359</v>
-      </c>
-      <c r="AK9">
-        <f t="shared" si="14"/>
         <v>9.8943275276051956E-2</v>
       </c>
       <c r="AL9">
@@ -2139,50 +2140,50 @@
         <v>253290.84840685001</v>
       </c>
       <c r="AN9" s="1">
-        <f t="shared" si="15"/>
+        <f t="shared" si="10"/>
         <v>-0.71584665123571123</v>
       </c>
       <c r="AO9">
-        <f t="shared" si="4"/>
+        <f>1/(2+AN9*AT9-2*0.33*(1+AN9+AT9))</f>
         <v>-0.24660333072215271</v>
       </c>
-      <c r="AP9" s="1">
-        <v>28139.598604578088</v>
+      <c r="AP9" s="3">
+        <v>22197.018444111502</v>
       </c>
       <c r="AQ9">
-        <f t="shared" si="20"/>
+        <f t="shared" si="12"/>
         <v>1.563375740302964</v>
       </c>
       <c r="AR9">
-        <f t="shared" si="10"/>
+        <f>-1.386/(AE9+1.27)+0.03463</f>
         <v>-0.13389285480267482</v>
       </c>
       <c r="AS9">
+        <f>1.35*(AL9/3255000)^-0.0723-1.386/(AE9+1.27)+0.03463</f>
+        <v>1.5431350808447455</v>
+      </c>
+      <c r="AT9">
+        <f>(2*AQ9+3)/(3-AQ9)</f>
+        <v>4.2646860786674825</v>
+      </c>
+      <c r="AU9" s="1">
+        <f>(1+2*AN9)*(AL9-AL8)*(1-AQ9/3)/(3*AO9*AP9*AN9)</f>
+        <v>-0.48938489661504397</v>
+      </c>
+      <c r="AV9">
         <f t="shared" si="11"/>
-        <v>1.5431350808447455</v>
-      </c>
-      <c r="AT9">
-        <f t="shared" si="16"/>
-        <v>4.2646860786674825</v>
-      </c>
-      <c r="AU9" s="1">
-        <f t="shared" si="17"/>
-        <v>-0.38603555541358803</v>
-      </c>
-      <c r="AV9">
-        <f t="shared" si="18"/>
-        <v>-1.7623208045414187</v>
+        <v>-2.2341288843433973</v>
       </c>
       <c r="AW9" s="1">
-        <f t="shared" si="19"/>
-        <v>1.0229142020075257</v>
+        <f>2*(1-AN9)*(AL9-AL8)*(1-AQ9/3)/(9*AO9*AP9*AN9)</f>
+        <v>1.2967685333004757</v>
       </c>
       <c r="AX9">
-        <f t="shared" si="21"/>
-        <v>5.6979216728099011</v>
+        <f t="shared" si="13"/>
+        <v>7.2233678210837162</v>
       </c>
       <c r="AY9">
-        <f t="shared" si="12"/>
+        <f>(AT9*X9-4*X9*(1-0.01*P9-2*0.01*AF9)*(0.08/0.4)/(-0.08/0.4*0.01*P9-(2*0.08/0.4+3)*0.01*AF9+0.08/0.4+1))/1000</f>
         <v>288.26842852417082</v>
       </c>
     </row>
@@ -2273,15 +2274,15 @@
         <v>-1.305056091661605</v>
       </c>
       <c r="AC10">
+        <f t="shared" si="4"/>
+        <v>1.1729353875385273</v>
+      </c>
+      <c r="AD10">
         <f t="shared" si="5"/>
-        <v>1.1729353875385273</v>
-      </c>
-      <c r="AD10">
+        <v>-2.4779914792001323</v>
+      </c>
+      <c r="AE10" s="2">
         <f t="shared" si="6"/>
-        <v>-2.4779914792001323</v>
-      </c>
-      <c r="AE10" s="2">
-        <f t="shared" si="7"/>
         <v>8.087888554101534</v>
       </c>
       <c r="AF10">
@@ -2289,23 +2290,23 @@
         <v>-5.1314910201021045</v>
       </c>
       <c r="AG10" s="1">
+        <f t="shared" si="7"/>
+        <v>-0.48874130326230958</v>
+      </c>
+      <c r="AH10" s="1">
+        <f t="shared" si="7"/>
+        <v>1.1334847981665774</v>
+      </c>
+      <c r="AI10">
         <f t="shared" si="8"/>
-        <v>-0.48874130326230958</v>
-      </c>
-      <c r="AH10" s="1">
-        <f t="shared" si="8"/>
-        <v>1.1334847981665774</v>
-      </c>
-      <c r="AI10">
+        <v>0.43118470053842217</v>
+      </c>
+      <c r="AJ10">
+        <f>-(1.35-(1.35*(AL10/3255000)^-0.0723))+0.2354+1.382*AR10</f>
+        <v>0.3872736095632785</v>
+      </c>
+      <c r="AK10">
         <f t="shared" si="9"/>
-        <v>0.43118470053842217</v>
-      </c>
-      <c r="AJ10">
-        <f t="shared" si="13"/>
-        <v>0.3872736095632785</v>
-      </c>
-      <c r="AK10">
-        <f t="shared" si="14"/>
         <v>0.12248126928121894</v>
       </c>
       <c r="AL10">
@@ -2317,50 +2318,50 @@
         <v>294678.32969245</v>
       </c>
       <c r="AN10" s="1">
-        <f t="shared" si="15"/>
+        <f t="shared" si="10"/>
         <v>-0.72233878620861547</v>
       </c>
       <c r="AO10">
-        <f t="shared" si="4"/>
+        <f>1/(2+AN10*AT10-2*0.33*(1+AN10+AT10))</f>
         <v>-0.24553797096412017</v>
       </c>
-      <c r="AP10" s="1">
-        <v>28139.598604578088</v>
+      <c r="AP10" s="3">
+        <v>22197.018444111502</v>
       </c>
       <c r="AQ10">
-        <f t="shared" si="20"/>
+        <f t="shared" si="12"/>
         <v>1.5624116610317862</v>
       </c>
       <c r="AR10">
-        <f t="shared" si="10"/>
+        <f>-1.386/(AE10+1.27)+0.03463</f>
         <v>-0.11348033407664601</v>
       </c>
       <c r="AS10">
+        <f>1.35*(AL10/3255000)^-0.0723-1.386/(AE10+1.27)+0.03463</f>
+        <v>1.5452230971805572</v>
+      </c>
+      <c r="AT10">
+        <f>(2*AQ10+3)/(3-AQ10)</f>
+        <v>4.2604848384200737</v>
+      </c>
+      <c r="AU10" s="1">
+        <f>(1+2*AN10)*(AL10-AL9)*(1-AQ10/3)/(3*AO10*AP10*AN10)</f>
+        <v>-0.47972513946227247</v>
+      </c>
+      <c r="AV10">
         <f t="shared" si="11"/>
-        <v>1.5452230971805572</v>
-      </c>
-      <c r="AT10">
-        <f t="shared" si="16"/>
-        <v>4.2604848384200737</v>
-      </c>
-      <c r="AU10" s="1">
-        <f t="shared" si="17"/>
-        <v>-0.37841576627946655</v>
-      </c>
-      <c r="AV10">
-        <f t="shared" si="18"/>
-        <v>-2.1407365708208852</v>
+        <v>-2.7138540238056699</v>
       </c>
       <c r="AW10" s="1">
-        <f t="shared" si="19"/>
-        <v>0.97712768682120921</v>
+        <f>2*(1-AN10)*(AL10-AL9)*(1-AQ10/3)/(9*AO10*AP10*AN10)</f>
+        <v>1.2387240638556545</v>
       </c>
       <c r="AX10">
-        <f t="shared" si="21"/>
-        <v>6.6750493596311102</v>
+        <f t="shared" si="13"/>
+        <v>8.4620918849393707</v>
       </c>
       <c r="AY10">
-        <f t="shared" si="12"/>
+        <f>(AT10*X10-4*X10*(1-0.01*P10-2*0.01*AF10)*(0.08/0.4)/(-0.08/0.4*0.01*P10-(2*0.08/0.4+3)*0.01*AF10+0.08/0.4+1))/1000</f>
         <v>335.24516626817837</v>
       </c>
     </row>
@@ -2451,15 +2452,15 @@
         <v>-1.742412368716928</v>
       </c>
       <c r="AC11">
+        <f t="shared" si="4"/>
+        <v>1.2342634287037701</v>
+      </c>
+      <c r="AD11">
         <f t="shared" si="5"/>
-        <v>1.2342634287037701</v>
-      </c>
-      <c r="AD11">
+        <v>-2.9766757974206981</v>
+      </c>
+      <c r="AE11" s="2">
         <f t="shared" si="6"/>
-        <v>-2.9766757974206981</v>
-      </c>
-      <c r="AE11" s="2">
-        <f t="shared" si="7"/>
         <v>9.2382312100566431</v>
       </c>
       <c r="AF11">
@@ -2467,23 +2468,23 @@
         <v>-6.0711259122924277</v>
       </c>
       <c r="AG11" s="1">
+        <f t="shared" si="7"/>
+        <v>-0.4986843182205658</v>
+      </c>
+      <c r="AH11" s="1">
+        <f t="shared" si="7"/>
+        <v>1.1503426559551091</v>
+      </c>
+      <c r="AI11">
         <f t="shared" si="8"/>
-        <v>-0.4986843182205658</v>
-      </c>
-      <c r="AH11" s="1">
-        <f t="shared" si="8"/>
-        <v>1.1503426559551091</v>
-      </c>
-      <c r="AI11">
+        <v>0.43350936839468679</v>
+      </c>
+      <c r="AJ11">
+        <f>-(1.35-(1.35*(AL11/3255000)^-0.0723))+0.2354+1.382*AR11</f>
+        <v>0.39490204690982245</v>
+      </c>
+      <c r="AK11">
         <f t="shared" si="9"/>
-        <v>0.43350936839468679</v>
-      </c>
-      <c r="AJ11">
-        <f t="shared" si="13"/>
-        <v>0.39490204690982245</v>
-      </c>
-      <c r="AK11">
-        <f t="shared" si="14"/>
         <v>0.13958487615794091</v>
       </c>
       <c r="AL11">
@@ -2495,50 +2496,50 @@
         <v>332296.6699485</v>
       </c>
       <c r="AN11" s="1">
-        <f t="shared" si="15"/>
+        <f t="shared" si="10"/>
         <v>-0.72738226394216077</v>
       </c>
       <c r="AO11">
-        <f t="shared" si="4"/>
+        <f>1/(2+AN11*AT11-2*0.33*(1+AN11+AT11))</f>
         <v>-0.24650901070630371</v>
       </c>
-      <c r="AP11" s="1">
-        <v>28139.598604578088</v>
+      <c r="AP11" s="3">
+        <v>22197.018444111502</v>
       </c>
       <c r="AQ11">
-        <f t="shared" si="20"/>
+        <f t="shared" si="12"/>
         <v>1.5567284342015653</v>
       </c>
       <c r="AR11">
-        <f t="shared" si="10"/>
+        <f>-1.386/(AE11+1.27)+0.03463</f>
         <v>-9.7266602986196465E-2</v>
       </c>
       <c r="AS11">
+        <f>1.35*(AL11/3255000)^-0.0723-1.386/(AE11+1.27)+0.03463</f>
+        <v>1.5466578892505494</v>
+      </c>
+      <c r="AT11">
+        <f>(2*AQ11+3)/(3-AQ11)</f>
+        <v>4.235832682687886</v>
+      </c>
+      <c r="AU11" s="1">
+        <f>(1+2*AN11)*(AL11-AL10)*(1-AQ11/3)/(3*AO11*AP11*AN11)</f>
+        <v>-0.45539721054351362</v>
+      </c>
+      <c r="AV11">
         <f t="shared" si="11"/>
-        <v>1.5466578892505494</v>
-      </c>
-      <c r="AT11">
-        <f t="shared" si="16"/>
-        <v>4.235832682687886</v>
-      </c>
-      <c r="AU11" s="1">
-        <f t="shared" si="17"/>
-        <v>-0.35922546102653835</v>
-      </c>
-      <c r="AV11">
-        <f t="shared" si="18"/>
-        <v>-2.4999620318474234</v>
+        <v>-3.1692512343491837</v>
       </c>
       <c r="AW11" s="1">
-        <f t="shared" si="19"/>
-        <v>0.90965712595703285</v>
+        <f>2*(1-AN11)*(AL11-AL10)*(1-AQ11/3)/(9*AO11*AP11*AN11)</f>
+        <v>1.1531903015116696</v>
       </c>
       <c r="AX11">
-        <f t="shared" si="21"/>
-        <v>7.5847064855881428</v>
+        <f t="shared" si="13"/>
+        <v>9.61528218645104</v>
       </c>
       <c r="AY11">
-        <f t="shared" si="12"/>
+        <f>(AT11*X11-4*X11*(1-0.01*P11-2*0.01*AF11)*(0.08/0.4)/(-0.08/0.4*0.01*P11-(2*0.08/0.4+3)*0.01*AF11+0.08/0.4+1))/1000</f>
         <v>378.71117269034664</v>
       </c>
     </row>
@@ -2629,15 +2630,15 @@
         <v>-2.2197631133044293</v>
       </c>
       <c r="AC12">
+        <f t="shared" si="4"/>
+        <v>1.2930882904983581</v>
+      </c>
+      <c r="AD12">
         <f t="shared" si="5"/>
-        <v>1.2930882904983581</v>
-      </c>
-      <c r="AD12">
+        <v>-3.5128514038027872</v>
+      </c>
+      <c r="AE12" s="2">
         <f t="shared" si="6"/>
-        <v>-3.5128514038027872</v>
-      </c>
-      <c r="AE12" s="2">
-        <f t="shared" si="7"/>
         <v>10.393042696659142</v>
       </c>
       <c r="AF12">
@@ -2645,23 +2646,23 @@
         <v>-7.0463239427499289</v>
       </c>
       <c r="AG12" s="1">
+        <f t="shared" si="7"/>
+        <v>-0.53617560638208905</v>
+      </c>
+      <c r="AH12" s="1">
+        <f t="shared" si="7"/>
+        <v>1.1548114866024992</v>
+      </c>
+      <c r="AI12">
         <f t="shared" si="8"/>
-        <v>-0.53617560638208905</v>
-      </c>
-      <c r="AH12" s="1">
-        <f t="shared" si="8"/>
-        <v>1.1548114866024992</v>
-      </c>
-      <c r="AI12">
+        <v>0.46429708450470886</v>
+      </c>
+      <c r="AJ12">
+        <f>-(1.35-(1.35*(AL12/3255000)^-0.0723))+0.2354+1.382*AR12</f>
+        <v>0.39938993507632886</v>
+      </c>
+      <c r="AK12">
         <f t="shared" si="9"/>
-        <v>0.46429708450470886</v>
-      </c>
-      <c r="AJ12">
-        <f t="shared" si="13"/>
-        <v>0.39938993507632886</v>
-      </c>
-      <c r="AK12">
-        <f t="shared" si="14"/>
         <v>0.18393319450803192</v>
       </c>
       <c r="AL12">
@@ -2673,50 +2674,50 @@
         <v>372704.62721100001</v>
       </c>
       <c r="AN12" s="1">
-        <f t="shared" si="15"/>
+        <f t="shared" si="10"/>
         <v>-0.73036321772909729</v>
       </c>
       <c r="AO12">
-        <f t="shared" si="4"/>
+        <f>1/(2+AN12*AT12-2*0.33*(1+AN12+AT12))</f>
         <v>-0.24575448450502957</v>
       </c>
-      <c r="AP12" s="1">
-        <v>28139.598604578088</v>
+      <c r="AP12" s="3">
+        <v>22197.018444111502</v>
       </c>
       <c r="AQ12">
-        <f t="shared" si="20"/>
+        <f t="shared" si="12"/>
         <v>1.5570272623984061</v>
       </c>
       <c r="AR12">
-        <f t="shared" si="10"/>
+        <f>-1.386/(AE12+1.27)+0.03463</f>
         <v>-8.4206913835273622E-2</v>
       </c>
       <c r="AS12">
+        <f>1.35*(AL12/3255000)^-0.0723-1.386/(AE12+1.27)+0.03463</f>
+        <v>1.5461569761614034</v>
+      </c>
+      <c r="AT12">
+        <f>(2*AQ12+3)/(3-AQ12)</f>
+        <v>4.2371240741243357</v>
+      </c>
+      <c r="AU12" s="1">
+        <f>(1+2*AN12)*(AL12-AL11)*(1-AQ12/3)/(3*AO12*AP12*AN12)</f>
+        <v>-0.48040589479701584</v>
+      </c>
+      <c r="AV12">
         <f t="shared" si="11"/>
-        <v>1.5461569761614034</v>
-      </c>
-      <c r="AT12">
-        <f t="shared" si="16"/>
-        <v>4.2371240741243357</v>
-      </c>
-      <c r="AU12" s="1">
-        <f t="shared" si="17"/>
-        <v>-0.37895275825769498</v>
-      </c>
-      <c r="AV12">
-        <f t="shared" si="18"/>
-        <v>-2.8789147901051182</v>
+        <v>-3.6496571291461994</v>
       </c>
       <c r="AW12" s="1">
-        <f t="shared" si="19"/>
-        <v>0.94882901389408281</v>
+        <f>2*(1-AN12)*(AL12-AL11)*(1-AQ12/3)/(9*AO12*AP12*AN12)</f>
+        <v>1.2028492773740118</v>
       </c>
       <c r="AX12">
-        <f t="shared" si="21"/>
-        <v>8.533535499482225</v>
+        <f t="shared" si="13"/>
+        <v>10.818131463825052</v>
       </c>
       <c r="AY12">
-        <f t="shared" si="12"/>
+        <f>(AT12*X12-4*X12*(1-0.01*P12-2*0.01*AF12)*(0.08/0.4)/(-0.08/0.4*0.01*P12-(2*0.08/0.4+3)*0.01*AF12+0.08/0.4+1))/1000</f>
         <v>425.01970569761494</v>
       </c>
     </row>
@@ -2807,15 +2808,15 @@
         <v>-2.831527778097831</v>
       </c>
       <c r="AC13">
+        <f t="shared" si="4"/>
+        <v>1.3380229358605791</v>
+      </c>
+      <c r="AD13">
         <f t="shared" si="5"/>
-        <v>1.3380229358605791</v>
-      </c>
-      <c r="AD13">
+        <v>-4.1695507139584098</v>
+      </c>
+      <c r="AE13" s="2">
         <f t="shared" si="6"/>
-        <v>-4.1695507139584098</v>
-      </c>
-      <c r="AE13" s="2">
-        <f t="shared" si="7"/>
         <v>11.595556534490276</v>
       </c>
       <c r="AF13">
@@ -2823,23 +2824,23 @@
         <v>-8.15738474899333</v>
       </c>
       <c r="AG13" s="1">
+        <f t="shared" si="7"/>
+        <v>-0.65669931015562266</v>
+      </c>
+      <c r="AH13" s="1">
+        <f t="shared" si="7"/>
+        <v>1.202513837831134</v>
+      </c>
+      <c r="AI13">
         <f t="shared" si="8"/>
-        <v>-0.65669931015562266</v>
-      </c>
-      <c r="AH13" s="1">
-        <f t="shared" si="8"/>
-        <v>1.202513837831134</v>
-      </c>
-      <c r="AI13">
+        <v>0.54610540810079333</v>
+      </c>
+      <c r="AJ13">
+        <f>-(1.35-(1.35*(AL13/3255000)^-0.0723))+0.2354+1.382*AR13</f>
+        <v>0.40475924270843322</v>
+      </c>
+      <c r="AK13">
         <f t="shared" si="9"/>
-        <v>0.54610540810079333</v>
-      </c>
-      <c r="AJ13">
-        <f t="shared" si="13"/>
-        <v>0.40475924270843322</v>
-      </c>
-      <c r="AK13">
-        <f t="shared" si="14"/>
         <v>0.27572265345793878</v>
       </c>
       <c r="AL13">
@@ -2851,50 +2852,50 @@
         <v>403312.17996999994</v>
       </c>
       <c r="AN13" s="1">
-        <f t="shared" si="15"/>
+        <f t="shared" si="10"/>
         <v>-0.7339431755442487</v>
       </c>
       <c r="AO13">
-        <f t="shared" si="4"/>
+        <f>1/(2+AN13*AT13-2*0.33*(1+AN13+AT13))</f>
         <v>-0.24838259437231744</v>
       </c>
-      <c r="AP13" s="1">
-        <v>28139.598604578088</v>
+      <c r="AP13" s="3">
+        <v>22197.018444111502</v>
       </c>
       <c r="AQ13">
-        <f t="shared" si="20"/>
+        <f t="shared" si="12"/>
         <v>1.5476961308415831</v>
       </c>
       <c r="AR13">
-        <f t="shared" si="10"/>
+        <f>-1.386/(AE13+1.27)+0.03463</f>
         <v>-7.3099502123315035E-2</v>
       </c>
       <c r="AS13">
+        <f>1.35*(AL13/3255000)^-0.0723-1.386/(AE13+1.27)+0.03463</f>
+        <v>1.5472832525195395</v>
+      </c>
+      <c r="AT13">
+        <f>(2*AQ13+3)/(3-AQ13)</f>
+        <v>4.1970502118233233</v>
+      </c>
+      <c r="AU13" s="1">
+        <f>(1+2*AN13)*(AL13-AL12)*(1-AQ13/3)/(3*AO13*AP13*AN13)</f>
+        <v>-0.39592201162729174</v>
+      </c>
+      <c r="AV13">
         <f t="shared" si="11"/>
-        <v>1.5472832525195395</v>
-      </c>
-      <c r="AT13">
-        <f t="shared" si="16"/>
-        <v>4.1970502118233233</v>
-      </c>
-      <c r="AU13" s="1">
-        <f t="shared" si="17"/>
-        <v>-0.31231036085535846</v>
-      </c>
-      <c r="AV13">
-        <f t="shared" si="18"/>
-        <v>-3.1912251509604768</v>
+        <v>-4.0455791407734916</v>
       </c>
       <c r="AW13" s="1">
-        <f t="shared" si="19"/>
-        <v>0.77159537794750255</v>
+        <f>2*(1-AN13)*(AL13-AL12)*(1-AQ13/3)/(9*AO13*AP13*AN13)</f>
+        <v>0.97816669726426153</v>
       </c>
       <c r="AX13">
-        <f t="shared" si="21"/>
-        <v>9.3051308774297272</v>
+        <f t="shared" si="13"/>
+        <v>11.796298161089315</v>
       </c>
       <c r="AY13">
-        <f t="shared" si="12"/>
+        <f>(AT13*X13-4*X13*(1-0.01*P13-2*0.01*AF13)*(0.08/0.4)/(-0.08/0.4*0.01*P13-(2*0.08/0.4+3)*0.01*AF13+0.08/0.4+1))/1000</f>
         <v>460.41718589226116</v>
       </c>
     </row>
@@ -2985,15 +2986,15 @@
         <v>-3.327809748108379</v>
       </c>
       <c r="AC14">
+        <f t="shared" si="4"/>
+        <v>1.3745409124337273</v>
+      </c>
+      <c r="AD14">
         <f t="shared" si="5"/>
-        <v>1.3745409124337273</v>
-      </c>
-      <c r="AD14">
+        <v>-4.7023506605421064</v>
+      </c>
+      <c r="AE14" s="2">
         <f t="shared" si="6"/>
-        <v>-4.7023506605421064</v>
-      </c>
-      <c r="AE14" s="2">
-        <f t="shared" si="7"/>
         <v>12.760909153627127</v>
       </c>
       <c r="AF14">
@@ -3001,23 +3002,23 @@
         <v>-9.1536293669038784</v>
       </c>
       <c r="AG14" s="1">
+        <f t="shared" si="7"/>
+        <v>-0.53279994658369656</v>
+      </c>
+      <c r="AH14" s="1">
+        <f t="shared" si="7"/>
+        <v>1.1653526191368506</v>
+      </c>
+      <c r="AI14">
         <f t="shared" si="8"/>
-        <v>-0.53279994658369656</v>
-      </c>
-      <c r="AH14" s="1">
-        <f t="shared" si="8"/>
-        <v>1.1653526191368506</v>
-      </c>
-      <c r="AI14">
+        <v>0.45720062565983588</v>
+      </c>
+      <c r="AJ14">
+        <f>-(1.35-(1.35*(AL14/3255000)^-0.0723))+0.2354+1.382*AR14</f>
+        <v>0.40924005351355619</v>
+      </c>
+      <c r="AK14">
         <f t="shared" si="9"/>
-        <v>0.45720062565983588</v>
-      </c>
-      <c r="AJ14">
-        <f t="shared" si="13"/>
-        <v>0.40924005351355619</v>
-      </c>
-      <c r="AK14">
-        <f t="shared" si="14"/>
         <v>0.19470263304159252</v>
       </c>
       <c r="AL14">
@@ -3029,50 +3030,50 @@
         <v>428853.21413350001</v>
       </c>
       <c r="AN14" s="1">
-        <f t="shared" si="15"/>
+        <f t="shared" si="10"/>
         <v>-0.73694209149050793</v>
       </c>
       <c r="AO14">
-        <f t="shared" si="4"/>
+        <f>1/(2+AN14*AT14-2*0.33*(1+AN14+AT14))</f>
         <v>-0.25117776390813012</v>
       </c>
-      <c r="AP14" s="1">
-        <v>28139.598604578088</v>
+      <c r="AP14" s="3">
+        <v>22197.018444111502</v>
       </c>
       <c r="AQ14">
-        <f t="shared" si="20"/>
+        <f t="shared" si="12"/>
         <v>1.5383405150773626</v>
       </c>
       <c r="AR14">
-        <f t="shared" si="10"/>
+        <f>-1.386/(AE14+1.27)+0.03463</f>
         <v>-6.4151909627125303E-2</v>
       </c>
       <c r="AS14">
+        <f>1.35*(AL14/3255000)^-0.0723-1.386/(AE14+1.27)+0.03463</f>
+        <v>1.548346082991118</v>
+      </c>
+      <c r="AT14">
+        <f>(2*AQ14+3)/(3-AQ14)</f>
+        <v>4.1573848716730026</v>
+      </c>
+      <c r="AU14" s="1">
+        <f>(1+2*AN14)*(AL14-AL13)*(1-AQ14/3)/(3*AO14*AP14*AN14)</f>
+        <v>-0.34067986216555807</v>
+      </c>
+      <c r="AV14">
         <f t="shared" si="11"/>
-        <v>1.548346082991118</v>
-      </c>
-      <c r="AT14">
-        <f t="shared" si="16"/>
-        <v>4.1573848716730026</v>
-      </c>
-      <c r="AU14" s="1">
-        <f t="shared" si="17"/>
-        <v>-0.26873436577009191</v>
-      </c>
-      <c r="AV14">
-        <f t="shared" si="18"/>
-        <v>-3.4599595167305686</v>
+        <v>-4.3862590029390498</v>
       </c>
       <c r="AW14" s="1">
-        <f t="shared" si="19"/>
-        <v>0.65666682296333445</v>
+        <f>2*(1-AN14)*(AL14-AL13)*(1-AQ14/3)/(9*AO14*AP14*AN14)</f>
+        <v>0.83246949862465736</v>
       </c>
       <c r="AX14">
-        <f t="shared" si="21"/>
-        <v>9.9617977003930616</v>
+        <f t="shared" si="13"/>
+        <v>12.628767659713972</v>
       </c>
       <c r="AY14">
-        <f t="shared" si="12"/>
+        <f>(AT14*X14-4*X14*(1-0.01*P14-2*0.01*AF14)*(0.08/0.4)/(-0.08/0.4*0.01*P14-(2*0.08/0.4+3)*0.01*AF14+0.08/0.4+1))/1000</f>
         <v>490.92911718595383</v>
       </c>
     </row>
@@ -3163,15 +3164,15 @@
         <v>-4.1379641983745552</v>
       </c>
       <c r="AC15">
+        <f t="shared" si="4"/>
+        <v>1.3716721447836224</v>
+      </c>
+      <c r="AD15">
         <f t="shared" si="5"/>
-        <v>1.3716721447836224</v>
-      </c>
-      <c r="AD15">
+        <v>-5.5096363431581779</v>
+      </c>
+      <c r="AE15" s="2">
         <f t="shared" si="6"/>
-        <v>-5.5096363431581779</v>
-      </c>
-      <c r="AE15" s="2">
-        <f t="shared" si="7"/>
         <v>14.036175153849184</v>
       </c>
       <c r="AF15">
@@ -3179,23 +3180,23 @@
         <v>-10.466391075570055</v>
       </c>
       <c r="AG15" s="1">
+        <f t="shared" si="7"/>
+        <v>-0.80728568261607148</v>
+      </c>
+      <c r="AH15" s="1">
+        <f t="shared" si="7"/>
+        <v>1.2752660002220573</v>
+      </c>
+      <c r="AI15">
         <f t="shared" si="8"/>
-        <v>-0.80728568261607148</v>
-      </c>
-      <c r="AH15" s="1">
-        <f t="shared" si="8"/>
-        <v>1.2752660002220573</v>
-      </c>
-      <c r="AI15">
+        <v>0.63303317305997486</v>
+      </c>
+      <c r="AJ15">
+        <f>-(1.35-(1.35*(AL15/3255000)^-0.0723))+0.2354+1.382*AR15</f>
+        <v>0.42122650564008074</v>
+      </c>
+      <c r="AK15">
         <f t="shared" si="9"/>
-        <v>0.63303317305997486</v>
-      </c>
-      <c r="AJ15">
-        <f t="shared" si="13"/>
-        <v>0.42122650564008074</v>
-      </c>
-      <c r="AK15">
-        <f t="shared" si="14"/>
         <v>0.36992289433344772</v>
       </c>
       <c r="AL15">
@@ -3207,50 +3208,50 @@
         <v>414015.90840900003</v>
       </c>
       <c r="AN15" s="1">
-        <f t="shared" si="15"/>
+        <f t="shared" si="10"/>
         <v>-0.74501560910333109</v>
       </c>
       <c r="AO15">
-        <f t="shared" si="4"/>
+        <f>1/(2+AN15*AT15-2*0.33*(1+AN15+AT15))</f>
         <v>-0.26674919645894629</v>
       </c>
-      <c r="AP15" s="1">
-        <v>28139.598604578088</v>
+      <c r="AP15" s="3">
+        <v>22197.018444111502</v>
       </c>
       <c r="AQ15">
-        <f t="shared" si="20"/>
+        <f t="shared" si="12"/>
         <v>1.492936302783036</v>
       </c>
       <c r="AR15">
-        <f t="shared" si="10"/>
+        <f>-1.386/(AE15+1.27)+0.03463</f>
         <v>-5.5921688195692036E-2</v>
       </c>
       <c r="AS15">
+        <f>1.35*(AL15/3255000)^-0.0723-1.386/(AE15+1.27)+0.03463</f>
+        <v>1.5571885905308351</v>
+      </c>
+      <c r="AT15">
+        <f>(2*AQ15+3)/(3-AQ15)</f>
+        <v>3.9718776430086868</v>
+      </c>
+      <c r="AU15" s="1">
+        <f>(1+2*AN15)*(AL15-AL14)*(1-AQ15/3)/(3*AO15*AP15*AN15)</f>
+        <v>2.7158180354764989E-2</v>
+      </c>
+      <c r="AV15">
         <f t="shared" si="11"/>
-        <v>1.5571885905308351</v>
-      </c>
-      <c r="AT15">
-        <f t="shared" si="16"/>
-        <v>3.9718776430086868</v>
-      </c>
-      <c r="AU15" s="1">
-        <f t="shared" si="17"/>
-        <v>2.1422858183383946E-2</v>
-      </c>
-      <c r="AV15">
-        <f t="shared" si="18"/>
-        <v>-3.4385366585471848</v>
+        <v>-4.3591008225842849</v>
       </c>
       <c r="AW15" s="1">
-        <f t="shared" si="19"/>
-        <v>-5.0858286210718223E-2</v>
+        <f>2*(1-AN15)*(AL15-AL14)*(1-AQ15/3)/(9*AO15*AP15*AN15)</f>
+        <v>-6.447405372436471E-2</v>
       </c>
       <c r="AX15">
-        <f t="shared" si="21"/>
-        <v>9.9109394141823426</v>
+        <f t="shared" si="13"/>
+        <v>12.564293605989608</v>
       </c>
       <c r="AY15">
-        <f t="shared" si="12"/>
+        <f>(AT15*X15-4*X15*(1-0.01*P15-2*0.01*AF15)*(0.08/0.4)/(-0.08/0.4*0.01*P15-(2*0.08/0.4+3)*0.01*AF15+0.08/0.4+1))/1000</f>
         <v>475.64088360470163</v>
       </c>
     </row>
@@ -3341,15 +3342,15 @@
         <v>-5.6187271480327317</v>
       </c>
       <c r="AC16">
+        <f t="shared" si="4"/>
+        <v>1.3426263047016374</v>
+      </c>
+      <c r="AD16">
         <f t="shared" si="5"/>
-        <v>1.3426263047016374</v>
-      </c>
-      <c r="AD16">
+        <v>-6.961353452734369</v>
+      </c>
+      <c r="AE16" s="2">
         <f t="shared" si="6"/>
-        <v>-6.961353452734369</v>
-      </c>
-      <c r="AE16" s="2">
-        <f t="shared" si="7"/>
         <v>15.527784505235244</v>
       </c>
       <c r="AF16">
@@ -3357,23 +3358,23 @@
         <v>-12.446164875978232</v>
       </c>
       <c r="AG16" s="1">
+        <f t="shared" si="7"/>
+        <v>-1.4517171095761912</v>
+      </c>
+      <c r="AH16" s="1">
+        <f t="shared" si="7"/>
+        <v>1.4916093513860602</v>
+      </c>
+      <c r="AI16">
         <f t="shared" si="8"/>
-        <v>-1.4517171095761912</v>
-      </c>
-      <c r="AH16" s="1">
-        <f t="shared" si="8"/>
-        <v>1.4916093513860602</v>
-      </c>
-      <c r="AI16">
+        <v>0.97325557005069752</v>
+      </c>
+      <c r="AJ16">
+        <f>-(1.35-(1.35*(AL16/3255000)^-0.0723))+0.2354+1.382*AR16</f>
+        <v>0.43860647161855187</v>
+      </c>
+      <c r="AK16">
         <f t="shared" si="9"/>
-        <v>0.97325557005069752</v>
-      </c>
-      <c r="AJ16">
-        <f t="shared" si="13"/>
-        <v>0.43860647161855187</v>
-      </c>
-      <c r="AK16">
-        <f t="shared" si="14"/>
         <v>0.70387772075646149</v>
       </c>
       <c r="AL16">
@@ -3385,50 +3386,50 @@
         <v>376239.58324000001</v>
       </c>
       <c r="AN16" s="1">
-        <f t="shared" si="15"/>
+        <f t="shared" si="10"/>
         <v>-0.75685616057738803</v>
       </c>
       <c r="AO16">
-        <f t="shared" si="4"/>
+        <f>1/(2+AN16*AT16-2*0.33*(1+AN16+AT16))</f>
         <v>-0.28931138785423854</v>
       </c>
-      <c r="AP16" s="1">
-        <v>28139.598604578088</v>
+      <c r="AP16" s="3">
+        <v>22197.018444111502</v>
       </c>
       <c r="AQ16">
-        <f t="shared" si="20"/>
+        <f t="shared" si="12"/>
         <v>1.4314706702909348</v>
       </c>
       <c r="AR16">
-        <f t="shared" si="10"/>
+        <f>-1.386/(AE16+1.27)+0.03463</f>
         <v>-4.7880881096732435E-2</v>
       </c>
       <c r="AS16">
+        <f>1.35*(AL16/3255000)^-0.0723-1.386/(AE16+1.27)+0.03463</f>
+        <v>1.5714969681975037</v>
+      </c>
+      <c r="AT16">
+        <f>(2*AQ16+3)/(3-AQ16)</f>
+        <v>3.7378589163323728</v>
+      </c>
+      <c r="AU16" s="1">
+        <f>(1+2*AN16)*(AL16-AL15)*(1-AQ16/3)/(3*AO16*AP16*AN16)</f>
+        <v>0.26676698349963074</v>
+      </c>
+      <c r="AV16">
         <f t="shared" si="11"/>
-        <v>1.5714969681975037</v>
-      </c>
-      <c r="AT16">
-        <f t="shared" si="16"/>
-        <v>3.7378589163323728</v>
-      </c>
-      <c r="AU16" s="1">
-        <f t="shared" si="17"/>
-        <v>0.2104305657031626</v>
-      </c>
-      <c r="AV16">
-        <f t="shared" si="18"/>
-        <v>-3.2281060928440222</v>
+        <v>-4.0923338390846542</v>
       </c>
       <c r="AW16" s="1">
-        <f t="shared" si="19"/>
-        <v>-0.47977077248000632</v>
+        <f>2*(1-AN16)*(AL16-AL15)*(1-AQ16/3)/(9*AO16*AP16*AN16)</f>
+        <v>-0.60821488227294829</v>
       </c>
       <c r="AX16">
-        <f t="shared" si="21"/>
-        <v>9.431168641702337</v>
+        <f t="shared" si="13"/>
+        <v>11.95607872371666</v>
       </c>
       <c r="AY16">
-        <f t="shared" si="12"/>
+        <f>(AT16*X16-4*X16*(1-0.01*P16-2*0.01*AF16)*(0.08/0.4)/(-0.08/0.4*0.01*P16-(2*0.08/0.4+3)*0.01*AF16+0.08/0.4+1))/1000</f>
         <v>436.04289520981513</v>
       </c>
     </row>
@@ -3519,15 +3520,15 @@
         <v>-6.1987397390733445</v>
       </c>
       <c r="AC17">
+        <f t="shared" si="4"/>
+        <v>1.3365593830994347</v>
+      </c>
+      <c r="AD17">
         <f t="shared" si="5"/>
-        <v>1.3365593830994347</v>
-      </c>
-      <c r="AD17">
+        <v>-7.5352991221727788</v>
+      </c>
+      <c r="AE17" s="2">
         <f t="shared" si="6"/>
-        <v>-7.5352991221727788</v>
-      </c>
-      <c r="AE17" s="2">
-        <f t="shared" si="7"/>
         <v>16.718768563182113</v>
       </c>
       <c r="AF17">
@@ -3535,23 +3536,23 @@
         <v>-13.525000730818844</v>
       </c>
       <c r="AG17" s="1">
+        <f t="shared" si="7"/>
+        <v>-0.57394566943840974</v>
+      </c>
+      <c r="AH17" s="1">
+        <f t="shared" si="7"/>
+        <v>1.1909840579468689</v>
+      </c>
+      <c r="AI17">
         <f t="shared" si="8"/>
-        <v>-0.57394566943840974</v>
-      </c>
-      <c r="AH17" s="1">
-        <f t="shared" si="8"/>
-        <v>1.1909840579468689</v>
-      </c>
-      <c r="AI17">
+        <v>0.48190877586374381</v>
+      </c>
+      <c r="AJ17">
+        <f>-(1.35-(1.35*(AL17/3255000)^-0.0723))+0.2354+1.382*AR17</f>
+        <v>0.44748113814411483</v>
+      </c>
+      <c r="AK17">
         <f t="shared" si="9"/>
-        <v>0.48190877586374381</v>
-      </c>
-      <c r="AJ17">
-        <f t="shared" si="13"/>
-        <v>0.44748113814411483</v>
-      </c>
-      <c r="AK17">
-        <f t="shared" si="14"/>
         <v>0.21120585725632879</v>
       </c>
       <c r="AL17">
@@ -3563,50 +3564,50 @@
         <v>364252.63082599995</v>
       </c>
       <c r="AN17" s="1">
-        <f t="shared" si="15"/>
+        <f t="shared" si="10"/>
         <v>-0.76296444553132126</v>
       </c>
       <c r="AO17">
-        <f t="shared" si="4"/>
+        <f>1/(2+AN17*AT17-2*0.33*(1+AN17+AT17))</f>
         <v>-0.30094566909877035</v>
       </c>
-      <c r="AP17" s="1">
-        <v>28139.598604578088</v>
+      <c r="AP17" s="3">
+        <v>22197.018444111502</v>
       </c>
       <c r="AQ17">
-        <f t="shared" si="20"/>
+        <f t="shared" si="12"/>
         <v>1.4016313498926285</v>
       </c>
       <c r="AR17">
-        <f t="shared" si="10"/>
+        <f>-1.386/(AE17+1.27)+0.03463</f>
         <v>-4.2418075588495106E-2</v>
       </c>
       <c r="AS17">
+        <f>1.35*(AL17/3255000)^-0.0723-1.386/(AE17+1.27)+0.03463</f>
+        <v>1.57828484301892</v>
+      </c>
+      <c r="AT17">
+        <f>(2*AQ17+3)/(3-AQ17)</f>
+        <v>3.6307410680229615</v>
+      </c>
+      <c r="AU17" s="1">
+        <f>(1+2*AN17)*(AL17-AL16)*(1-AQ17/3)/(3*AO17*AP17*AN17)</f>
+        <v>5.4184702404329529E-2</v>
+      </c>
+      <c r="AV17">
         <f t="shared" si="11"/>
-        <v>1.57828484301892</v>
-      </c>
-      <c r="AT17">
-        <f t="shared" si="16"/>
-        <v>3.6307410680229615</v>
-      </c>
-      <c r="AU17" s="1">
-        <f t="shared" si="17"/>
-        <v>4.2741861941908418E-2</v>
-      </c>
-      <c r="AV17">
-        <f t="shared" si="18"/>
-        <v>-3.1853642309021137</v>
+        <v>-4.0381491366803246</v>
       </c>
       <c r="AW17" s="1">
-        <f t="shared" si="19"/>
-        <v>-9.5516566618151139E-2</v>
+        <f>2*(1-AN17)*(AL17-AL16)*(1-AQ17/3)/(9*AO17*AP17*AN17)</f>
+        <v>-0.12108823766082166</v>
       </c>
       <c r="AX17">
-        <f t="shared" si="21"/>
-        <v>9.3356520750841856</v>
+        <f t="shared" si="13"/>
+        <v>11.834990486055839</v>
       </c>
       <c r="AY17">
-        <f t="shared" si="12"/>
+        <f>(AT17*X17-4*X17*(1-0.01*P17-2*0.01*AF17)*(0.08/0.4)/(-0.08/0.4*0.01*P17-(2*0.08/0.4+3)*0.01*AF17+0.08/0.4+1))/1000</f>
         <v>423.39505457636022</v>
       </c>
     </row>
@@ -3697,15 +3698,15 @@
         <v>-7.4986021185680096</v>
       </c>
       <c r="AC18">
+        <f t="shared" si="4"/>
+        <v>1.2944292306190333</v>
+      </c>
+      <c r="AD18">
         <f t="shared" si="5"/>
-        <v>1.2944292306190333</v>
-      </c>
-      <c r="AD18">
+        <v>-8.7930313491870429</v>
+      </c>
+      <c r="AE18" s="2">
         <f t="shared" si="6"/>
-        <v>-8.7930313491870429</v>
-      </c>
-      <c r="AE18" s="2">
-        <f t="shared" si="7"/>
         <v>18.156405220313669</v>
       </c>
       <c r="AF18">
@@ -3713,23 +3714,23 @@
         <v>-15.327037708963509</v>
       </c>
       <c r="AG18" s="1">
+        <f t="shared" si="7"/>
+        <v>-1.2577322270142641</v>
+      </c>
+      <c r="AH18" s="1">
+        <f t="shared" si="7"/>
+        <v>1.4376366571315558</v>
+      </c>
+      <c r="AI18">
         <f t="shared" si="8"/>
-        <v>-1.2577322270142641</v>
-      </c>
-      <c r="AH18" s="1">
-        <f t="shared" si="8"/>
-        <v>1.4376366571315558</v>
-      </c>
-      <c r="AI18">
+        <v>0.87486098853639005</v>
+      </c>
+      <c r="AJ18">
+        <f>-(1.35-(1.35*(AL18/3255000)^-0.0723))+0.2354+1.382*AR18</f>
+        <v>0.46471964817174405</v>
+      </c>
+      <c r="AK18">
         <f t="shared" si="9"/>
-        <v>0.87486098853639005</v>
-      </c>
-      <c r="AJ18">
-        <f t="shared" si="13"/>
-        <v>0.46471964817174405</v>
-      </c>
-      <c r="AK18">
-        <f t="shared" si="14"/>
         <v>0.59479956563279646</v>
       </c>
       <c r="AL18">
@@ -3741,50 +3742,50 @@
         <v>321106.96157449996</v>
       </c>
       <c r="AN18" s="1">
-        <f t="shared" si="15"/>
+        <f t="shared" si="10"/>
         <v>-0.77495163276713519</v>
       </c>
       <c r="AO18">
-        <f t="shared" si="4"/>
+        <f>1/(2+AN18*AT18-2*0.33*(1+AN18+AT18))</f>
         <v>-0.32794662491048199</v>
       </c>
-      <c r="AP18" s="1">
-        <v>28139.598604578088</v>
+      <c r="AP18" s="3">
+        <v>22197.018444111502</v>
       </c>
       <c r="AQ18">
-        <f t="shared" si="20"/>
+        <f t="shared" si="12"/>
         <v>1.3380324737091922</v>
       </c>
       <c r="AR18">
-        <f t="shared" si="10"/>
+        <f>-1.386/(AE18+1.27)+0.03463</f>
         <v>-3.671619010987668E-2</v>
       </c>
       <c r="AS18">
+        <f>1.35*(AL18/3255000)^-0.0723-1.386/(AE18+1.27)+0.03463</f>
+        <v>1.593345232793717</v>
+      </c>
+      <c r="AT18">
+        <f>(2*AQ18+3)/(3-AQ18)</f>
+        <v>3.4152682634457188</v>
+      </c>
+      <c r="AU18" s="1">
+        <f>(1+2*AN18)*(AL18-AL17)*(1-AQ18/3)/(3*AO18*AP18*AN18)</f>
+        <v>0.35809520796233951</v>
+      </c>
+      <c r="AV18">
         <f t="shared" si="11"/>
-        <v>1.593345232793717</v>
-      </c>
-      <c r="AT18">
-        <f t="shared" si="16"/>
-        <v>3.4152682634457188</v>
-      </c>
-      <c r="AU18" s="1">
-        <f t="shared" si="17"/>
-        <v>0.28247190187690924</v>
-      </c>
-      <c r="AV18">
-        <f t="shared" si="18"/>
-        <v>-2.9028923290252044</v>
+        <v>-3.6800539287179852</v>
       </c>
       <c r="AW18" s="1">
-        <f t="shared" si="19"/>
-        <v>-0.60783292246881204</v>
+        <f>2*(1-AN18)*(AL18-AL17)*(1-AQ18/3)/(9*AO18*AP18*AN18)</f>
+        <v>-0.77056179864811791</v>
       </c>
       <c r="AX18">
-        <f t="shared" si="21"/>
-        <v>8.727819152615373</v>
+        <f t="shared" si="13"/>
+        <v>11.064428687407721</v>
       </c>
       <c r="AY18">
-        <f t="shared" si="12"/>
+        <f>(AT18*X18-4*X18*(1-0.01*P18-2*0.01*AF18)*(0.08/0.4)/(-0.08/0.4*0.01*P18-(2*0.08/0.4+3)*0.01*AF18+0.08/0.4+1))/1000</f>
         <v>378.87076656985465</v>
       </c>
     </row>
@@ -4134,6 +4135,12 @@
       <c r="AB22">
         <f t="shared" si="0"/>
         <v>-10.514933165594421</v>
+      </c>
+    </row>
+    <row r="23" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="W23">
+        <f>MIN(W2:W22)</f>
+        <v>4.2122077073200002</v>
       </c>
     </row>
   </sheetData>
